--- a/nomenclature_parser/in/Nomenclatures EMSI RESOURCE.xlsx
+++ b/nomenclature_parser/in/Nomenclatures EMSI RESOURCE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1185" documentId="8_{4FA08952-AD8A-4EC5-BA39-9F1D18567017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{214C817F-8A69-496F-A837-F98EB7235FEA}"/>
+  <xr:revisionPtr revIDLastSave="1188" documentId="8_{4FA08952-AD8A-4EC5-BA39-9F1D18567017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E1CD0F2-E84D-4839-9F12-1562F3524767}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E3A59C1D-DF4F-40E3-A908-700669E2F1F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E3A59C1D-DF4F-40E3-A908-700669E2F1F4}"/>
   </bookViews>
   <sheets>
     <sheet name="RESOURCE.UM" sheetId="6" r:id="rId1"/>
@@ -5948,7 +5948,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6688,7 +6688,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F75B1DA5-9891-4F6A-AB67-59BFCEA39278}" name="Table134579113" displayName="Table134579113" ref="A9:F610" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A9:F610" xr:uid="{055641F3-D0AB-4717-B922-6E3A5263A366}"/>
+  <autoFilter ref="A9:F610" xr:uid="{055641F3-D0AB-4717-B922-6E3A5263A366}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Véhicule"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D3C2EF9F-0A39-4713-AB81-BA1DFEE125BD}" name="Code" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{BDEDD48A-6D09-407F-B330-F11B697A342A}" name="Libellé niveau 1" dataDxfId="10"/>
@@ -6715,7 +6721,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7013,19 +7019,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CEF5FD-1940-42EA-85AA-122B06213404}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="3" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7034,7 +7041,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7043,7 +7050,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -7052,7 +7059,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -7061,7 +7068,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -7070,14 +7077,14 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -7086,14 +7093,14 @@
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -7110,7 +7117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -7123,7 +7130,7 @@
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
@@ -7136,7 +7143,7 @@
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
@@ -7149,7 +7156,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -7162,7 +7169,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
@@ -7175,7 +7182,7 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
@@ -7190,7 +7197,7 @@
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
@@ -7205,7 +7212,7 @@
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -7220,7 +7227,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -7235,7 +7242,7 @@
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>39</v>
       </c>
@@ -7250,7 +7257,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>41</v>
       </c>
@@ -7265,7 +7272,7 @@
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>44</v>
       </c>
@@ -7280,7 +7287,7 @@
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>47</v>
       </c>
@@ -7295,7 +7302,7 @@
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
@@ -7310,7 +7317,7 @@
       </c>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
@@ -7325,7 +7332,7 @@
       </c>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>55</v>
       </c>
@@ -7340,7 +7347,7 @@
       </c>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>58</v>
       </c>
@@ -7355,7 +7362,7 @@
       </c>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>61</v>
       </c>
@@ -7370,7 +7377,7 @@
       </c>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>63</v>
       </c>
@@ -7385,7 +7392,7 @@
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>65</v>
       </c>
@@ -7400,7 +7407,7 @@
       </c>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>68</v>
       </c>
@@ -7415,7 +7422,7 @@
       </c>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>70</v>
       </c>
@@ -7430,7 +7437,7 @@
       </c>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>73</v>
       </c>
@@ -7445,7 +7452,7 @@
       </c>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>76</v>
       </c>
@@ -7460,7 +7467,7 @@
       </c>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>79</v>
       </c>
@@ -7475,7 +7482,7 @@
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>82</v>
       </c>
@@ -7490,7 +7497,7 @@
       </c>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>85</v>
       </c>
@@ -7505,7 +7512,7 @@
       </c>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>88</v>
       </c>
@@ -7520,7 +7527,7 @@
       </c>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>91</v>
       </c>
@@ -7535,7 +7542,7 @@
       </c>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>94</v>
       </c>
@@ -7550,7 +7557,7 @@
       </c>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>97</v>
       </c>
@@ -7565,7 +7572,7 @@
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>100</v>
       </c>
@@ -7580,7 +7587,7 @@
       </c>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>103</v>
       </c>
@@ -7595,7 +7602,7 @@
       </c>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>106</v>
       </c>
@@ -7610,7 +7617,7 @@
       </c>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>108</v>
       </c>
@@ -7625,7 +7632,7 @@
       </c>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>111</v>
       </c>
@@ -7640,7 +7647,7 @@
       </c>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>114</v>
       </c>
@@ -7655,7 +7662,7 @@
       </c>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>117</v>
       </c>
@@ -7670,7 +7677,7 @@
       </c>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>120</v>
       </c>
@@ -7685,7 +7692,7 @@
       </c>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>123</v>
       </c>
@@ -7700,7 +7707,7 @@
       </c>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>126</v>
       </c>
@@ -7715,7 +7722,7 @@
       </c>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>129</v>
       </c>
@@ -7730,7 +7737,7 @@
       </c>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>132</v>
       </c>
@@ -7745,7 +7752,7 @@
       </c>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>135</v>
       </c>
@@ -7760,7 +7767,7 @@
       </c>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>137</v>
       </c>
@@ -7775,7 +7782,7 @@
       </c>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>140</v>
       </c>
@@ -7790,7 +7797,7 @@
       </c>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>143</v>
       </c>
@@ -7805,7 +7812,7 @@
       </c>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>145</v>
       </c>
@@ -7820,7 +7827,7 @@
       </c>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>148</v>
       </c>
@@ -7835,7 +7842,7 @@
       </c>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>151</v>
       </c>
@@ -7862,11 +7869,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CB9E0D-B8DC-4CCE-8710-BDDD2261629F}">
   <dimension ref="A1:F610"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E161" sqref="E161"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A312" sqref="A312"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="4" width="22.42578125" customWidth="1"/>
@@ -7874,7 +7881,7 @@
     <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7884,7 +7891,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7894,7 +7901,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -7904,7 +7911,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -7914,7 +7921,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -7924,7 +7931,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -7932,7 +7939,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -7942,7 +7949,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -7950,7 +7957,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -7970,7 +7977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>157</v>
       </c>
@@ -7984,7 +7991,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>160</v>
       </c>
@@ -7998,7 +8005,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>163</v>
       </c>
@@ -8012,7 +8019,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>166</v>
       </c>
@@ -8026,7 +8033,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>169</v>
       </c>
@@ -8042,7 +8049,7 @@
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>172</v>
       </c>
@@ -8058,7 +8065,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>175</v>
       </c>
@@ -8074,7 +8081,7 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>178</v>
       </c>
@@ -8090,7 +8097,7 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>181</v>
       </c>
@@ -8106,7 +8113,7 @@
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>184</v>
       </c>
@@ -8122,7 +8129,7 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>187</v>
       </c>
@@ -8138,7 +8145,7 @@
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>190</v>
       </c>
@@ -8156,7 +8163,7 @@
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>193</v>
       </c>
@@ -8174,7 +8181,7 @@
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>196</v>
       </c>
@@ -8192,7 +8199,7 @@
       </c>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>199</v>
       </c>
@@ -8210,7 +8217,7 @@
       </c>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>202</v>
       </c>
@@ -8228,7 +8235,7 @@
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>205</v>
       </c>
@@ -8246,7 +8253,7 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>208</v>
       </c>
@@ -8264,7 +8271,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>211</v>
       </c>
@@ -8282,7 +8289,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>214</v>
       </c>
@@ -8300,7 +8307,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>217</v>
       </c>
@@ -8318,7 +8325,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>220</v>
       </c>
@@ -8336,7 +8343,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>223</v>
       </c>
@@ -8354,7 +8361,7 @@
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>226</v>
       </c>
@@ -8372,7 +8379,7 @@
       </c>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>229</v>
       </c>
@@ -8390,7 +8397,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>231</v>
       </c>
@@ -8408,7 +8415,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>234</v>
       </c>
@@ -8426,7 +8433,7 @@
       </c>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>237</v>
       </c>
@@ -8444,7 +8451,7 @@
       </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>240</v>
       </c>
@@ -8462,7 +8469,7 @@
       </c>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>243</v>
       </c>
@@ -8480,7 +8487,7 @@
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>246</v>
       </c>
@@ -8498,7 +8505,7 @@
       </c>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>249</v>
       </c>
@@ -8516,7 +8523,7 @@
       </c>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>252</v>
       </c>
@@ -8534,7 +8541,7 @@
       </c>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>255</v>
       </c>
@@ -8552,7 +8559,7 @@
       </c>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>258</v>
       </c>
@@ -8570,7 +8577,7 @@
       </c>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>261</v>
       </c>
@@ -8588,7 +8595,7 @@
       </c>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>264</v>
       </c>
@@ -8606,7 +8613,7 @@
       </c>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>267</v>
       </c>
@@ -8624,7 +8631,7 @@
       </c>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>270</v>
       </c>
@@ -8642,7 +8649,7 @@
       </c>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>273</v>
       </c>
@@ -8660,7 +8667,7 @@
       </c>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>276</v>
       </c>
@@ -8678,7 +8685,7 @@
       </c>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>279</v>
       </c>
@@ -8696,7 +8703,7 @@
       </c>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>282</v>
       </c>
@@ -8714,7 +8721,7 @@
       </c>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>285</v>
       </c>
@@ -8732,7 +8739,7 @@
       </c>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>288</v>
       </c>
@@ -8750,7 +8757,7 @@
       </c>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>291</v>
       </c>
@@ -8768,7 +8775,7 @@
       </c>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>294</v>
       </c>
@@ -8786,7 +8793,7 @@
       </c>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>296</v>
       </c>
@@ -8804,7 +8811,7 @@
       </c>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>299</v>
       </c>
@@ -8822,7 +8829,7 @@
       </c>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>301</v>
       </c>
@@ -8840,7 +8847,7 @@
       </c>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>304</v>
       </c>
@@ -8858,7 +8865,7 @@
       </c>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>307</v>
       </c>
@@ -8876,7 +8883,7 @@
       </c>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>310</v>
       </c>
@@ -8894,7 +8901,7 @@
       </c>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>313</v>
       </c>
@@ -8912,7 +8919,7 @@
       </c>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>316</v>
       </c>
@@ -8930,7 +8937,7 @@
       </c>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>319</v>
       </c>
@@ -8948,7 +8955,7 @@
       </c>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>322</v>
       </c>
@@ -8966,7 +8973,7 @@
       </c>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>325</v>
       </c>
@@ -8984,7 +8991,7 @@
       </c>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>328</v>
       </c>
@@ -9002,7 +9009,7 @@
       </c>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>330</v>
       </c>
@@ -9020,7 +9027,7 @@
       </c>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>333</v>
       </c>
@@ -9038,7 +9045,7 @@
       </c>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>335</v>
       </c>
@@ -9056,7 +9063,7 @@
       </c>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>338</v>
       </c>
@@ -9074,7 +9081,7 @@
       </c>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>341</v>
       </c>
@@ -9092,7 +9099,7 @@
       </c>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>344</v>
       </c>
@@ -9110,7 +9117,7 @@
       </c>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>347</v>
       </c>
@@ -9128,7 +9135,7 @@
       </c>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>350</v>
       </c>
@@ -9146,7 +9153,7 @@
       </c>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>353</v>
       </c>
@@ -9164,7 +9171,7 @@
       </c>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>356</v>
       </c>
@@ -9182,7 +9189,7 @@
       </c>
       <c r="F78" s="7"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>358</v>
       </c>
@@ -9200,7 +9207,7 @@
       </c>
       <c r="F79" s="7"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>361</v>
       </c>
@@ -9218,7 +9225,7 @@
       </c>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>363</v>
       </c>
@@ -9236,7 +9243,7 @@
       </c>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>366</v>
       </c>
@@ -9254,7 +9261,7 @@
       </c>
       <c r="F82" s="7"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>369</v>
       </c>
@@ -9272,7 +9279,7 @@
       </c>
       <c r="F83" s="7"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>372</v>
       </c>
@@ -9290,7 +9297,7 @@
       </c>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>375</v>
       </c>
@@ -9308,7 +9315,7 @@
       </c>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>378</v>
       </c>
@@ -9326,7 +9333,7 @@
       </c>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>381</v>
       </c>
@@ -9344,7 +9351,7 @@
       </c>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>384</v>
       </c>
@@ -9362,7 +9369,7 @@
       </c>
       <c r="F88" s="7"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>386</v>
       </c>
@@ -9380,7 +9387,7 @@
       </c>
       <c r="F89" s="7"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>389</v>
       </c>
@@ -9398,7 +9405,7 @@
       </c>
       <c r="F90" s="7"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>392</v>
       </c>
@@ -9416,7 +9423,7 @@
       </c>
       <c r="F91" s="7"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>395</v>
       </c>
@@ -9434,7 +9441,7 @@
       </c>
       <c r="F92" s="7"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>398</v>
       </c>
@@ -9452,7 +9459,7 @@
       </c>
       <c r="F93" s="7"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>401</v>
       </c>
@@ -9470,7 +9477,7 @@
       </c>
       <c r="F94" s="7"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>404</v>
       </c>
@@ -9488,7 +9495,7 @@
       </c>
       <c r="F95" s="7"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>407</v>
       </c>
@@ -9506,7 +9513,7 @@
       </c>
       <c r="F96" s="7"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>410</v>
       </c>
@@ -9524,7 +9531,7 @@
       </c>
       <c r="F97" s="7"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>413</v>
       </c>
@@ -9542,7 +9549,7 @@
       </c>
       <c r="F98" s="7"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>416</v>
       </c>
@@ -9560,7 +9567,7 @@
       </c>
       <c r="F99" s="7"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>419</v>
       </c>
@@ -9578,7 +9585,7 @@
       </c>
       <c r="F100" s="7"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>422</v>
       </c>
@@ -9596,7 +9603,7 @@
       </c>
       <c r="F101" s="7"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>425</v>
       </c>
@@ -9614,7 +9621,7 @@
       </c>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>428</v>
       </c>
@@ -9632,7 +9639,7 @@
       </c>
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>431</v>
       </c>
@@ -9650,7 +9657,7 @@
       </c>
       <c r="F104" s="7"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>434</v>
       </c>
@@ -9668,7 +9675,7 @@
       </c>
       <c r="F105" s="7"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>437</v>
       </c>
@@ -9686,7 +9693,7 @@
       </c>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>439</v>
       </c>
@@ -9704,7 +9711,7 @@
       </c>
       <c r="F107" s="7"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>442</v>
       </c>
@@ -9722,7 +9729,7 @@
       </c>
       <c r="F108" s="7"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>442</v>
       </c>
@@ -9740,7 +9747,7 @@
       </c>
       <c r="F109" s="7"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>447</v>
       </c>
@@ -9758,7 +9765,7 @@
       </c>
       <c r="F110" s="7"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>450</v>
       </c>
@@ -9776,7 +9783,7 @@
       </c>
       <c r="F111" s="7"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>453</v>
       </c>
@@ -9794,7 +9801,7 @@
       </c>
       <c r="F112" s="7"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>456</v>
       </c>
@@ -9812,7 +9819,7 @@
       </c>
       <c r="F113" s="7"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>459</v>
       </c>
@@ -9830,7 +9837,7 @@
       </c>
       <c r="F114" s="7"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>462</v>
       </c>
@@ -9848,7 +9855,7 @@
       </c>
       <c r="F115" s="7"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>465</v>
       </c>
@@ -9866,7 +9873,7 @@
       </c>
       <c r="F116" s="7"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>468</v>
       </c>
@@ -9884,7 +9891,7 @@
       </c>
       <c r="F117" s="7"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>471</v>
       </c>
@@ -9902,7 +9909,7 @@
       </c>
       <c r="F118" s="7"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>474</v>
       </c>
@@ -9920,7 +9927,7 @@
       </c>
       <c r="F119" s="7"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>477</v>
       </c>
@@ -9938,7 +9945,7 @@
       </c>
       <c r="F120" s="7"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>480</v>
       </c>
@@ -9956,7 +9963,7 @@
       </c>
       <c r="F121" s="7"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>483</v>
       </c>
@@ -9974,7 +9981,7 @@
       </c>
       <c r="F122" s="7"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>486</v>
       </c>
@@ -9992,7 +9999,7 @@
       </c>
       <c r="F123" s="7"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>489</v>
       </c>
@@ -10010,7 +10017,7 @@
       </c>
       <c r="F124" s="7"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>492</v>
       </c>
@@ -10028,7 +10035,7 @@
       </c>
       <c r="F125" s="7"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>495</v>
       </c>
@@ -10046,7 +10053,7 @@
       </c>
       <c r="F126" s="7"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>498</v>
       </c>
@@ -10064,7 +10071,7 @@
       </c>
       <c r="F127" s="7"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>501</v>
       </c>
@@ -10082,7 +10089,7 @@
       </c>
       <c r="F128" s="7"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>504</v>
       </c>
@@ -10100,7 +10107,7 @@
       </c>
       <c r="F129" s="7"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>507</v>
       </c>
@@ -10118,7 +10125,7 @@
       </c>
       <c r="F130" s="7"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>510</v>
       </c>
@@ -10136,7 +10143,7 @@
       </c>
       <c r="F131" s="7"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>513</v>
       </c>
@@ -10154,7 +10161,7 @@
       </c>
       <c r="F132" s="7"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>516</v>
       </c>
@@ -10172,7 +10179,7 @@
       </c>
       <c r="F133" s="7"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>519</v>
       </c>
@@ -10190,7 +10197,7 @@
       </c>
       <c r="F134" s="7"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>522</v>
       </c>
@@ -10208,7 +10215,7 @@
       </c>
       <c r="F135" s="7"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>525</v>
       </c>
@@ -10226,7 +10233,7 @@
       </c>
       <c r="F136" s="7"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>528</v>
       </c>
@@ -10244,7 +10251,7 @@
       </c>
       <c r="F137" s="7"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>531</v>
       </c>
@@ -10262,7 +10269,7 @@
       </c>
       <c r="F138" s="7"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>534</v>
       </c>
@@ -10280,7 +10287,7 @@
       </c>
       <c r="F139" s="7"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>537</v>
       </c>
@@ -10298,7 +10305,7 @@
       </c>
       <c r="F140" s="7"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>540</v>
       </c>
@@ -10316,7 +10323,7 @@
       </c>
       <c r="F141" s="7"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>543</v>
       </c>
@@ -10334,7 +10341,7 @@
       </c>
       <c r="F142" s="7"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>546</v>
       </c>
@@ -10352,7 +10359,7 @@
       </c>
       <c r="F143" s="7"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>549</v>
       </c>
@@ -10370,7 +10377,7 @@
       </c>
       <c r="F144" s="7"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>552</v>
       </c>
@@ -10388,7 +10395,7 @@
       </c>
       <c r="F145" s="7"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>555</v>
       </c>
@@ -10406,7 +10413,7 @@
       </c>
       <c r="F146" s="7"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>558</v>
       </c>
@@ -10424,7 +10431,7 @@
       </c>
       <c r="F147" s="7"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>561</v>
       </c>
@@ -10442,7 +10449,7 @@
       </c>
       <c r="F148" s="7"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>564</v>
       </c>
@@ -10460,7 +10467,7 @@
       </c>
       <c r="F149" s="7"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>567</v>
       </c>
@@ -10478,7 +10485,7 @@
       </c>
       <c r="F150" s="7"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>570</v>
       </c>
@@ -10496,7 +10503,7 @@
       </c>
       <c r="F151" s="7"/>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>573</v>
       </c>
@@ -10514,7 +10521,7 @@
       </c>
       <c r="F152" s="7"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>576</v>
       </c>
@@ -10532,7 +10539,7 @@
       </c>
       <c r="F153" s="7"/>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>579</v>
       </c>
@@ -10550,7 +10557,7 @@
       </c>
       <c r="F154" s="7"/>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>582</v>
       </c>
@@ -10568,7 +10575,7 @@
       </c>
       <c r="F155" s="7"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>585</v>
       </c>
@@ -10584,7 +10591,7 @@
       </c>
       <c r="F156" s="7"/>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>588</v>
       </c>
@@ -10600,7 +10607,7 @@
       </c>
       <c r="F157" s="7"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>591</v>
       </c>
@@ -10616,7 +10623,7 @@
       </c>
       <c r="F158" s="7"/>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>594</v>
       </c>
@@ -10634,7 +10641,7 @@
       </c>
       <c r="F159" s="7"/>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>597</v>
       </c>
@@ -10652,7 +10659,7 @@
       </c>
       <c r="F160" s="7"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>600</v>
       </c>
@@ -10670,7 +10677,7 @@
       </c>
       <c r="F161" s="7"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>603</v>
       </c>
@@ -10688,7 +10695,7 @@
       </c>
       <c r="F162" s="7"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>606</v>
       </c>
@@ -10706,7 +10713,7 @@
       </c>
       <c r="F163" s="7"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>609</v>
       </c>
@@ -10724,7 +10731,7 @@
       </c>
       <c r="F164" s="7"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>612</v>
       </c>
@@ -10742,7 +10749,7 @@
       </c>
       <c r="F165" s="7"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>615</v>
       </c>
@@ -10760,7 +10767,7 @@
       </c>
       <c r="F166" s="7"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>618</v>
       </c>
@@ -10778,7 +10785,7 @@
       </c>
       <c r="F167" s="7"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>621</v>
       </c>
@@ -10796,7 +10803,7 @@
       </c>
       <c r="F168" s="7"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>624</v>
       </c>
@@ -10814,7 +10821,7 @@
       </c>
       <c r="F169" s="7"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>627</v>
       </c>
@@ -10832,7 +10839,7 @@
       </c>
       <c r="F170" s="7"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>630</v>
       </c>
@@ -10850,7 +10857,7 @@
       </c>
       <c r="F171" s="7"/>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>633</v>
       </c>
@@ -10868,7 +10875,7 @@
       </c>
       <c r="F172" s="7"/>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>636</v>
       </c>
@@ -10886,7 +10893,7 @@
       </c>
       <c r="F173" s="7"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>639</v>
       </c>
@@ -10904,7 +10911,7 @@
       </c>
       <c r="F174" s="7"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>642</v>
       </c>
@@ -10922,7 +10929,7 @@
       </c>
       <c r="F175" s="7"/>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>645</v>
       </c>
@@ -10940,7 +10947,7 @@
       </c>
       <c r="F176" s="7"/>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>648</v>
       </c>
@@ -10958,7 +10965,7 @@
       </c>
       <c r="F177" s="7"/>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>651</v>
       </c>
@@ -10976,7 +10983,7 @@
       </c>
       <c r="F178" s="7"/>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>654</v>
       </c>
@@ -10994,7 +11001,7 @@
       </c>
       <c r="F179" s="7"/>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>657</v>
       </c>
@@ -11012,7 +11019,7 @@
       </c>
       <c r="F180" s="7"/>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>660</v>
       </c>
@@ -11030,7 +11037,7 @@
       </c>
       <c r="F181" s="7"/>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>663</v>
       </c>
@@ -11048,7 +11055,7 @@
       </c>
       <c r="F182" s="7"/>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>666</v>
       </c>
@@ -11066,7 +11073,7 @@
       </c>
       <c r="F183" s="7"/>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>669</v>
       </c>
@@ -11084,7 +11091,7 @@
       </c>
       <c r="F184" s="7"/>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>672</v>
       </c>
@@ -11102,7 +11109,7 @@
       </c>
       <c r="F185" s="7"/>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>675</v>
       </c>
@@ -11120,7 +11127,7 @@
       </c>
       <c r="F186" s="7"/>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>678</v>
       </c>
@@ -11138,7 +11145,7 @@
       </c>
       <c r="F187" s="7"/>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>681</v>
       </c>
@@ -11156,7 +11163,7 @@
       </c>
       <c r="F188" s="7"/>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>684</v>
       </c>
@@ -11174,7 +11181,7 @@
       </c>
       <c r="F189" s="7"/>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>687</v>
       </c>
@@ -11192,7 +11199,7 @@
       </c>
       <c r="F190" s="7"/>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>690</v>
       </c>
@@ -11210,7 +11217,7 @@
       </c>
       <c r="F191" s="7"/>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>693</v>
       </c>
@@ -11228,7 +11235,7 @@
       </c>
       <c r="F192" s="7"/>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>696</v>
       </c>
@@ -11246,7 +11253,7 @@
       </c>
       <c r="F193" s="7"/>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>699</v>
       </c>
@@ -11264,7 +11271,7 @@
       </c>
       <c r="F194" s="7"/>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>702</v>
       </c>
@@ -11282,7 +11289,7 @@
       </c>
       <c r="F195" s="7"/>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>705</v>
       </c>
@@ -11300,7 +11307,7 @@
       </c>
       <c r="F196" s="7"/>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>708</v>
       </c>
@@ -11318,7 +11325,7 @@
       </c>
       <c r="F197" s="7"/>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>711</v>
       </c>
@@ -11336,7 +11343,7 @@
       </c>
       <c r="F198" s="7"/>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>714</v>
       </c>
@@ -11354,7 +11361,7 @@
       </c>
       <c r="F199" s="7"/>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>717</v>
       </c>
@@ -11372,7 +11379,7 @@
       </c>
       <c r="F200" s="7"/>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>720</v>
       </c>
@@ -11390,7 +11397,7 @@
       </c>
       <c r="F201" s="7"/>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>723</v>
       </c>
@@ -11408,7 +11415,7 @@
       </c>
       <c r="F202" s="7"/>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>726</v>
       </c>
@@ -11426,7 +11433,7 @@
       </c>
       <c r="F203" s="7"/>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>729</v>
       </c>
@@ -11444,7 +11451,7 @@
       </c>
       <c r="F204" s="7"/>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>732</v>
       </c>
@@ -11462,7 +11469,7 @@
       </c>
       <c r="F205" s="7"/>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>735</v>
       </c>
@@ -11480,7 +11487,7 @@
       </c>
       <c r="F206" s="7"/>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>737</v>
       </c>
@@ -11498,7 +11505,7 @@
       </c>
       <c r="F207" s="7"/>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>740</v>
       </c>
@@ -11516,7 +11523,7 @@
       </c>
       <c r="F208" s="7"/>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>743</v>
       </c>
@@ -11534,7 +11541,7 @@
       </c>
       <c r="F209" s="7"/>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>746</v>
       </c>
@@ -11552,7 +11559,7 @@
       </c>
       <c r="F210" s="7"/>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>749</v>
       </c>
@@ -11570,7 +11577,7 @@
       </c>
       <c r="F211" s="7"/>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>752</v>
       </c>
@@ -11588,7 +11595,7 @@
       </c>
       <c r="F212" s="7"/>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>755</v>
       </c>
@@ -11606,7 +11613,7 @@
       </c>
       <c r="F213" s="7"/>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>758</v>
       </c>
@@ -11624,7 +11631,7 @@
       </c>
       <c r="F214" s="7"/>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>761</v>
       </c>
@@ -11642,7 +11649,7 @@
       </c>
       <c r="F215" s="7"/>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>764</v>
       </c>
@@ -11660,7 +11667,7 @@
       </c>
       <c r="F216" s="7"/>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>767</v>
       </c>
@@ -11678,7 +11685,7 @@
       </c>
       <c r="F217" s="7"/>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>770</v>
       </c>
@@ -11696,7 +11703,7 @@
       </c>
       <c r="F218" s="7"/>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>773</v>
       </c>
@@ -11714,7 +11721,7 @@
       </c>
       <c r="F219" s="7"/>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>776</v>
       </c>
@@ -11732,7 +11739,7 @@
       </c>
       <c r="F220" s="7"/>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>779</v>
       </c>
@@ -11750,7 +11757,7 @@
       </c>
       <c r="F221" s="7"/>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>782</v>
       </c>
@@ -11768,7 +11775,7 @@
       </c>
       <c r="F222" s="7"/>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>785</v>
       </c>
@@ -11786,7 +11793,7 @@
       </c>
       <c r="F223" s="7"/>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>788</v>
       </c>
@@ -11804,7 +11811,7 @@
       </c>
       <c r="F224" s="7"/>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>791</v>
       </c>
@@ -11822,7 +11829,7 @@
       </c>
       <c r="F225" s="7"/>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>794</v>
       </c>
@@ -11840,7 +11847,7 @@
       </c>
       <c r="F226" s="7"/>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>797</v>
       </c>
@@ -11858,7 +11865,7 @@
       </c>
       <c r="F227" s="7"/>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>800</v>
       </c>
@@ -11876,7 +11883,7 @@
       </c>
       <c r="F228" s="7"/>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>803</v>
       </c>
@@ -11894,7 +11901,7 @@
       </c>
       <c r="F229" s="7"/>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>806</v>
       </c>
@@ -11912,7 +11919,7 @@
       </c>
       <c r="F230" s="7"/>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>809</v>
       </c>
@@ -11930,7 +11937,7 @@
       </c>
       <c r="F231" s="7"/>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>812</v>
       </c>
@@ -11948,7 +11955,7 @@
       </c>
       <c r="F232" s="7"/>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>815</v>
       </c>
@@ -11966,7 +11973,7 @@
       </c>
       <c r="F233" s="7"/>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>818</v>
       </c>
@@ -11984,7 +11991,7 @@
       </c>
       <c r="F234" s="7"/>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>821</v>
       </c>
@@ -12002,7 +12009,7 @@
       </c>
       <c r="F235" s="7"/>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>824</v>
       </c>
@@ -12020,7 +12027,7 @@
       </c>
       <c r="F236" s="7"/>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>827</v>
       </c>
@@ -12038,7 +12045,7 @@
       </c>
       <c r="F237" s="7"/>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>830</v>
       </c>
@@ -12056,7 +12063,7 @@
       </c>
       <c r="F238" s="7"/>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>833</v>
       </c>
@@ -12074,7 +12081,7 @@
       </c>
       <c r="F239" s="7"/>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>836</v>
       </c>
@@ -12092,7 +12099,7 @@
       </c>
       <c r="F240" s="7"/>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>839</v>
       </c>
@@ -12110,7 +12117,7 @@
       </c>
       <c r="F241" s="7"/>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>842</v>
       </c>
@@ -12128,7 +12135,7 @@
       </c>
       <c r="F242" s="7"/>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>845</v>
       </c>
@@ -12146,7 +12153,7 @@
       </c>
       <c r="F243" s="7"/>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>848</v>
       </c>
@@ -12164,7 +12171,7 @@
       </c>
       <c r="F244" s="7"/>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>851</v>
       </c>
@@ -12182,7 +12189,7 @@
       </c>
       <c r="F245" s="7"/>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>854</v>
       </c>
@@ -12200,7 +12207,7 @@
       </c>
       <c r="F246" s="7"/>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>857</v>
       </c>
@@ -12218,7 +12225,7 @@
       </c>
       <c r="F247" s="7"/>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>860</v>
       </c>
@@ -12236,7 +12243,7 @@
       </c>
       <c r="F248" s="7"/>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>863</v>
       </c>
@@ -12254,7 +12261,7 @@
       </c>
       <c r="F249" s="7"/>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>866</v>
       </c>
@@ -12272,7 +12279,7 @@
       </c>
       <c r="F250" s="7"/>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>869</v>
       </c>
@@ -12290,7 +12297,7 @@
       </c>
       <c r="F251" s="7"/>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>872</v>
       </c>
@@ -12308,7 +12315,7 @@
       </c>
       <c r="F252" s="7"/>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>875</v>
       </c>
@@ -12326,7 +12333,7 @@
       </c>
       <c r="F253" s="7"/>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>878</v>
       </c>
@@ -12344,7 +12351,7 @@
       </c>
       <c r="F254" s="7"/>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>881</v>
       </c>
@@ -12362,7 +12369,7 @@
       </c>
       <c r="F255" s="7"/>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>884</v>
       </c>
@@ -12380,7 +12387,7 @@
       </c>
       <c r="F256" s="7"/>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>887</v>
       </c>
@@ -12398,7 +12405,7 @@
       </c>
       <c r="F257" s="7"/>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>890</v>
       </c>
@@ -12416,7 +12423,7 @@
       </c>
       <c r="F258" s="7"/>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>893</v>
       </c>
@@ -12434,7 +12441,7 @@
       </c>
       <c r="F259" s="7"/>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>896</v>
       </c>
@@ -12452,7 +12459,7 @@
       </c>
       <c r="F260" s="7"/>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
         <v>899</v>
       </c>
@@ -12470,7 +12477,7 @@
       </c>
       <c r="F261" s="7"/>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
         <v>902</v>
       </c>
@@ -12488,7 +12495,7 @@
       </c>
       <c r="F262" s="7"/>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>905</v>
       </c>
@@ -12506,7 +12513,7 @@
       </c>
       <c r="F263" s="7"/>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
         <v>908</v>
       </c>
@@ -12524,7 +12531,7 @@
       </c>
       <c r="F264" s="7"/>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>911</v>
       </c>
@@ -12542,7 +12549,7 @@
       </c>
       <c r="F265" s="7"/>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
         <v>914</v>
       </c>
@@ -12560,7 +12567,7 @@
       </c>
       <c r="F266" s="7"/>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>917</v>
       </c>
@@ -12578,7 +12585,7 @@
       </c>
       <c r="F267" s="7"/>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>920</v>
       </c>
@@ -12596,7 +12603,7 @@
       </c>
       <c r="F268" s="7"/>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>923</v>
       </c>
@@ -12614,7 +12621,7 @@
       </c>
       <c r="F269" s="7"/>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>926</v>
       </c>
@@ -12632,7 +12639,7 @@
       </c>
       <c r="F270" s="7"/>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>929</v>
       </c>
@@ -12650,7 +12657,7 @@
       </c>
       <c r="F271" s="7"/>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>932</v>
       </c>
@@ -12668,7 +12675,7 @@
       </c>
       <c r="F272" s="7"/>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>935</v>
       </c>
@@ -12686,7 +12693,7 @@
       </c>
       <c r="F273" s="7"/>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>938</v>
       </c>
@@ -12704,7 +12711,7 @@
       </c>
       <c r="F274" s="7"/>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>941</v>
       </c>
@@ -12722,7 +12729,7 @@
       </c>
       <c r="F275" s="7"/>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>944</v>
       </c>
@@ -12740,7 +12747,7 @@
       </c>
       <c r="F276" s="7"/>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>947</v>
       </c>
@@ -12758,7 +12765,7 @@
       </c>
       <c r="F277" s="7"/>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>950</v>
       </c>
@@ -12776,7 +12783,7 @@
       </c>
       <c r="F278" s="7"/>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>953</v>
       </c>
@@ -12794,7 +12801,7 @@
       </c>
       <c r="F279" s="7"/>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>954</v>
       </c>
@@ -12812,7 +12819,7 @@
       </c>
       <c r="F280" s="7"/>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>957</v>
       </c>
@@ -12830,7 +12837,7 @@
       </c>
       <c r="F281" s="7"/>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>960</v>
       </c>
@@ -12848,7 +12855,7 @@
       </c>
       <c r="F282" s="7"/>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>963</v>
       </c>
@@ -12866,7 +12873,7 @@
       </c>
       <c r="F283" s="7"/>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>966</v>
       </c>
@@ -12884,7 +12891,7 @@
       </c>
       <c r="F284" s="7"/>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>969</v>
       </c>
@@ -12902,7 +12909,7 @@
       </c>
       <c r="F285" s="7"/>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>972</v>
       </c>
@@ -12920,7 +12927,7 @@
       </c>
       <c r="F286" s="7"/>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>975</v>
       </c>
@@ -12938,7 +12945,7 @@
       </c>
       <c r="F287" s="7"/>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>978</v>
       </c>
@@ -12956,7 +12963,7 @@
       </c>
       <c r="F288" s="7"/>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>981</v>
       </c>
@@ -12974,7 +12981,7 @@
       </c>
       <c r="F289" s="7"/>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
         <v>984</v>
       </c>
@@ -12992,7 +12999,7 @@
       </c>
       <c r="F290" s="7"/>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>987</v>
       </c>
@@ -13010,7 +13017,7 @@
       </c>
       <c r="F291" s="7"/>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>990</v>
       </c>
@@ -13028,7 +13035,7 @@
       </c>
       <c r="F292" s="7"/>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
         <v>993</v>
       </c>
@@ -13046,7 +13053,7 @@
       </c>
       <c r="F293" s="7"/>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>996</v>
       </c>
@@ -13064,7 +13071,7 @@
       </c>
       <c r="F294" s="7"/>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>999</v>
       </c>
@@ -13082,7 +13089,7 @@
       </c>
       <c r="F295" s="7"/>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>1002</v>
       </c>
@@ -13100,7 +13107,7 @@
       </c>
       <c r="F296" s="7"/>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>1005</v>
       </c>
@@ -13118,7 +13125,7 @@
       </c>
       <c r="F297" s="7"/>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
         <v>1008</v>
       </c>
@@ -13136,7 +13143,7 @@
       </c>
       <c r="F298" s="7"/>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
         <v>1011</v>
       </c>
@@ -13154,7 +13161,7 @@
       </c>
       <c r="F299" s="7"/>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
         <v>1014</v>
       </c>
@@ -13172,7 +13179,7 @@
       </c>
       <c r="F300" s="7"/>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
         <v>1017</v>
       </c>
@@ -13190,7 +13197,7 @@
       </c>
       <c r="F301" s="7"/>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
         <v>1020</v>
       </c>
@@ -13208,7 +13215,7 @@
       </c>
       <c r="F302" s="7"/>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
         <v>1023</v>
       </c>
@@ -13224,7 +13231,7 @@
       <c r="E303" s="7"/>
       <c r="F303" s="7"/>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>1025</v>
       </c>
@@ -13242,7 +13249,7 @@
       </c>
       <c r="F304" s="7"/>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>1028</v>
       </c>
@@ -13260,7 +13267,7 @@
       </c>
       <c r="F305" s="7"/>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
         <v>1031</v>
       </c>
@@ -13278,7 +13285,7 @@
       </c>
       <c r="F306" s="7"/>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
         <v>1034</v>
       </c>
@@ -13296,7 +13303,7 @@
       </c>
       <c r="F307" s="7"/>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
         <v>1037</v>
       </c>
@@ -13314,7 +13321,7 @@
       </c>
       <c r="F308" s="7"/>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>1040</v>
       </c>
@@ -13332,7 +13339,7 @@
       </c>
       <c r="F309" s="7"/>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
         <v>1043</v>
       </c>
@@ -13350,7 +13357,7 @@
       </c>
       <c r="F310" s="7"/>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
         <v>1046</v>
       </c>
@@ -13368,7 +13375,7 @@
       </c>
       <c r="F311" s="7"/>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
         <v>1049</v>
       </c>
@@ -13386,7 +13393,7 @@
       </c>
       <c r="F312" s="7"/>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
         <v>1052</v>
       </c>
@@ -13404,7 +13411,7 @@
       </c>
       <c r="F313" s="7"/>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
         <v>1055</v>
       </c>
@@ -13422,7 +13429,7 @@
       </c>
       <c r="F314" s="7"/>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
         <v>1058</v>
       </c>
@@ -13440,7 +13447,7 @@
       </c>
       <c r="F315" s="7"/>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
         <v>1061</v>
       </c>
@@ -13458,7 +13465,7 @@
       </c>
       <c r="F316" s="7"/>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
         <v>1064</v>
       </c>
@@ -13476,7 +13483,7 @@
       </c>
       <c r="F317" s="7"/>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
         <v>1067</v>
       </c>
@@ -13494,7 +13501,7 @@
       </c>
       <c r="F318" s="7"/>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
         <v>1070</v>
       </c>
@@ -13512,7 +13519,7 @@
       </c>
       <c r="F319" s="7"/>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
         <v>1073</v>
       </c>
@@ -13530,7 +13537,7 @@
       </c>
       <c r="F320" s="7"/>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
         <v>1076</v>
       </c>
@@ -13548,7 +13555,7 @@
       </c>
       <c r="F321" s="7"/>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
         <v>1079</v>
       </c>
@@ -13566,7 +13573,7 @@
       </c>
       <c r="F322" s="7"/>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
         <v>1082</v>
       </c>
@@ -13584,7 +13591,7 @@
       </c>
       <c r="F323" s="7"/>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
         <v>1085</v>
       </c>
@@ -13602,7 +13609,7 @@
       </c>
       <c r="F324" s="7"/>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
         <v>1088</v>
       </c>
@@ -13620,7 +13627,7 @@
       </c>
       <c r="F325" s="7"/>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
         <v>1091</v>
       </c>
@@ -13638,7 +13645,7 @@
       </c>
       <c r="F326" s="7"/>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
         <v>1094</v>
       </c>
@@ -13656,7 +13663,7 @@
       </c>
       <c r="F327" s="7"/>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
         <v>1097</v>
       </c>
@@ -13674,7 +13681,7 @@
       </c>
       <c r="F328" s="7"/>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
         <v>1100</v>
       </c>
@@ -13692,7 +13699,7 @@
       </c>
       <c r="F329" s="7"/>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="7" t="s">
         <v>1103</v>
       </c>
@@ -13710,7 +13717,7 @@
       </c>
       <c r="F330" s="7"/>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
         <v>1106</v>
       </c>
@@ -13728,7 +13735,7 @@
       </c>
       <c r="F331" s="7"/>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
         <v>1109</v>
       </c>
@@ -13746,7 +13753,7 @@
       </c>
       <c r="F332" s="7"/>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
         <v>1112</v>
       </c>
@@ -13764,7 +13771,7 @@
       </c>
       <c r="F333" s="7"/>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
         <v>1115</v>
       </c>
@@ -13782,7 +13789,7 @@
       </c>
       <c r="F334" s="7"/>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
         <v>1118</v>
       </c>
@@ -13800,7 +13807,7 @@
       </c>
       <c r="F335" s="7"/>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="7" t="s">
         <v>1121</v>
       </c>
@@ -13818,7 +13825,7 @@
       </c>
       <c r="F336" s="7"/>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
         <v>1124</v>
       </c>
@@ -13836,7 +13843,7 @@
       </c>
       <c r="F337" s="7"/>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="7" t="s">
         <v>1127</v>
       </c>
@@ -13854,7 +13861,7 @@
       </c>
       <c r="F338" s="7"/>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
         <v>1130</v>
       </c>
@@ -13872,7 +13879,7 @@
       </c>
       <c r="F339" s="7"/>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
         <v>1133</v>
       </c>
@@ -13890,7 +13897,7 @@
       </c>
       <c r="F340" s="7"/>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
         <v>1136</v>
       </c>
@@ -13908,7 +13915,7 @@
       </c>
       <c r="F341" s="7"/>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
         <v>1139</v>
       </c>
@@ -13926,7 +13933,7 @@
       </c>
       <c r="F342" s="7"/>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
         <v>1142</v>
       </c>
@@ -13944,7 +13951,7 @@
       </c>
       <c r="F343" s="7"/>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
         <v>1145</v>
       </c>
@@ -13962,7 +13969,7 @@
       </c>
       <c r="F344" s="7"/>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
         <v>1148</v>
       </c>
@@ -13980,7 +13987,7 @@
       </c>
       <c r="F345" s="7"/>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="7" t="s">
         <v>1151</v>
       </c>
@@ -13998,7 +14005,7 @@
       </c>
       <c r="F346" s="7"/>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
         <v>1154</v>
       </c>
@@ -14016,7 +14023,7 @@
       </c>
       <c r="F347" s="7"/>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
         <v>1157</v>
       </c>
@@ -14034,7 +14041,7 @@
       </c>
       <c r="F348" s="7"/>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
         <v>1160</v>
       </c>
@@ -14052,7 +14059,7 @@
       </c>
       <c r="F349" s="7"/>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
         <v>1162</v>
       </c>
@@ -14070,7 +14077,7 @@
       </c>
       <c r="F350" s="7"/>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
         <v>1165</v>
       </c>
@@ -14088,7 +14095,7 @@
       </c>
       <c r="F351" s="7"/>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="7" t="s">
         <v>1167</v>
       </c>
@@ -14104,7 +14111,7 @@
       <c r="E352" s="7"/>
       <c r="F352" s="7"/>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
         <v>1169</v>
       </c>
@@ -14122,7 +14129,7 @@
       </c>
       <c r="F353" s="7"/>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="7" t="s">
         <v>1172</v>
       </c>
@@ -14140,7 +14147,7 @@
       </c>
       <c r="F354" s="7"/>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
         <v>1175</v>
       </c>
@@ -14158,7 +14165,7 @@
       </c>
       <c r="F355" s="7"/>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="7" t="s">
         <v>1178</v>
       </c>
@@ -14176,7 +14183,7 @@
       </c>
       <c r="F356" s="7"/>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
         <v>1181</v>
       </c>
@@ -14194,7 +14201,7 @@
       </c>
       <c r="F357" s="7"/>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="7" t="s">
         <v>1184</v>
       </c>
@@ -14212,7 +14219,7 @@
       </c>
       <c r="F358" s="7"/>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="7" t="s">
         <v>1187</v>
       </c>
@@ -14230,7 +14237,7 @@
       </c>
       <c r="F359" s="7"/>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="7" t="s">
         <v>1190</v>
       </c>
@@ -14248,7 +14255,7 @@
       </c>
       <c r="F360" s="7"/>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
         <v>1193</v>
       </c>
@@ -14266,7 +14273,7 @@
       </c>
       <c r="F361" s="7"/>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="7" t="s">
         <v>1196</v>
       </c>
@@ -14284,7 +14291,7 @@
       </c>
       <c r="F362" s="7"/>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
         <v>1199</v>
       </c>
@@ -14302,7 +14309,7 @@
       </c>
       <c r="F363" s="7"/>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="7" t="s">
         <v>1202</v>
       </c>
@@ -14320,7 +14327,7 @@
       </c>
       <c r="F364" s="7"/>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
         <v>1205</v>
       </c>
@@ -14338,7 +14345,7 @@
       </c>
       <c r="F365" s="7"/>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
         <v>1208</v>
       </c>
@@ -14356,7 +14363,7 @@
       </c>
       <c r="F366" s="7"/>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
         <v>1211</v>
       </c>
@@ -14374,7 +14381,7 @@
       </c>
       <c r="F367" s="7"/>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
         <v>1214</v>
       </c>
@@ -14392,7 +14399,7 @@
       </c>
       <c r="F368" s="7"/>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
         <v>1217</v>
       </c>
@@ -14410,7 +14417,7 @@
       </c>
       <c r="F369" s="7"/>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
         <v>1220</v>
       </c>
@@ -14428,7 +14435,7 @@
       </c>
       <c r="F370" s="7"/>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
         <v>1223</v>
       </c>
@@ -14444,7 +14451,7 @@
       <c r="E371" s="7"/>
       <c r="F371" s="7"/>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
         <v>1225</v>
       </c>
@@ -14462,7 +14469,7 @@
       </c>
       <c r="F372" s="7"/>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="7" t="s">
         <v>1228</v>
       </c>
@@ -14480,7 +14487,7 @@
       </c>
       <c r="F373" s="7"/>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="7" t="s">
         <v>1231</v>
       </c>
@@ -14498,7 +14505,7 @@
       </c>
       <c r="F374" s="7"/>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
         <v>1234</v>
       </c>
@@ -14516,7 +14523,7 @@
       </c>
       <c r="F375" s="7"/>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
         <v>1237</v>
       </c>
@@ -14534,7 +14541,7 @@
       </c>
       <c r="F376" s="7"/>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
         <v>1240</v>
       </c>
@@ -14552,7 +14559,7 @@
       </c>
       <c r="F377" s="7"/>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="7" t="s">
         <v>1243</v>
       </c>
@@ -14570,7 +14577,7 @@
       </c>
       <c r="F378" s="7"/>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="7" t="s">
         <v>1246</v>
       </c>
@@ -14588,7 +14595,7 @@
       </c>
       <c r="F379" s="7"/>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="7" t="s">
         <v>1249</v>
       </c>
@@ -14606,7 +14613,7 @@
       </c>
       <c r="F380" s="7"/>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="7" t="s">
         <v>1252</v>
       </c>
@@ -14624,7 +14631,7 @@
       </c>
       <c r="F381" s="7"/>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="7" t="s">
         <v>1255</v>
       </c>
@@ -14642,7 +14649,7 @@
       </c>
       <c r="F382" s="7"/>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="7" t="s">
         <v>1258</v>
       </c>
@@ -14660,7 +14667,7 @@
       </c>
       <c r="F383" s="7"/>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="7" t="s">
         <v>1261</v>
       </c>
@@ -14678,7 +14685,7 @@
       </c>
       <c r="F384" s="7"/>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="7" t="s">
         <v>1264</v>
       </c>
@@ -14696,7 +14703,7 @@
       </c>
       <c r="F385" s="7"/>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="7" t="s">
         <v>1267</v>
       </c>
@@ -14714,7 +14721,7 @@
       </c>
       <c r="F386" s="7"/>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="7" t="s">
         <v>1270</v>
       </c>
@@ -14732,7 +14739,7 @@
       </c>
       <c r="F387" s="7"/>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="7" t="s">
         <v>1273</v>
       </c>
@@ -14750,7 +14757,7 @@
       </c>
       <c r="F388" s="7"/>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
         <v>1276</v>
       </c>
@@ -14768,7 +14775,7 @@
       </c>
       <c r="F389" s="7"/>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="7" t="s">
         <v>1279</v>
       </c>
@@ -14786,7 +14793,7 @@
       </c>
       <c r="F390" s="7"/>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="7" t="s">
         <v>1282</v>
       </c>
@@ -14804,7 +14811,7 @@
       </c>
       <c r="F391" s="7"/>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="7" t="s">
         <v>1285</v>
       </c>
@@ -14822,7 +14829,7 @@
       </c>
       <c r="F392" s="7"/>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="7" t="s">
         <v>1288</v>
       </c>
@@ -14840,7 +14847,7 @@
       </c>
       <c r="F393" s="7"/>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="7" t="s">
         <v>1291</v>
       </c>
@@ -14858,7 +14865,7 @@
       </c>
       <c r="F394" s="7"/>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
         <v>1294</v>
       </c>
@@ -14876,7 +14883,7 @@
       </c>
       <c r="F395" s="7"/>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="7" t="s">
         <v>1297</v>
       </c>
@@ -14894,7 +14901,7 @@
       </c>
       <c r="F396" s="7"/>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="7" t="s">
         <v>1300</v>
       </c>
@@ -14912,7 +14919,7 @@
       </c>
       <c r="F397" s="7"/>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="7" t="s">
         <v>1303</v>
       </c>
@@ -14930,7 +14937,7 @@
       </c>
       <c r="F398" s="7"/>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="7" t="s">
         <v>1306</v>
       </c>
@@ -14948,7 +14955,7 @@
       </c>
       <c r="F399" s="7"/>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="7" t="s">
         <v>1309</v>
       </c>
@@ -14966,7 +14973,7 @@
       </c>
       <c r="F400" s="7"/>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="7" t="s">
         <v>1312</v>
       </c>
@@ -14984,7 +14991,7 @@
       </c>
       <c r="F401" s="7"/>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
         <v>1315</v>
       </c>
@@ -15002,7 +15009,7 @@
       </c>
       <c r="F402" s="7"/>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="7" t="s">
         <v>1318</v>
       </c>
@@ -15020,7 +15027,7 @@
       </c>
       <c r="F403" s="7"/>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
         <v>1321</v>
       </c>
@@ -15038,7 +15045,7 @@
       </c>
       <c r="F404" s="7"/>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
         <v>1324</v>
       </c>
@@ -15056,7 +15063,7 @@
       </c>
       <c r="F405" s="7"/>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="7" t="s">
         <v>1327</v>
       </c>
@@ -15074,7 +15081,7 @@
       </c>
       <c r="F406" s="7"/>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="7" t="s">
         <v>1330</v>
       </c>
@@ -15092,7 +15099,7 @@
       </c>
       <c r="F407" s="7"/>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="7" t="s">
         <v>1333</v>
       </c>
@@ -15110,7 +15117,7 @@
       </c>
       <c r="F408" s="7"/>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="7" t="s">
         <v>1336</v>
       </c>
@@ -15128,7 +15135,7 @@
       </c>
       <c r="F409" s="7"/>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
         <v>1339</v>
       </c>
@@ -15146,7 +15153,7 @@
       </c>
       <c r="F410" s="7"/>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
         <v>1342</v>
       </c>
@@ -15164,7 +15171,7 @@
       </c>
       <c r="F411" s="7"/>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
         <v>1345</v>
       </c>
@@ -15182,7 +15189,7 @@
       </c>
       <c r="F412" s="7"/>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="7" t="s">
         <v>1348</v>
       </c>
@@ -15200,7 +15207,7 @@
       </c>
       <c r="F413" s="7"/>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="7" t="s">
         <v>1351</v>
       </c>
@@ -15218,7 +15225,7 @@
       </c>
       <c r="F414" s="7"/>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="7" t="s">
         <v>1354</v>
       </c>
@@ -15236,7 +15243,7 @@
       </c>
       <c r="F415" s="7"/>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="7" t="s">
         <v>1357</v>
       </c>
@@ -15254,7 +15261,7 @@
       </c>
       <c r="F416" s="7"/>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
         <v>1359</v>
       </c>
@@ -15272,7 +15279,7 @@
       </c>
       <c r="F417" s="7"/>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="7" t="s">
         <v>1362</v>
       </c>
@@ -15290,7 +15297,7 @@
       </c>
       <c r="F418" s="7"/>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="7" t="s">
         <v>1365</v>
       </c>
@@ -15308,7 +15315,7 @@
       </c>
       <c r="F419" s="7"/>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="7" t="s">
         <v>1368</v>
       </c>
@@ -15326,7 +15333,7 @@
       </c>
       <c r="F420" s="7"/>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="7" t="s">
         <v>1371</v>
       </c>
@@ -15344,7 +15351,7 @@
       </c>
       <c r="F421" s="7"/>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="7" t="s">
         <v>1374</v>
       </c>
@@ -15362,7 +15369,7 @@
       </c>
       <c r="F422" s="7"/>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="7" t="s">
         <v>1377</v>
       </c>
@@ -15380,7 +15387,7 @@
       </c>
       <c r="F423" s="7"/>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="7" t="s">
         <v>1380</v>
       </c>
@@ -15398,7 +15405,7 @@
       </c>
       <c r="F424" s="7"/>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="7" t="s">
         <v>1383</v>
       </c>
@@ -15416,7 +15423,7 @@
       </c>
       <c r="F425" s="7"/>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="7" t="s">
         <v>1386</v>
       </c>
@@ -15434,7 +15441,7 @@
       </c>
       <c r="F426" s="7"/>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="7" t="s">
         <v>1389</v>
       </c>
@@ -15452,7 +15459,7 @@
       </c>
       <c r="F427" s="7"/>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="7" t="s">
         <v>1392</v>
       </c>
@@ -15470,7 +15477,7 @@
       </c>
       <c r="F428" s="7"/>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="7" t="s">
         <v>1395</v>
       </c>
@@ -15488,7 +15495,7 @@
       </c>
       <c r="F429" s="7"/>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="7" t="s">
         <v>1398</v>
       </c>
@@ -15506,7 +15513,7 @@
       </c>
       <c r="F430" s="7"/>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="7" t="s">
         <v>1401</v>
       </c>
@@ -15524,7 +15531,7 @@
       </c>
       <c r="F431" s="7"/>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="7" t="s">
         <v>1404</v>
       </c>
@@ -15542,7 +15549,7 @@
       </c>
       <c r="F432" s="7"/>
     </row>
-    <row r="433" spans="1:6">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="7" t="s">
         <v>1407</v>
       </c>
@@ -15560,7 +15567,7 @@
       </c>
       <c r="F433" s="7"/>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="7" t="s">
         <v>1410</v>
       </c>
@@ -15578,7 +15585,7 @@
       </c>
       <c r="F434" s="7"/>
     </row>
-    <row r="435" spans="1:6">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="7" t="s">
         <v>1413</v>
       </c>
@@ -15596,7 +15603,7 @@
       </c>
       <c r="F435" s="7"/>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="7" t="s">
         <v>1416</v>
       </c>
@@ -15614,7 +15621,7 @@
       </c>
       <c r="F436" s="7"/>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="7" t="s">
         <v>1419</v>
       </c>
@@ -15632,7 +15639,7 @@
       </c>
       <c r="F437" s="7"/>
     </row>
-    <row r="438" spans="1:6">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="7" t="s">
         <v>1422</v>
       </c>
@@ -15650,7 +15657,7 @@
       </c>
       <c r="F438" s="7"/>
     </row>
-    <row r="439" spans="1:6">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="7" t="s">
         <v>1425</v>
       </c>
@@ -15668,7 +15675,7 @@
       </c>
       <c r="F439" s="7"/>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="7" t="s">
         <v>1428</v>
       </c>
@@ -15686,7 +15693,7 @@
       </c>
       <c r="F440" s="7"/>
     </row>
-    <row r="441" spans="1:6">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="7" t="s">
         <v>1431</v>
       </c>
@@ -15704,7 +15711,7 @@
       </c>
       <c r="F441" s="7"/>
     </row>
-    <row r="442" spans="1:6">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="7" t="s">
         <v>1434</v>
       </c>
@@ -15722,7 +15729,7 @@
       </c>
       <c r="F442" s="7"/>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="7" t="s">
         <v>1437</v>
       </c>
@@ -15740,7 +15747,7 @@
       </c>
       <c r="F443" s="7"/>
     </row>
-    <row r="444" spans="1:6">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="7" t="s">
         <v>1440</v>
       </c>
@@ -15758,7 +15765,7 @@
       </c>
       <c r="F444" s="7"/>
     </row>
-    <row r="445" spans="1:6">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="7" t="s">
         <v>1443</v>
       </c>
@@ -15776,7 +15783,7 @@
       </c>
       <c r="F445" s="7"/>
     </row>
-    <row r="446" spans="1:6">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="7" t="s">
         <v>1446</v>
       </c>
@@ -15794,7 +15801,7 @@
       </c>
       <c r="F446" s="7"/>
     </row>
-    <row r="447" spans="1:6">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="7" t="s">
         <v>1449</v>
       </c>
@@ -15812,7 +15819,7 @@
       </c>
       <c r="F447" s="7"/>
     </row>
-    <row r="448" spans="1:6">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="7" t="s">
         <v>1452</v>
       </c>
@@ -15830,7 +15837,7 @@
       </c>
       <c r="F448" s="7"/>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="7" t="s">
         <v>1455</v>
       </c>
@@ -15848,7 +15855,7 @@
       </c>
       <c r="F449" s="7"/>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="7" t="s">
         <v>1458</v>
       </c>
@@ -15866,7 +15873,7 @@
       </c>
       <c r="F450" s="7"/>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="7" t="s">
         <v>1461</v>
       </c>
@@ -15884,7 +15891,7 @@
       </c>
       <c r="F451" s="7"/>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="7" t="s">
         <v>1464</v>
       </c>
@@ -15902,7 +15909,7 @@
       </c>
       <c r="F452" s="7"/>
     </row>
-    <row r="453" spans="1:6">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="7" t="s">
         <v>1467</v>
       </c>
@@ -15920,7 +15927,7 @@
       </c>
       <c r="F453" s="7"/>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="7" t="s">
         <v>1470</v>
       </c>
@@ -15938,7 +15945,7 @@
       </c>
       <c r="F454" s="7"/>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="7" t="s">
         <v>1473</v>
       </c>
@@ -15956,7 +15963,7 @@
       </c>
       <c r="F455" s="7"/>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="7" t="s">
         <v>1476</v>
       </c>
@@ -15974,7 +15981,7 @@
       </c>
       <c r="F456" s="7"/>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="7" t="s">
         <v>1478</v>
       </c>
@@ -15992,7 +15999,7 @@
       </c>
       <c r="F457" s="7"/>
     </row>
-    <row r="458" spans="1:6">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="7" t="s">
         <v>1481</v>
       </c>
@@ -16010,7 +16017,7 @@
       </c>
       <c r="F458" s="7"/>
     </row>
-    <row r="459" spans="1:6">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="7" t="s">
         <v>1483</v>
       </c>
@@ -16028,7 +16035,7 @@
       </c>
       <c r="F459" s="7"/>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="7" t="s">
         <v>1486</v>
       </c>
@@ -16046,7 +16053,7 @@
       </c>
       <c r="F460" s="7"/>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="7" t="s">
         <v>1489</v>
       </c>
@@ -16064,7 +16071,7 @@
       </c>
       <c r="F461" s="7"/>
     </row>
-    <row r="462" spans="1:6">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="7" t="s">
         <v>1492</v>
       </c>
@@ -16082,7 +16089,7 @@
       </c>
       <c r="F462" s="7"/>
     </row>
-    <row r="463" spans="1:6">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="7" t="s">
         <v>1495</v>
       </c>
@@ -16100,7 +16107,7 @@
       </c>
       <c r="F463" s="7"/>
     </row>
-    <row r="464" spans="1:6">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="7" t="s">
         <v>1498</v>
       </c>
@@ -16118,7 +16125,7 @@
       </c>
       <c r="F464" s="7"/>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="7" t="s">
         <v>1501</v>
       </c>
@@ -16136,7 +16143,7 @@
       </c>
       <c r="F465" s="7"/>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="7" t="s">
         <v>1504</v>
       </c>
@@ -16154,7 +16161,7 @@
       </c>
       <c r="F466" s="7"/>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="7" t="s">
         <v>1507</v>
       </c>
@@ -16172,7 +16179,7 @@
       </c>
       <c r="F467" s="7"/>
     </row>
-    <row r="468" spans="1:6">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="7" t="s">
         <v>1510</v>
       </c>
@@ -16190,7 +16197,7 @@
       </c>
       <c r="F468" s="7"/>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="7" t="s">
         <v>1513</v>
       </c>
@@ -16208,7 +16215,7 @@
       </c>
       <c r="F469" s="7"/>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="7" t="s">
         <v>1516</v>
       </c>
@@ -16226,7 +16233,7 @@
       </c>
       <c r="F470" s="7"/>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="7" t="s">
         <v>1519</v>
       </c>
@@ -16244,7 +16251,7 @@
       </c>
       <c r="F471" s="7"/>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="7" t="s">
         <v>1522</v>
       </c>
@@ -16262,7 +16269,7 @@
       </c>
       <c r="F472" s="7"/>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="7" t="s">
         <v>1525</v>
       </c>
@@ -16280,7 +16287,7 @@
       </c>
       <c r="F473" s="7"/>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="7" t="s">
         <v>1528</v>
       </c>
@@ -16298,7 +16305,7 @@
       </c>
       <c r="F474" s="7"/>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="7" t="s">
         <v>1531</v>
       </c>
@@ -16316,7 +16323,7 @@
       </c>
       <c r="F475" s="7"/>
     </row>
-    <row r="476" spans="1:6">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="7" t="s">
         <v>1533</v>
       </c>
@@ -16334,7 +16341,7 @@
       </c>
       <c r="F476" s="7"/>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="7" t="s">
         <v>1536</v>
       </c>
@@ -16352,7 +16359,7 @@
       </c>
       <c r="F477" s="7"/>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="7" t="s">
         <v>1539</v>
       </c>
@@ -16370,7 +16377,7 @@
       </c>
       <c r="F478" s="7"/>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="7" t="s">
         <v>1542</v>
       </c>
@@ -16388,7 +16395,7 @@
       </c>
       <c r="F479" s="7"/>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="7" t="s">
         <v>1545</v>
       </c>
@@ -16406,7 +16413,7 @@
       </c>
       <c r="F480" s="7"/>
     </row>
-    <row r="481" spans="1:6">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="7" t="s">
         <v>1547</v>
       </c>
@@ -16424,7 +16431,7 @@
       </c>
       <c r="F481" s="7"/>
     </row>
-    <row r="482" spans="1:6">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="7" t="s">
         <v>1550</v>
       </c>
@@ -16442,7 +16449,7 @@
       </c>
       <c r="F482" s="7"/>
     </row>
-    <row r="483" spans="1:6">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="7" t="s">
         <v>1553</v>
       </c>
@@ -16460,7 +16467,7 @@
       </c>
       <c r="F483" s="7"/>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="7" t="s">
         <v>1556</v>
       </c>
@@ -16478,7 +16485,7 @@
       </c>
       <c r="F484" s="7"/>
     </row>
-    <row r="485" spans="1:6">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="7" t="s">
         <v>1559</v>
       </c>
@@ -16496,7 +16503,7 @@
       </c>
       <c r="F485" s="7"/>
     </row>
-    <row r="486" spans="1:6">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="7" t="s">
         <v>1562</v>
       </c>
@@ -16514,7 +16521,7 @@
       </c>
       <c r="F486" s="7"/>
     </row>
-    <row r="487" spans="1:6">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="7" t="s">
         <v>1565</v>
       </c>
@@ -16532,7 +16539,7 @@
       </c>
       <c r="F487" s="7"/>
     </row>
-    <row r="488" spans="1:6">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="7" t="s">
         <v>1568</v>
       </c>
@@ -16550,7 +16557,7 @@
       </c>
       <c r="F488" s="7"/>
     </row>
-    <row r="489" spans="1:6">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="7" t="s">
         <v>1571</v>
       </c>
@@ -16568,7 +16575,7 @@
       </c>
       <c r="F489" s="7"/>
     </row>
-    <row r="490" spans="1:6">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="7" t="s">
         <v>1574</v>
       </c>
@@ -16586,7 +16593,7 @@
       </c>
       <c r="F490" s="7"/>
     </row>
-    <row r="491" spans="1:6">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="7" t="s">
         <v>1577</v>
       </c>
@@ -16604,7 +16611,7 @@
       </c>
       <c r="F491" s="7"/>
     </row>
-    <row r="492" spans="1:6">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="7" t="s">
         <v>1580</v>
       </c>
@@ -16622,7 +16629,7 @@
       </c>
       <c r="F492" s="7"/>
     </row>
-    <row r="493" spans="1:6">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="7" t="s">
         <v>1583</v>
       </c>
@@ -16640,7 +16647,7 @@
       </c>
       <c r="F493" s="7"/>
     </row>
-    <row r="494" spans="1:6">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="7" t="s">
         <v>1586</v>
       </c>
@@ -16658,7 +16665,7 @@
       </c>
       <c r="F494" s="7"/>
     </row>
-    <row r="495" spans="1:6">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="7" t="s">
         <v>1589</v>
       </c>
@@ -16676,7 +16683,7 @@
       </c>
       <c r="F495" s="7"/>
     </row>
-    <row r="496" spans="1:6">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="7" t="s">
         <v>1592</v>
       </c>
@@ -16694,7 +16701,7 @@
       </c>
       <c r="F496" s="7"/>
     </row>
-    <row r="497" spans="1:6">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="7" t="s">
         <v>1595</v>
       </c>
@@ -16712,7 +16719,7 @@
       </c>
       <c r="F497" s="7"/>
     </row>
-    <row r="498" spans="1:6">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="7" t="s">
         <v>1598</v>
       </c>
@@ -16730,7 +16737,7 @@
       </c>
       <c r="F498" s="7"/>
     </row>
-    <row r="499" spans="1:6">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="7" t="s">
         <v>1601</v>
       </c>
@@ -16748,7 +16755,7 @@
       </c>
       <c r="F499" s="7"/>
     </row>
-    <row r="500" spans="1:6">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="7" t="s">
         <v>1604</v>
       </c>
@@ -16766,7 +16773,7 @@
       </c>
       <c r="F500" s="7"/>
     </row>
-    <row r="501" spans="1:6">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="7" t="s">
         <v>1607</v>
       </c>
@@ -16784,7 +16791,7 @@
       </c>
       <c r="F501" s="7"/>
     </row>
-    <row r="502" spans="1:6">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="7" t="s">
         <v>1610</v>
       </c>
@@ -16802,7 +16809,7 @@
       </c>
       <c r="F502" s="7"/>
     </row>
-    <row r="503" spans="1:6">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="7" t="s">
         <v>1613</v>
       </c>
@@ -16820,7 +16827,7 @@
       </c>
       <c r="F503" s="7"/>
     </row>
-    <row r="504" spans="1:6">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="7" t="s">
         <v>1616</v>
       </c>
@@ -16838,7 +16845,7 @@
       </c>
       <c r="F504" s="7"/>
     </row>
-    <row r="505" spans="1:6">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="7" t="s">
         <v>1619</v>
       </c>
@@ -16856,7 +16863,7 @@
       </c>
       <c r="F505" s="7"/>
     </row>
-    <row r="506" spans="1:6">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="7" t="s">
         <v>1622</v>
       </c>
@@ -16874,7 +16881,7 @@
       </c>
       <c r="F506" s="7"/>
     </row>
-    <row r="507" spans="1:6">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="7" t="s">
         <v>1625</v>
       </c>
@@ -16892,7 +16899,7 @@
       </c>
       <c r="F507" s="7"/>
     </row>
-    <row r="508" spans="1:6">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="7" t="s">
         <v>1628</v>
       </c>
@@ -16910,7 +16917,7 @@
       </c>
       <c r="F508" s="7"/>
     </row>
-    <row r="509" spans="1:6">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="7" t="s">
         <v>1631</v>
       </c>
@@ -16928,7 +16935,7 @@
       </c>
       <c r="F509" s="7"/>
     </row>
-    <row r="510" spans="1:6">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="7" t="s">
         <v>1634</v>
       </c>
@@ -16946,7 +16953,7 @@
       </c>
       <c r="F510" s="7"/>
     </row>
-    <row r="511" spans="1:6">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="7" t="s">
         <v>1637</v>
       </c>
@@ -16964,7 +16971,7 @@
       </c>
       <c r="F511" s="7"/>
     </row>
-    <row r="512" spans="1:6">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="7" t="s">
         <v>1640</v>
       </c>
@@ -16982,7 +16989,7 @@
       </c>
       <c r="F512" s="7"/>
     </row>
-    <row r="513" spans="1:6">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="7" t="s">
         <v>1643</v>
       </c>
@@ -17000,7 +17007,7 @@
       </c>
       <c r="F513" s="7"/>
     </row>
-    <row r="514" spans="1:6">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="7" t="s">
         <v>1646</v>
       </c>
@@ -17018,7 +17025,7 @@
       </c>
       <c r="F514" s="7"/>
     </row>
-    <row r="515" spans="1:6">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="7" t="s">
         <v>1649</v>
       </c>
@@ -17036,7 +17043,7 @@
       </c>
       <c r="F515" s="7"/>
     </row>
-    <row r="516" spans="1:6">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="7" t="s">
         <v>1652</v>
       </c>
@@ -17054,7 +17061,7 @@
       </c>
       <c r="F516" s="7"/>
     </row>
-    <row r="517" spans="1:6">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="7" t="s">
         <v>1655</v>
       </c>
@@ -17072,7 +17079,7 @@
       </c>
       <c r="F517" s="7"/>
     </row>
-    <row r="518" spans="1:6">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="7" t="s">
         <v>1658</v>
       </c>
@@ -17090,7 +17097,7 @@
       </c>
       <c r="F518" s="7"/>
     </row>
-    <row r="519" spans="1:6">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="7" t="s">
         <v>1661</v>
       </c>
@@ -17108,7 +17115,7 @@
       </c>
       <c r="F519" s="7"/>
     </row>
-    <row r="520" spans="1:6">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="7" t="s">
         <v>1664</v>
       </c>
@@ -17126,7 +17133,7 @@
       </c>
       <c r="F520" s="7"/>
     </row>
-    <row r="521" spans="1:6">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="7" t="s">
         <v>1667</v>
       </c>
@@ -17144,7 +17151,7 @@
       </c>
       <c r="F521" s="7"/>
     </row>
-    <row r="522" spans="1:6">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="7" t="s">
         <v>1670</v>
       </c>
@@ -17162,7 +17169,7 @@
       </c>
       <c r="F522" s="7"/>
     </row>
-    <row r="523" spans="1:6">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="7" t="s">
         <v>1673</v>
       </c>
@@ -17180,7 +17187,7 @@
       </c>
       <c r="F523" s="7"/>
     </row>
-    <row r="524" spans="1:6">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="7" t="s">
         <v>1676</v>
       </c>
@@ -17198,7 +17205,7 @@
       </c>
       <c r="F524" s="7"/>
     </row>
-    <row r="525" spans="1:6">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="7" t="s">
         <v>1679</v>
       </c>
@@ -17216,7 +17223,7 @@
       </c>
       <c r="F525" s="7"/>
     </row>
-    <row r="526" spans="1:6">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="7" t="s">
         <v>1682</v>
       </c>
@@ -17234,7 +17241,7 @@
       </c>
       <c r="F526" s="7"/>
     </row>
-    <row r="527" spans="1:6">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="7" t="s">
         <v>1685</v>
       </c>
@@ -17252,7 +17259,7 @@
       </c>
       <c r="F527" s="7"/>
     </row>
-    <row r="528" spans="1:6">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="7" t="s">
         <v>1688</v>
       </c>
@@ -17270,7 +17277,7 @@
       </c>
       <c r="F528" s="7"/>
     </row>
-    <row r="529" spans="1:6">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="7" t="s">
         <v>1691</v>
       </c>
@@ -17288,7 +17295,7 @@
       </c>
       <c r="F529" s="7"/>
     </row>
-    <row r="530" spans="1:6">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="7" t="s">
         <v>1694</v>
       </c>
@@ -17306,7 +17313,7 @@
       </c>
       <c r="F530" s="7"/>
     </row>
-    <row r="531" spans="1:6">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="7" t="s">
         <v>1697</v>
       </c>
@@ -17324,7 +17331,7 @@
       </c>
       <c r="F531" s="7"/>
     </row>
-    <row r="532" spans="1:6">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="7" t="s">
         <v>1700</v>
       </c>
@@ -17342,7 +17349,7 @@
       </c>
       <c r="F532" s="7"/>
     </row>
-    <row r="533" spans="1:6">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="7" t="s">
         <v>1703</v>
       </c>
@@ -17360,7 +17367,7 @@
       </c>
       <c r="F533" s="7"/>
     </row>
-    <row r="534" spans="1:6">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="7" t="s">
         <v>1706</v>
       </c>
@@ -17378,7 +17385,7 @@
       </c>
       <c r="F534" s="7"/>
     </row>
-    <row r="535" spans="1:6">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="7" t="s">
         <v>1709</v>
       </c>
@@ -17396,7 +17403,7 @@
       </c>
       <c r="F535" s="7"/>
     </row>
-    <row r="536" spans="1:6">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="7" t="s">
         <v>1712</v>
       </c>
@@ -17414,7 +17421,7 @@
       </c>
       <c r="F536" s="7"/>
     </row>
-    <row r="537" spans="1:6">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="7" t="s">
         <v>1715</v>
       </c>
@@ -17432,7 +17439,7 @@
       </c>
       <c r="F537" s="7"/>
     </row>
-    <row r="538" spans="1:6">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="7" t="s">
         <v>1718</v>
       </c>
@@ -17450,7 +17457,7 @@
       </c>
       <c r="F538" s="7"/>
     </row>
-    <row r="539" spans="1:6">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="7" t="s">
         <v>1721</v>
       </c>
@@ -17468,7 +17475,7 @@
       </c>
       <c r="F539" s="7"/>
     </row>
-    <row r="540" spans="1:6">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" s="7" t="s">
         <v>1724</v>
       </c>
@@ -17486,7 +17493,7 @@
       </c>
       <c r="F540" s="7"/>
     </row>
-    <row r="541" spans="1:6">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="7" t="s">
         <v>1727</v>
       </c>
@@ -17504,7 +17511,7 @@
       </c>
       <c r="F541" s="7"/>
     </row>
-    <row r="542" spans="1:6">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" s="7" t="s">
         <v>1730</v>
       </c>
@@ -17522,7 +17529,7 @@
       </c>
       <c r="F542" s="7"/>
     </row>
-    <row r="543" spans="1:6">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="7" t="s">
         <v>1733</v>
       </c>
@@ -17540,7 +17547,7 @@
       </c>
       <c r="F543" s="7"/>
     </row>
-    <row r="544" spans="1:6">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="7" t="s">
         <v>1736</v>
       </c>
@@ -17558,7 +17565,7 @@
       </c>
       <c r="F544" s="7"/>
     </row>
-    <row r="545" spans="1:6">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="7" t="s">
         <v>1739</v>
       </c>
@@ -17576,7 +17583,7 @@
       </c>
       <c r="F545" s="7"/>
     </row>
-    <row r="546" spans="1:6">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="7" t="s">
         <v>1742</v>
       </c>
@@ -17594,7 +17601,7 @@
       </c>
       <c r="F546" s="7"/>
     </row>
-    <row r="547" spans="1:6">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="7" t="s">
         <v>1745</v>
       </c>
@@ -17612,7 +17619,7 @@
       </c>
       <c r="F547" s="7"/>
     </row>
-    <row r="548" spans="1:6">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="7" t="s">
         <v>1748</v>
       </c>
@@ -17630,7 +17637,7 @@
       </c>
       <c r="F548" s="7"/>
     </row>
-    <row r="549" spans="1:6">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="7" t="s">
         <v>1751</v>
       </c>
@@ -17648,7 +17655,7 @@
       </c>
       <c r="F549" s="7"/>
     </row>
-    <row r="550" spans="1:6">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="7" t="s">
         <v>1754</v>
       </c>
@@ -17666,7 +17673,7 @@
       </c>
       <c r="F550" s="7"/>
     </row>
-    <row r="551" spans="1:6">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="7" t="s">
         <v>1757</v>
       </c>
@@ -17684,7 +17691,7 @@
       </c>
       <c r="F551" s="7"/>
     </row>
-    <row r="552" spans="1:6">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="7" t="s">
         <v>1760</v>
       </c>
@@ -17702,7 +17709,7 @@
       </c>
       <c r="F552" s="7"/>
     </row>
-    <row r="553" spans="1:6">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="7" t="s">
         <v>1763</v>
       </c>
@@ -17720,7 +17727,7 @@
       </c>
       <c r="F553" s="7"/>
     </row>
-    <row r="554" spans="1:6">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="7" t="s">
         <v>1765</v>
       </c>
@@ -17738,7 +17745,7 @@
       </c>
       <c r="F554" s="7"/>
     </row>
-    <row r="555" spans="1:6">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="7" t="s">
         <v>1768</v>
       </c>
@@ -17756,7 +17763,7 @@
       </c>
       <c r="F555" s="7"/>
     </row>
-    <row r="556" spans="1:6">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="7" t="s">
         <v>1771</v>
       </c>
@@ -17774,7 +17781,7 @@
       </c>
       <c r="F556" s="7"/>
     </row>
-    <row r="557" spans="1:6">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="7" t="s">
         <v>1774</v>
       </c>
@@ -17792,7 +17799,7 @@
       </c>
       <c r="F557" s="7"/>
     </row>
-    <row r="558" spans="1:6">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" s="7" t="s">
         <v>1777</v>
       </c>
@@ -17810,7 +17817,7 @@
       </c>
       <c r="F558" s="7"/>
     </row>
-    <row r="559" spans="1:6">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="7" t="s">
         <v>1780</v>
       </c>
@@ -17828,7 +17835,7 @@
       </c>
       <c r="F559" s="7"/>
     </row>
-    <row r="560" spans="1:6">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" s="7" t="s">
         <v>1783</v>
       </c>
@@ -17846,7 +17853,7 @@
       </c>
       <c r="F560" s="7"/>
     </row>
-    <row r="561" spans="1:6">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="7" t="s">
         <v>1786</v>
       </c>
@@ -17864,7 +17871,7 @@
       </c>
       <c r="F561" s="7"/>
     </row>
-    <row r="562" spans="1:6">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="7" t="s">
         <v>1789</v>
       </c>
@@ -17882,7 +17889,7 @@
       </c>
       <c r="F562" s="7"/>
     </row>
-    <row r="563" spans="1:6">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" s="7" t="s">
         <v>1792</v>
       </c>
@@ -17900,7 +17907,7 @@
       </c>
       <c r="F563" s="7"/>
     </row>
-    <row r="564" spans="1:6">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="7" t="s">
         <v>1795</v>
       </c>
@@ -17918,7 +17925,7 @@
       </c>
       <c r="F564" s="7"/>
     </row>
-    <row r="565" spans="1:6">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="7" t="s">
         <v>1798</v>
       </c>
@@ -17936,7 +17943,7 @@
       </c>
       <c r="F565" s="7"/>
     </row>
-    <row r="566" spans="1:6">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="7" t="s">
         <v>1801</v>
       </c>
@@ -17954,7 +17961,7 @@
       </c>
       <c r="F566" s="7"/>
     </row>
-    <row r="567" spans="1:6">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" s="7" t="s">
         <v>1804</v>
       </c>
@@ -17972,7 +17979,7 @@
       </c>
       <c r="F567" s="7"/>
     </row>
-    <row r="568" spans="1:6">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="7" t="s">
         <v>1807</v>
       </c>
@@ -17990,7 +17997,7 @@
       </c>
       <c r="F568" s="7"/>
     </row>
-    <row r="569" spans="1:6">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="7" t="s">
         <v>1810</v>
       </c>
@@ -18008,7 +18015,7 @@
       </c>
       <c r="F569" s="7"/>
     </row>
-    <row r="570" spans="1:6">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="7" t="s">
         <v>1813</v>
       </c>
@@ -18026,7 +18033,7 @@
       </c>
       <c r="F570" s="7"/>
     </row>
-    <row r="571" spans="1:6">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="7" t="s">
         <v>1816</v>
       </c>
@@ -18044,7 +18051,7 @@
       </c>
       <c r="F571" s="7"/>
     </row>
-    <row r="572" spans="1:6">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" s="7" t="s">
         <v>1819</v>
       </c>
@@ -18062,7 +18069,7 @@
       </c>
       <c r="F572" s="7"/>
     </row>
-    <row r="573" spans="1:6">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" s="7" t="s">
         <v>1821</v>
       </c>
@@ -18080,7 +18087,7 @@
       </c>
       <c r="F573" s="7"/>
     </row>
-    <row r="574" spans="1:6">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" s="7" t="s">
         <v>1824</v>
       </c>
@@ -18098,7 +18105,7 @@
       </c>
       <c r="F574" s="7"/>
     </row>
-    <row r="575" spans="1:6">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" s="7" t="s">
         <v>1827</v>
       </c>
@@ -18116,7 +18123,7 @@
       </c>
       <c r="F575" s="7"/>
     </row>
-    <row r="576" spans="1:6">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" s="7" t="s">
         <v>1830</v>
       </c>
@@ -18134,7 +18141,7 @@
       </c>
       <c r="F576" s="7"/>
     </row>
-    <row r="577" spans="1:6">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" s="7" t="s">
         <v>1833</v>
       </c>
@@ -18152,7 +18159,7 @@
       </c>
       <c r="F577" s="7"/>
     </row>
-    <row r="578" spans="1:6">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" s="7" t="s">
         <v>1836</v>
       </c>
@@ -18170,7 +18177,7 @@
       </c>
       <c r="F578" s="7"/>
     </row>
-    <row r="579" spans="1:6">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="7" t="s">
         <v>1839</v>
       </c>
@@ -18188,7 +18195,7 @@
       </c>
       <c r="F579" s="7"/>
     </row>
-    <row r="580" spans="1:6">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="7" t="s">
         <v>1842</v>
       </c>
@@ -18206,7 +18213,7 @@
       </c>
       <c r="F580" s="7"/>
     </row>
-    <row r="581" spans="1:6">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="7" t="s">
         <v>1845</v>
       </c>
@@ -18224,7 +18231,7 @@
       </c>
       <c r="F581" s="7"/>
     </row>
-    <row r="582" spans="1:6">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="7" t="s">
         <v>1848</v>
       </c>
@@ -18242,7 +18249,7 @@
       </c>
       <c r="F582" s="7"/>
     </row>
-    <row r="583" spans="1:6">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="7" t="s">
         <v>1851</v>
       </c>
@@ -18260,7 +18267,7 @@
       </c>
       <c r="F583" s="7"/>
     </row>
-    <row r="584" spans="1:6">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="7" t="s">
         <v>1854</v>
       </c>
@@ -18278,7 +18285,7 @@
       </c>
       <c r="F584" s="7"/>
     </row>
-    <row r="585" spans="1:6">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="7" t="s">
         <v>1857</v>
       </c>
@@ -18296,7 +18303,7 @@
       </c>
       <c r="F585" s="7"/>
     </row>
-    <row r="586" spans="1:6">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="7" t="s">
         <v>1860</v>
       </c>
@@ -18314,7 +18321,7 @@
       </c>
       <c r="F586" s="7"/>
     </row>
-    <row r="587" spans="1:6">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="7" t="s">
         <v>1863</v>
       </c>
@@ -18332,7 +18339,7 @@
       </c>
       <c r="F587" s="7"/>
     </row>
-    <row r="588" spans="1:6">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" s="7" t="s">
         <v>1865</v>
       </c>
@@ -18350,7 +18357,7 @@
       </c>
       <c r="F588" s="7"/>
     </row>
-    <row r="589" spans="1:6">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="7" t="s">
         <v>1868</v>
       </c>
@@ -18368,7 +18375,7 @@
       </c>
       <c r="F589" s="7"/>
     </row>
-    <row r="590" spans="1:6">
+    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="7" t="s">
         <v>1871</v>
       </c>
@@ -18384,7 +18391,7 @@
       </c>
       <c r="F590" s="7"/>
     </row>
-    <row r="591" spans="1:6">
+    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="7" t="s">
         <v>1874</v>
       </c>
@@ -18400,7 +18407,7 @@
       </c>
       <c r="F591" s="7"/>
     </row>
-    <row r="592" spans="1:6">
+    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="7" t="s">
         <v>1877</v>
       </c>
@@ -18416,7 +18423,7 @@
       </c>
       <c r="F592" s="7"/>
     </row>
-    <row r="593" spans="1:6">
+    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="7" t="s">
         <v>1880</v>
       </c>
@@ -18432,7 +18439,7 @@
       </c>
       <c r="F593" s="7"/>
     </row>
-    <row r="594" spans="1:6">
+    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="7" t="s">
         <v>1883</v>
       </c>
@@ -18448,7 +18455,7 @@
       </c>
       <c r="F594" s="7"/>
     </row>
-    <row r="595" spans="1:6">
+    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="7" t="s">
         <v>1886</v>
       </c>
@@ -18464,7 +18471,7 @@
       </c>
       <c r="F595" s="7"/>
     </row>
-    <row r="596" spans="1:6">
+    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="7" t="s">
         <v>1889</v>
       </c>
@@ -18480,7 +18487,7 @@
       </c>
       <c r="F596" s="7"/>
     </row>
-    <row r="597" spans="1:6">
+    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="7" t="s">
         <v>1892</v>
       </c>
@@ -18496,7 +18503,7 @@
       </c>
       <c r="F597" s="7"/>
     </row>
-    <row r="598" spans="1:6">
+    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="7" t="s">
         <v>1895</v>
       </c>
@@ -18512,7 +18519,7 @@
       </c>
       <c r="F598" s="7"/>
     </row>
-    <row r="599" spans="1:6">
+    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="7" t="s">
         <v>1898</v>
       </c>
@@ -18528,7 +18535,7 @@
       </c>
       <c r="F599" s="7"/>
     </row>
-    <row r="600" spans="1:6">
+    <row r="600" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="7" t="s">
         <v>1901</v>
       </c>
@@ -18544,7 +18551,7 @@
       </c>
       <c r="F600" s="7"/>
     </row>
-    <row r="601" spans="1:6">
+    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="7" t="s">
         <v>1904</v>
       </c>
@@ -18560,7 +18567,7 @@
       </c>
       <c r="F601" s="7"/>
     </row>
-    <row r="602" spans="1:6">
+    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="7" t="s">
         <v>1906</v>
       </c>
@@ -18576,7 +18583,7 @@
       </c>
       <c r="F602" s="7"/>
     </row>
-    <row r="603" spans="1:6">
+    <row r="603" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="7" t="s">
         <v>1909</v>
       </c>
@@ -18592,7 +18599,7 @@
       </c>
       <c r="F603" s="7"/>
     </row>
-    <row r="604" spans="1:6">
+    <row r="604" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="7" t="s">
         <v>1912</v>
       </c>
@@ -18608,7 +18615,7 @@
       </c>
       <c r="F604" s="7"/>
     </row>
-    <row r="605" spans="1:6">
+    <row r="605" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="7" t="s">
         <v>1915</v>
       </c>
@@ -18624,7 +18631,7 @@
       </c>
       <c r="F605" s="7"/>
     </row>
-    <row r="606" spans="1:6">
+    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="7" t="s">
         <v>1918</v>
       </c>
@@ -18640,7 +18647,7 @@
       </c>
       <c r="F606" s="7"/>
     </row>
-    <row r="607" spans="1:6">
+    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="7" t="s">
         <v>1921</v>
       </c>
@@ -18656,7 +18663,7 @@
       </c>
       <c r="F607" s="7"/>
     </row>
-    <row r="608" spans="1:6">
+    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="7" t="s">
         <v>1924</v>
       </c>
@@ -18672,7 +18679,7 @@
       </c>
       <c r="F608" s="7"/>
     </row>
-    <row r="609" spans="1:6">
+    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="7" t="s">
         <v>1927</v>
       </c>
@@ -18688,7 +18695,7 @@
       </c>
       <c r="F609" s="7"/>
     </row>
-    <row r="610" spans="1:6">
+    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="7" t="s">
         <v>1930</v>
       </c>
@@ -18717,19 +18724,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE995B6E-F8E3-4919-A9E0-E67EE815BFB7}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18737,7 +18744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -18745,7 +18752,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -18753,7 +18760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -18761,7 +18768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -18769,13 +18776,13 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -18783,13 +18790,13 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -18803,7 +18810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18815,7 +18822,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18827,7 +18834,7 @@
       </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18839,7 +18846,7 @@
       </c>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18851,7 +18858,7 @@
       </c>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18863,7 +18870,7 @@
       </c>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18875,7 +18882,7 @@
       </c>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18887,7 +18894,7 @@
       </c>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18899,7 +18906,7 @@
       </c>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18911,7 +18918,7 @@
       </c>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18923,7 +18930,7 @@
       </c>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18935,7 +18942,7 @@
       </c>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18947,7 +18954,7 @@
       </c>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18959,7 +18966,7 @@
       </c>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18971,7 +18978,7 @@
       </c>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18983,7 +18990,7 @@
       </c>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>1935</v>
       </c>
@@ -19004,67 +19011,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f8b6baa267c0456bbf6a8d18c49a130b>
-    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
-    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p671c8df16a44846939d278d4958f62c>
-    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b2804ef99be44b9e8166e80a6c2eb9f1>
-    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mc4aa6e782e045f6bb87dab01c971b56>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m312bc62cb0243b6a873cbbf4dace6b2>
-    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b084a4cb34a444d7969136255594d2f3>
-    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g30fb2d8061a4d40b63138f91c1a832e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m9a76db3058146ae844db6599c9d7036>
-    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l0a6b4600f484920bbceae0813174244>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="51" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="5f25723db95d46bd813c254178c12b28">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7bc30f4eda6069462a66ebc021061e28" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19472,14 +19418,109 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98F885D4-EF3D-4686-B5F6-1FDD2BF41E71}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBA7AA67-47B2-4825-997F-EB2CD9778FFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A3BBB1E-C9DF-4117-9187-A8DD65EB643C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A3BBB1E-C9DF-4117-9187-A8DD65EB643C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBA7AA67-47B2-4825-997F-EB2CD9778FFB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98F885D4-EF3D-4686-B5F6-1FDD2BF41E71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/nomenclature_parser/in/Nomenclatures EMSI RESOURCE.xlsx
+++ b/nomenclature_parser/in/Nomenclatures EMSI RESOURCE.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1188" documentId="8_{4FA08952-AD8A-4EC5-BA39-9F1D18567017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E1CD0F2-E84D-4839-9F12-1562F3524767}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E3A59C1D-DF4F-40E3-A908-700669E2F1F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E3A59C1D-DF4F-40E3-A908-700669E2F1F4}"/>
   </bookViews>
   <sheets>
     <sheet name="RESOURCE.UM" sheetId="6" r:id="rId1"/>
@@ -7869,7 +7869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CB9E0D-B8DC-4CCE-8710-BDDD2261629F}">
   <dimension ref="A1:F610"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A312" sqref="A312"/>
     </sheetView>
   </sheetViews>
@@ -18724,7 +18724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE995B6E-F8E3-4919-A9E0-E67EE815BFB7}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -19011,8 +19011,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="51" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="5f25723db95d46bd813c254178c12b28">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7bc30f4eda6069462a66ebc021061e28" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="b3317a165cd10de70dc68851db9884d1">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b8430278eece82d06f551ff77398a68" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
     <xsd:import namespace="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
@@ -19057,6 +19057,7 @@
                 <xsd:element ref="ns2:Ticket_x0020_Changement" minOccurs="0"/>
                 <xsd:element ref="ns2:Environnement" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -19318,6 +19319,11 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="54" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
     <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
@@ -19480,23 +19486,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBA7AA67-47B2-4825-997F-EB2CD9778FFB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F600F5F0-E3F4-4CD1-B823-B0373889BA6B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/nomenclature_parser/in/Nomenclatures EMSI RESOURCE.xlsx
+++ b/nomenclature_parser/in/Nomenclatures EMSI RESOURCE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1188" documentId="8_{4FA08952-AD8A-4EC5-BA39-9F1D18567017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E1CD0F2-E84D-4839-9F12-1562F3524767}"/>
+  <xr:revisionPtr revIDLastSave="1197" documentId="8_{4FA08952-AD8A-4EC5-BA39-9F1D18567017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{041DE4A5-FAD7-4ACF-A48F-261D3586C397}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E3A59C1D-DF4F-40E3-A908-700669E2F1F4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E3A59C1D-DF4F-40E3-A908-700669E2F1F4}"/>
   </bookViews>
   <sheets>
     <sheet name="RESOURCE.UM" sheetId="6" r:id="rId1"/>
@@ -37,6 +37,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={A1A63B83-8E84-4021-B9EA-CDD31A45BF58}</author>
+  </authors>
+  <commentList>
+    <comment ref="A520" authorId="0" shapeId="0" xr:uid="{A1A63B83-8E84-4021-B9EA-CDD31A45BF58}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    VSAV</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="1968">
   <si>
@@ -5948,7 +5966,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5991,6 +6009,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -6672,6 +6696,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Daphné LECCIA (EXT)" id="{E8E91ABB-5E93-4BB0-80A4-051EFB9FFE55}" userId="S::Daphne.LECCIA.EXT@esante.gouv.fr::9cca622e-4bc3-4039-b46f-9ab4e737295d" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{42A3190F-B4C4-4FD6-A2E5-527D528AB8D4}" name="Table1345791132" displayName="Table1345791132" ref="A9:E59" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A9:E59" xr:uid="{055641F3-D0AB-4717-B922-6E3A5263A366}"/>
@@ -6688,13 +6718,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F75B1DA5-9891-4F6A-AB67-59BFCEA39278}" name="Table134579113" displayName="Table134579113" ref="A9:F610" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A9:F610" xr:uid="{055641F3-D0AB-4717-B922-6E3A5263A366}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Véhicule"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A9:F610" xr:uid="{055641F3-D0AB-4717-B922-6E3A5263A366}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D3C2EF9F-0A39-4713-AB81-BA1DFEE125BD}" name="Code" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{BDEDD48A-6D09-407F-B330-F11B697A342A}" name="Libellé niveau 1" dataDxfId="10"/>
@@ -7015,6 +7039,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A520" dT="2024-01-12T09:38:27.85" personId="{E8E91ABB-5E93-4BB0-80A4-051EFB9FFE55}" id="{A1A63B83-8E84-4021-B9EA-CDD31A45BF58}">
+    <text>VSAV</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CEF5FD-1940-42EA-85AA-122B06213404}">
   <dimension ref="A1:E59"/>
@@ -7866,17 +7898,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CB9E0D-B8DC-4CCE-8710-BDDD2261629F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CB9E0D-B8DC-4CCE-8710-BDDD2261629F}">
   <dimension ref="A1:F610"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A312" sqref="A312"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="4" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="90.85546875" customWidth="1"/>
     <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
@@ -7977,7 +8011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>157</v>
       </c>
@@ -7991,7 +8025,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>160</v>
       </c>
@@ -8005,7 +8039,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>163</v>
       </c>
@@ -8019,7 +8053,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>166</v>
       </c>
@@ -8033,7 +8067,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>169</v>
       </c>
@@ -8049,7 +8083,7 @@
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>172</v>
       </c>
@@ -8065,7 +8099,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>175</v>
       </c>
@@ -8081,7 +8115,7 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>178</v>
       </c>
@@ -8097,7 +8131,7 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>181</v>
       </c>
@@ -8113,7 +8147,7 @@
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>184</v>
       </c>
@@ -8129,7 +8163,7 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>187</v>
       </c>
@@ -8145,7 +8179,7 @@
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>190</v>
       </c>
@@ -8163,7 +8197,7 @@
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>193</v>
       </c>
@@ -8181,7 +8215,7 @@
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>196</v>
       </c>
@@ -8199,7 +8233,7 @@
       </c>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>199</v>
       </c>
@@ -8217,7 +8251,7 @@
       </c>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>202</v>
       </c>
@@ -8235,7 +8269,7 @@
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>205</v>
       </c>
@@ -8253,7 +8287,7 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>208</v>
       </c>
@@ -8271,7 +8305,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>211</v>
       </c>
@@ -8289,7 +8323,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>214</v>
       </c>
@@ -8307,7 +8341,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>217</v>
       </c>
@@ -8325,7 +8359,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>220</v>
       </c>
@@ -8343,7 +8377,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>223</v>
       </c>
@@ -8361,7 +8395,7 @@
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>226</v>
       </c>
@@ -8379,7 +8413,7 @@
       </c>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>229</v>
       </c>
@@ -8397,7 +8431,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>231</v>
       </c>
@@ -8415,7 +8449,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>234</v>
       </c>
@@ -8433,7 +8467,7 @@
       </c>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>237</v>
       </c>
@@ -8451,7 +8485,7 @@
       </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>240</v>
       </c>
@@ -8469,7 +8503,7 @@
       </c>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>243</v>
       </c>
@@ -8487,7 +8521,7 @@
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>246</v>
       </c>
@@ -8505,7 +8539,7 @@
       </c>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>249</v>
       </c>
@@ -8523,7 +8557,7 @@
       </c>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>252</v>
       </c>
@@ -8541,7 +8575,7 @@
       </c>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>255</v>
       </c>
@@ -8559,7 +8593,7 @@
       </c>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>258</v>
       </c>
@@ -8577,7 +8611,7 @@
       </c>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>261</v>
       </c>
@@ -8595,7 +8629,7 @@
       </c>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>264</v>
       </c>
@@ -8613,7 +8647,7 @@
       </c>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>267</v>
       </c>
@@ -8631,7 +8665,7 @@
       </c>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>270</v>
       </c>
@@ -8649,7 +8683,7 @@
       </c>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>273</v>
       </c>
@@ -8667,7 +8701,7 @@
       </c>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>276</v>
       </c>
@@ -8685,7 +8719,7 @@
       </c>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>279</v>
       </c>
@@ -8703,7 +8737,7 @@
       </c>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>282</v>
       </c>
@@ -8721,7 +8755,7 @@
       </c>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>285</v>
       </c>
@@ -8739,7 +8773,7 @@
       </c>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>288</v>
       </c>
@@ -8757,7 +8791,7 @@
       </c>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>291</v>
       </c>
@@ -8775,7 +8809,7 @@
       </c>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>294</v>
       </c>
@@ -8793,7 +8827,7 @@
       </c>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>296</v>
       </c>
@@ -8811,7 +8845,7 @@
       </c>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>299</v>
       </c>
@@ -8829,7 +8863,7 @@
       </c>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>301</v>
       </c>
@@ -8847,7 +8881,7 @@
       </c>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>304</v>
       </c>
@@ -8865,7 +8899,7 @@
       </c>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>307</v>
       </c>
@@ -8883,7 +8917,7 @@
       </c>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>310</v>
       </c>
@@ -8901,7 +8935,7 @@
       </c>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>313</v>
       </c>
@@ -8919,7 +8953,7 @@
       </c>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>316</v>
       </c>
@@ -8937,7 +8971,7 @@
       </c>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>319</v>
       </c>
@@ -8955,7 +8989,7 @@
       </c>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>322</v>
       </c>
@@ -8973,7 +9007,7 @@
       </c>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>325</v>
       </c>
@@ -8991,7 +9025,7 @@
       </c>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>328</v>
       </c>
@@ -9009,7 +9043,7 @@
       </c>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>330</v>
       </c>
@@ -9027,7 +9061,7 @@
       </c>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>333</v>
       </c>
@@ -9045,7 +9079,7 @@
       </c>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>335</v>
       </c>
@@ -9063,7 +9097,7 @@
       </c>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>338</v>
       </c>
@@ -9081,7 +9115,7 @@
       </c>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>341</v>
       </c>
@@ -9099,7 +9133,7 @@
       </c>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>344</v>
       </c>
@@ -9117,7 +9151,7 @@
       </c>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>347</v>
       </c>
@@ -9135,7 +9169,7 @@
       </c>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>350</v>
       </c>
@@ -9153,7 +9187,7 @@
       </c>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>353</v>
       </c>
@@ -9171,7 +9205,7 @@
       </c>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>356</v>
       </c>
@@ -9189,7 +9223,7 @@
       </c>
       <c r="F78" s="7"/>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>358</v>
       </c>
@@ -9207,7 +9241,7 @@
       </c>
       <c r="F79" s="7"/>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>361</v>
       </c>
@@ -9225,7 +9259,7 @@
       </c>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>363</v>
       </c>
@@ -9243,7 +9277,7 @@
       </c>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>366</v>
       </c>
@@ -9261,7 +9295,7 @@
       </c>
       <c r="F82" s="7"/>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>369</v>
       </c>
@@ -9279,7 +9313,7 @@
       </c>
       <c r="F83" s="7"/>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>372</v>
       </c>
@@ -9297,7 +9331,7 @@
       </c>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>375</v>
       </c>
@@ -9315,7 +9349,7 @@
       </c>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>378</v>
       </c>
@@ -9333,7 +9367,7 @@
       </c>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>381</v>
       </c>
@@ -9351,7 +9385,7 @@
       </c>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>384</v>
       </c>
@@ -9369,7 +9403,7 @@
       </c>
       <c r="F88" s="7"/>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>386</v>
       </c>
@@ -9387,7 +9421,7 @@
       </c>
       <c r="F89" s="7"/>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>389</v>
       </c>
@@ -9405,7 +9439,7 @@
       </c>
       <c r="F90" s="7"/>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>392</v>
       </c>
@@ -9423,7 +9457,7 @@
       </c>
       <c r="F91" s="7"/>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>395</v>
       </c>
@@ -9441,7 +9475,7 @@
       </c>
       <c r="F92" s="7"/>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>398</v>
       </c>
@@ -9459,7 +9493,7 @@
       </c>
       <c r="F93" s="7"/>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>401</v>
       </c>
@@ -9477,7 +9511,7 @@
       </c>
       <c r="F94" s="7"/>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>404</v>
       </c>
@@ -9495,7 +9529,7 @@
       </c>
       <c r="F95" s="7"/>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>407</v>
       </c>
@@ -9513,7 +9547,7 @@
       </c>
       <c r="F96" s="7"/>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>410</v>
       </c>
@@ -9531,7 +9565,7 @@
       </c>
       <c r="F97" s="7"/>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>413</v>
       </c>
@@ -9549,7 +9583,7 @@
       </c>
       <c r="F98" s="7"/>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>416</v>
       </c>
@@ -9567,7 +9601,7 @@
       </c>
       <c r="F99" s="7"/>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>419</v>
       </c>
@@ -9585,7 +9619,7 @@
       </c>
       <c r="F100" s="7"/>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>422</v>
       </c>
@@ -9603,7 +9637,7 @@
       </c>
       <c r="F101" s="7"/>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>425</v>
       </c>
@@ -9621,7 +9655,7 @@
       </c>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>428</v>
       </c>
@@ -9639,7 +9673,7 @@
       </c>
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>431</v>
       </c>
@@ -9657,7 +9691,7 @@
       </c>
       <c r="F104" s="7"/>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>434</v>
       </c>
@@ -9675,7 +9709,7 @@
       </c>
       <c r="F105" s="7"/>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>437</v>
       </c>
@@ -9693,7 +9727,7 @@
       </c>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>439</v>
       </c>
@@ -9711,7 +9745,7 @@
       </c>
       <c r="F107" s="7"/>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>442</v>
       </c>
@@ -9729,7 +9763,7 @@
       </c>
       <c r="F108" s="7"/>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>442</v>
       </c>
@@ -9747,7 +9781,7 @@
       </c>
       <c r="F109" s="7"/>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>447</v>
       </c>
@@ -9765,7 +9799,7 @@
       </c>
       <c r="F110" s="7"/>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>450</v>
       </c>
@@ -9783,7 +9817,7 @@
       </c>
       <c r="F111" s="7"/>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>453</v>
       </c>
@@ -9801,7 +9835,7 @@
       </c>
       <c r="F112" s="7"/>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>456</v>
       </c>
@@ -9819,7 +9853,7 @@
       </c>
       <c r="F113" s="7"/>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>459</v>
       </c>
@@ -9837,7 +9871,7 @@
       </c>
       <c r="F114" s="7"/>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>462</v>
       </c>
@@ -9855,7 +9889,7 @@
       </c>
       <c r="F115" s="7"/>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>465</v>
       </c>
@@ -9873,7 +9907,7 @@
       </c>
       <c r="F116" s="7"/>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>468</v>
       </c>
@@ -9891,7 +9925,7 @@
       </c>
       <c r="F117" s="7"/>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>471</v>
       </c>
@@ -9909,7 +9943,7 @@
       </c>
       <c r="F118" s="7"/>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>474</v>
       </c>
@@ -9927,7 +9961,7 @@
       </c>
       <c r="F119" s="7"/>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>477</v>
       </c>
@@ -9945,7 +9979,7 @@
       </c>
       <c r="F120" s="7"/>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>480</v>
       </c>
@@ -9963,7 +9997,7 @@
       </c>
       <c r="F121" s="7"/>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>483</v>
       </c>
@@ -9981,7 +10015,7 @@
       </c>
       <c r="F122" s="7"/>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>486</v>
       </c>
@@ -9999,7 +10033,7 @@
       </c>
       <c r="F123" s="7"/>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>489</v>
       </c>
@@ -10017,7 +10051,7 @@
       </c>
       <c r="F124" s="7"/>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>492</v>
       </c>
@@ -10035,7 +10069,7 @@
       </c>
       <c r="F125" s="7"/>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>495</v>
       </c>
@@ -10053,7 +10087,7 @@
       </c>
       <c r="F126" s="7"/>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>498</v>
       </c>
@@ -10071,7 +10105,7 @@
       </c>
       <c r="F127" s="7"/>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>501</v>
       </c>
@@ -10089,7 +10123,7 @@
       </c>
       <c r="F128" s="7"/>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>504</v>
       </c>
@@ -10107,7 +10141,7 @@
       </c>
       <c r="F129" s="7"/>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>507</v>
       </c>
@@ -10125,7 +10159,7 @@
       </c>
       <c r="F130" s="7"/>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>510</v>
       </c>
@@ -10143,7 +10177,7 @@
       </c>
       <c r="F131" s="7"/>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>513</v>
       </c>
@@ -10161,7 +10195,7 @@
       </c>
       <c r="F132" s="7"/>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>516</v>
       </c>
@@ -10179,7 +10213,7 @@
       </c>
       <c r="F133" s="7"/>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>519</v>
       </c>
@@ -10197,7 +10231,7 @@
       </c>
       <c r="F134" s="7"/>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>522</v>
       </c>
@@ -10215,7 +10249,7 @@
       </c>
       <c r="F135" s="7"/>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>525</v>
       </c>
@@ -10233,7 +10267,7 @@
       </c>
       <c r="F136" s="7"/>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>528</v>
       </c>
@@ -10251,7 +10285,7 @@
       </c>
       <c r="F137" s="7"/>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>531</v>
       </c>
@@ -10269,7 +10303,7 @@
       </c>
       <c r="F138" s="7"/>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>534</v>
       </c>
@@ -10287,7 +10321,7 @@
       </c>
       <c r="F139" s="7"/>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>537</v>
       </c>
@@ -10305,7 +10339,7 @@
       </c>
       <c r="F140" s="7"/>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>540</v>
       </c>
@@ -10323,7 +10357,7 @@
       </c>
       <c r="F141" s="7"/>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>543</v>
       </c>
@@ -10341,7 +10375,7 @@
       </c>
       <c r="F142" s="7"/>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>546</v>
       </c>
@@ -10359,7 +10393,7 @@
       </c>
       <c r="F143" s="7"/>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>549</v>
       </c>
@@ -10377,7 +10411,7 @@
       </c>
       <c r="F144" s="7"/>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>552</v>
       </c>
@@ -10395,7 +10429,7 @@
       </c>
       <c r="F145" s="7"/>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>555</v>
       </c>
@@ -10413,7 +10447,7 @@
       </c>
       <c r="F146" s="7"/>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>558</v>
       </c>
@@ -10431,7 +10465,7 @@
       </c>
       <c r="F147" s="7"/>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>561</v>
       </c>
@@ -10449,7 +10483,7 @@
       </c>
       <c r="F148" s="7"/>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>564</v>
       </c>
@@ -10467,7 +10501,7 @@
       </c>
       <c r="F149" s="7"/>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>567</v>
       </c>
@@ -10485,7 +10519,7 @@
       </c>
       <c r="F150" s="7"/>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>570</v>
       </c>
@@ -10503,7 +10537,7 @@
       </c>
       <c r="F151" s="7"/>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>573</v>
       </c>
@@ -10521,7 +10555,7 @@
       </c>
       <c r="F152" s="7"/>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>576</v>
       </c>
@@ -10539,7 +10573,7 @@
       </c>
       <c r="F153" s="7"/>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>579</v>
       </c>
@@ -10557,7 +10591,7 @@
       </c>
       <c r="F154" s="7"/>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>582</v>
       </c>
@@ -10575,7 +10609,7 @@
       </c>
       <c r="F155" s="7"/>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>585</v>
       </c>
@@ -10591,7 +10625,7 @@
       </c>
       <c r="F156" s="7"/>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>588</v>
       </c>
@@ -10607,7 +10641,7 @@
       </c>
       <c r="F157" s="7"/>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>591</v>
       </c>
@@ -10623,7 +10657,7 @@
       </c>
       <c r="F158" s="7"/>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>594</v>
       </c>
@@ -10641,7 +10675,7 @@
       </c>
       <c r="F159" s="7"/>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>597</v>
       </c>
@@ -10659,7 +10693,7 @@
       </c>
       <c r="F160" s="7"/>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>600</v>
       </c>
@@ -10677,7 +10711,7 @@
       </c>
       <c r="F161" s="7"/>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>603</v>
       </c>
@@ -10695,7 +10729,7 @@
       </c>
       <c r="F162" s="7"/>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>606</v>
       </c>
@@ -10713,7 +10747,7 @@
       </c>
       <c r="F163" s="7"/>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>609</v>
       </c>
@@ -10731,7 +10765,7 @@
       </c>
       <c r="F164" s="7"/>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>612</v>
       </c>
@@ -10749,7 +10783,7 @@
       </c>
       <c r="F165" s="7"/>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>615</v>
       </c>
@@ -10767,7 +10801,7 @@
       </c>
       <c r="F166" s="7"/>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>618</v>
       </c>
@@ -10785,7 +10819,7 @@
       </c>
       <c r="F167" s="7"/>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>621</v>
       </c>
@@ -10803,7 +10837,7 @@
       </c>
       <c r="F168" s="7"/>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>624</v>
       </c>
@@ -10821,7 +10855,7 @@
       </c>
       <c r="F169" s="7"/>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>627</v>
       </c>
@@ -10839,7 +10873,7 @@
       </c>
       <c r="F170" s="7"/>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>630</v>
       </c>
@@ -10857,7 +10891,7 @@
       </c>
       <c r="F171" s="7"/>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>633</v>
       </c>
@@ -10875,7 +10909,7 @@
       </c>
       <c r="F172" s="7"/>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>636</v>
       </c>
@@ -10893,7 +10927,7 @@
       </c>
       <c r="F173" s="7"/>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>639</v>
       </c>
@@ -10911,7 +10945,7 @@
       </c>
       <c r="F174" s="7"/>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>642</v>
       </c>
@@ -10929,7 +10963,7 @@
       </c>
       <c r="F175" s="7"/>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>645</v>
       </c>
@@ -10947,7 +10981,7 @@
       </c>
       <c r="F176" s="7"/>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>648</v>
       </c>
@@ -10965,7 +10999,7 @@
       </c>
       <c r="F177" s="7"/>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>651</v>
       </c>
@@ -10983,7 +11017,7 @@
       </c>
       <c r="F178" s="7"/>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>654</v>
       </c>
@@ -11001,7 +11035,7 @@
       </c>
       <c r="F179" s="7"/>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>657</v>
       </c>
@@ -11019,7 +11053,7 @@
       </c>
       <c r="F180" s="7"/>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>660</v>
       </c>
@@ -11037,7 +11071,7 @@
       </c>
       <c r="F181" s="7"/>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>663</v>
       </c>
@@ -11055,7 +11089,7 @@
       </c>
       <c r="F182" s="7"/>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>666</v>
       </c>
@@ -11073,7 +11107,7 @@
       </c>
       <c r="F183" s="7"/>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>669</v>
       </c>
@@ -11091,7 +11125,7 @@
       </c>
       <c r="F184" s="7"/>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>672</v>
       </c>
@@ -11109,7 +11143,7 @@
       </c>
       <c r="F185" s="7"/>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>675</v>
       </c>
@@ -11127,7 +11161,7 @@
       </c>
       <c r="F186" s="7"/>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>678</v>
       </c>
@@ -11145,7 +11179,7 @@
       </c>
       <c r="F187" s="7"/>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>681</v>
       </c>
@@ -11163,7 +11197,7 @@
       </c>
       <c r="F188" s="7"/>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>684</v>
       </c>
@@ -11181,7 +11215,7 @@
       </c>
       <c r="F189" s="7"/>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>687</v>
       </c>
@@ -11199,7 +11233,7 @@
       </c>
       <c r="F190" s="7"/>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>690</v>
       </c>
@@ -11217,7 +11251,7 @@
       </c>
       <c r="F191" s="7"/>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>693</v>
       </c>
@@ -11235,7 +11269,7 @@
       </c>
       <c r="F192" s="7"/>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>696</v>
       </c>
@@ -11253,7 +11287,7 @@
       </c>
       <c r="F193" s="7"/>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>699</v>
       </c>
@@ -11271,7 +11305,7 @@
       </c>
       <c r="F194" s="7"/>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>702</v>
       </c>
@@ -11289,7 +11323,7 @@
       </c>
       <c r="F195" s="7"/>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>705</v>
       </c>
@@ -11307,7 +11341,7 @@
       </c>
       <c r="F196" s="7"/>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>708</v>
       </c>
@@ -11325,7 +11359,7 @@
       </c>
       <c r="F197" s="7"/>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>711</v>
       </c>
@@ -11343,7 +11377,7 @@
       </c>
       <c r="F198" s="7"/>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>714</v>
       </c>
@@ -11361,7 +11395,7 @@
       </c>
       <c r="F199" s="7"/>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>717</v>
       </c>
@@ -11379,7 +11413,7 @@
       </c>
       <c r="F200" s="7"/>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>720</v>
       </c>
@@ -11397,7 +11431,7 @@
       </c>
       <c r="F201" s="7"/>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>723</v>
       </c>
@@ -11415,7 +11449,7 @@
       </c>
       <c r="F202" s="7"/>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>726</v>
       </c>
@@ -11433,7 +11467,7 @@
       </c>
       <c r="F203" s="7"/>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>729</v>
       </c>
@@ -11451,7 +11485,7 @@
       </c>
       <c r="F204" s="7"/>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>732</v>
       </c>
@@ -11469,7 +11503,7 @@
       </c>
       <c r="F205" s="7"/>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>735</v>
       </c>
@@ -11487,7 +11521,7 @@
       </c>
       <c r="F206" s="7"/>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>737</v>
       </c>
@@ -11505,7 +11539,7 @@
       </c>
       <c r="F207" s="7"/>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>740</v>
       </c>
@@ -11523,7 +11557,7 @@
       </c>
       <c r="F208" s="7"/>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>743</v>
       </c>
@@ -11541,7 +11575,7 @@
       </c>
       <c r="F209" s="7"/>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>746</v>
       </c>
@@ -11559,7 +11593,7 @@
       </c>
       <c r="F210" s="7"/>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>749</v>
       </c>
@@ -11577,7 +11611,7 @@
       </c>
       <c r="F211" s="7"/>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>752</v>
       </c>
@@ -11595,7 +11629,7 @@
       </c>
       <c r="F212" s="7"/>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>755</v>
       </c>
@@ -11613,7 +11647,7 @@
       </c>
       <c r="F213" s="7"/>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>758</v>
       </c>
@@ -11631,7 +11665,7 @@
       </c>
       <c r="F214" s="7"/>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>761</v>
       </c>
@@ -11649,7 +11683,7 @@
       </c>
       <c r="F215" s="7"/>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>764</v>
       </c>
@@ -11667,7 +11701,7 @@
       </c>
       <c r="F216" s="7"/>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>767</v>
       </c>
@@ -11685,7 +11719,7 @@
       </c>
       <c r="F217" s="7"/>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>770</v>
       </c>
@@ -11703,7 +11737,7 @@
       </c>
       <c r="F218" s="7"/>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>773</v>
       </c>
@@ -11721,7 +11755,7 @@
       </c>
       <c r="F219" s="7"/>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>776</v>
       </c>
@@ -11739,7 +11773,7 @@
       </c>
       <c r="F220" s="7"/>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>779</v>
       </c>
@@ -11757,7 +11791,7 @@
       </c>
       <c r="F221" s="7"/>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>782</v>
       </c>
@@ -11775,7 +11809,7 @@
       </c>
       <c r="F222" s="7"/>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>785</v>
       </c>
@@ -11793,7 +11827,7 @@
       </c>
       <c r="F223" s="7"/>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>788</v>
       </c>
@@ -11811,7 +11845,7 @@
       </c>
       <c r="F224" s="7"/>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>791</v>
       </c>
@@ -11829,7 +11863,7 @@
       </c>
       <c r="F225" s="7"/>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>794</v>
       </c>
@@ -11847,7 +11881,7 @@
       </c>
       <c r="F226" s="7"/>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>797</v>
       </c>
@@ -11865,7 +11899,7 @@
       </c>
       <c r="F227" s="7"/>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>800</v>
       </c>
@@ -11883,7 +11917,7 @@
       </c>
       <c r="F228" s="7"/>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>803</v>
       </c>
@@ -11901,7 +11935,7 @@
       </c>
       <c r="F229" s="7"/>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>806</v>
       </c>
@@ -11919,7 +11953,7 @@
       </c>
       <c r="F230" s="7"/>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>809</v>
       </c>
@@ -11937,7 +11971,7 @@
       </c>
       <c r="F231" s="7"/>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>812</v>
       </c>
@@ -11955,7 +11989,7 @@
       </c>
       <c r="F232" s="7"/>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>815</v>
       </c>
@@ -11973,7 +12007,7 @@
       </c>
       <c r="F233" s="7"/>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>818</v>
       </c>
@@ -11991,7 +12025,7 @@
       </c>
       <c r="F234" s="7"/>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>821</v>
       </c>
@@ -12009,7 +12043,7 @@
       </c>
       <c r="F235" s="7"/>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>824</v>
       </c>
@@ -12027,7 +12061,7 @@
       </c>
       <c r="F236" s="7"/>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>827</v>
       </c>
@@ -12045,7 +12079,7 @@
       </c>
       <c r="F237" s="7"/>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>830</v>
       </c>
@@ -12063,7 +12097,7 @@
       </c>
       <c r="F238" s="7"/>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>833</v>
       </c>
@@ -12081,7 +12115,7 @@
       </c>
       <c r="F239" s="7"/>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>836</v>
       </c>
@@ -12099,7 +12133,7 @@
       </c>
       <c r="F240" s="7"/>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>839</v>
       </c>
@@ -12117,7 +12151,7 @@
       </c>
       <c r="F241" s="7"/>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>842</v>
       </c>
@@ -12135,7 +12169,7 @@
       </c>
       <c r="F242" s="7"/>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>845</v>
       </c>
@@ -12153,7 +12187,7 @@
       </c>
       <c r="F243" s="7"/>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>848</v>
       </c>
@@ -12171,7 +12205,7 @@
       </c>
       <c r="F244" s="7"/>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>851</v>
       </c>
@@ -12189,7 +12223,7 @@
       </c>
       <c r="F245" s="7"/>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>854</v>
       </c>
@@ -12207,7 +12241,7 @@
       </c>
       <c r="F246" s="7"/>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>857</v>
       </c>
@@ -12225,7 +12259,7 @@
       </c>
       <c r="F247" s="7"/>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>860</v>
       </c>
@@ -12243,7 +12277,7 @@
       </c>
       <c r="F248" s="7"/>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>863</v>
       </c>
@@ -12261,7 +12295,7 @@
       </c>
       <c r="F249" s="7"/>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>866</v>
       </c>
@@ -12279,7 +12313,7 @@
       </c>
       <c r="F250" s="7"/>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>869</v>
       </c>
@@ -12297,7 +12331,7 @@
       </c>
       <c r="F251" s="7"/>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>872</v>
       </c>
@@ -12315,7 +12349,7 @@
       </c>
       <c r="F252" s="7"/>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>875</v>
       </c>
@@ -12333,7 +12367,7 @@
       </c>
       <c r="F253" s="7"/>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>878</v>
       </c>
@@ -12351,7 +12385,7 @@
       </c>
       <c r="F254" s="7"/>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>881</v>
       </c>
@@ -12369,7 +12403,7 @@
       </c>
       <c r="F255" s="7"/>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>884</v>
       </c>
@@ -12387,7 +12421,7 @@
       </c>
       <c r="F256" s="7"/>
     </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>887</v>
       </c>
@@ -12405,7 +12439,7 @@
       </c>
       <c r="F257" s="7"/>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>890</v>
       </c>
@@ -12423,7 +12457,7 @@
       </c>
       <c r="F258" s="7"/>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>893</v>
       </c>
@@ -12441,7 +12475,7 @@
       </c>
       <c r="F259" s="7"/>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>896</v>
       </c>
@@ -12459,7 +12493,7 @@
       </c>
       <c r="F260" s="7"/>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
         <v>899</v>
       </c>
@@ -12477,7 +12511,7 @@
       </c>
       <c r="F261" s="7"/>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
         <v>902</v>
       </c>
@@ -12495,7 +12529,7 @@
       </c>
       <c r="F262" s="7"/>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>905</v>
       </c>
@@ -12513,7 +12547,7 @@
       </c>
       <c r="F263" s="7"/>
     </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
         <v>908</v>
       </c>
@@ -12531,7 +12565,7 @@
       </c>
       <c r="F264" s="7"/>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>911</v>
       </c>
@@ -12549,7 +12583,7 @@
       </c>
       <c r="F265" s="7"/>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
         <v>914</v>
       </c>
@@ -12567,7 +12601,7 @@
       </c>
       <c r="F266" s="7"/>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>917</v>
       </c>
@@ -12585,7 +12619,7 @@
       </c>
       <c r="F267" s="7"/>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>920</v>
       </c>
@@ -12603,7 +12637,7 @@
       </c>
       <c r="F268" s="7"/>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>923</v>
       </c>
@@ -12621,7 +12655,7 @@
       </c>
       <c r="F269" s="7"/>
     </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>926</v>
       </c>
@@ -12639,7 +12673,7 @@
       </c>
       <c r="F270" s="7"/>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>929</v>
       </c>
@@ -12657,7 +12691,7 @@
       </c>
       <c r="F271" s="7"/>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>932</v>
       </c>
@@ -12675,7 +12709,7 @@
       </c>
       <c r="F272" s="7"/>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>935</v>
       </c>
@@ -12693,7 +12727,7 @@
       </c>
       <c r="F273" s="7"/>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>938</v>
       </c>
@@ -12711,7 +12745,7 @@
       </c>
       <c r="F274" s="7"/>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>941</v>
       </c>
@@ -12729,7 +12763,7 @@
       </c>
       <c r="F275" s="7"/>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>944</v>
       </c>
@@ -12747,7 +12781,7 @@
       </c>
       <c r="F276" s="7"/>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>947</v>
       </c>
@@ -12765,7 +12799,7 @@
       </c>
       <c r="F277" s="7"/>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>950</v>
       </c>
@@ -12783,7 +12817,7 @@
       </c>
       <c r="F278" s="7"/>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>953</v>
       </c>
@@ -12801,7 +12835,7 @@
       </c>
       <c r="F279" s="7"/>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>954</v>
       </c>
@@ -12819,7 +12853,7 @@
       </c>
       <c r="F280" s="7"/>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>957</v>
       </c>
@@ -12837,7 +12871,7 @@
       </c>
       <c r="F281" s="7"/>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>960</v>
       </c>
@@ -12855,7 +12889,7 @@
       </c>
       <c r="F282" s="7"/>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>963</v>
       </c>
@@ -12873,7 +12907,7 @@
       </c>
       <c r="F283" s="7"/>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>966</v>
       </c>
@@ -12891,7 +12925,7 @@
       </c>
       <c r="F284" s="7"/>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>969</v>
       </c>
@@ -12909,7 +12943,7 @@
       </c>
       <c r="F285" s="7"/>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>972</v>
       </c>
@@ -12927,7 +12961,7 @@
       </c>
       <c r="F286" s="7"/>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>975</v>
       </c>
@@ -12945,7 +12979,7 @@
       </c>
       <c r="F287" s="7"/>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>978</v>
       </c>
@@ -12963,7 +12997,7 @@
       </c>
       <c r="F288" s="7"/>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>981</v>
       </c>
@@ -12981,7 +13015,7 @@
       </c>
       <c r="F289" s="7"/>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
         <v>984</v>
       </c>
@@ -12999,7 +13033,7 @@
       </c>
       <c r="F290" s="7"/>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>987</v>
       </c>
@@ -13017,7 +13051,7 @@
       </c>
       <c r="F291" s="7"/>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>990</v>
       </c>
@@ -13035,7 +13069,7 @@
       </c>
       <c r="F292" s="7"/>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
         <v>993</v>
       </c>
@@ -13053,7 +13087,7 @@
       </c>
       <c r="F293" s="7"/>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>996</v>
       </c>
@@ -13071,7 +13105,7 @@
       </c>
       <c r="F294" s="7"/>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>999</v>
       </c>
@@ -13089,7 +13123,7 @@
       </c>
       <c r="F295" s="7"/>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>1002</v>
       </c>
@@ -13107,7 +13141,7 @@
       </c>
       <c r="F296" s="7"/>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>1005</v>
       </c>
@@ -13125,7 +13159,7 @@
       </c>
       <c r="F297" s="7"/>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
         <v>1008</v>
       </c>
@@ -13143,7 +13177,7 @@
       </c>
       <c r="F298" s="7"/>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
         <v>1011</v>
       </c>
@@ -13161,7 +13195,7 @@
       </c>
       <c r="F299" s="7"/>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
         <v>1014</v>
       </c>
@@ -13179,7 +13213,7 @@
       </c>
       <c r="F300" s="7"/>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
         <v>1017</v>
       </c>
@@ -13197,7 +13231,7 @@
       </c>
       <c r="F301" s="7"/>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
         <v>1020</v>
       </c>
@@ -13215,7 +13249,7 @@
       </c>
       <c r="F302" s="7"/>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
         <v>1023</v>
       </c>
@@ -13231,7 +13265,7 @@
       <c r="E303" s="7"/>
       <c r="F303" s="7"/>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>1025</v>
       </c>
@@ -13249,7 +13283,7 @@
       </c>
       <c r="F304" s="7"/>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>1028</v>
       </c>
@@ -13267,7 +13301,7 @@
       </c>
       <c r="F305" s="7"/>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
         <v>1031</v>
       </c>
@@ -13285,7 +13319,7 @@
       </c>
       <c r="F306" s="7"/>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
         <v>1034</v>
       </c>
@@ -13303,7 +13337,7 @@
       </c>
       <c r="F307" s="7"/>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
         <v>1037</v>
       </c>
@@ -13321,7 +13355,7 @@
       </c>
       <c r="F308" s="7"/>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>1040</v>
       </c>
@@ -13339,7 +13373,7 @@
       </c>
       <c r="F309" s="7"/>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
         <v>1043</v>
       </c>
@@ -13357,7 +13391,7 @@
       </c>
       <c r="F310" s="7"/>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
         <v>1046</v>
       </c>
@@ -13393,7 +13427,7 @@
       </c>
       <c r="F312" s="7"/>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
         <v>1052</v>
       </c>
@@ -13411,7 +13445,7 @@
       </c>
       <c r="F313" s="7"/>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
         <v>1055</v>
       </c>
@@ -13429,7 +13463,7 @@
       </c>
       <c r="F314" s="7"/>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
         <v>1058</v>
       </c>
@@ -13447,7 +13481,7 @@
       </c>
       <c r="F315" s="7"/>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
         <v>1061</v>
       </c>
@@ -13465,7 +13499,7 @@
       </c>
       <c r="F316" s="7"/>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
         <v>1064</v>
       </c>
@@ -13483,7 +13517,7 @@
       </c>
       <c r="F317" s="7"/>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
         <v>1067</v>
       </c>
@@ -13501,7 +13535,7 @@
       </c>
       <c r="F318" s="7"/>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
         <v>1070</v>
       </c>
@@ -13519,7 +13553,7 @@
       </c>
       <c r="F319" s="7"/>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
         <v>1073</v>
       </c>
@@ -13537,7 +13571,7 @@
       </c>
       <c r="F320" s="7"/>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
         <v>1076</v>
       </c>
@@ -13555,7 +13589,7 @@
       </c>
       <c r="F321" s="7"/>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
         <v>1079</v>
       </c>
@@ -13573,7 +13607,7 @@
       </c>
       <c r="F322" s="7"/>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
         <v>1082</v>
       </c>
@@ -13591,7 +13625,7 @@
       </c>
       <c r="F323" s="7"/>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
         <v>1085</v>
       </c>
@@ -13609,7 +13643,7 @@
       </c>
       <c r="F324" s="7"/>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
         <v>1088</v>
       </c>
@@ -13627,7 +13661,7 @@
       </c>
       <c r="F325" s="7"/>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
         <v>1091</v>
       </c>
@@ -13645,7 +13679,7 @@
       </c>
       <c r="F326" s="7"/>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
         <v>1094</v>
       </c>
@@ -13663,7 +13697,7 @@
       </c>
       <c r="F327" s="7"/>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
         <v>1097</v>
       </c>
@@ -13681,7 +13715,7 @@
       </c>
       <c r="F328" s="7"/>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
         <v>1100</v>
       </c>
@@ -13699,7 +13733,7 @@
       </c>
       <c r="F329" s="7"/>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="7" t="s">
         <v>1103</v>
       </c>
@@ -13717,7 +13751,7 @@
       </c>
       <c r="F330" s="7"/>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
         <v>1106</v>
       </c>
@@ -13735,7 +13769,7 @@
       </c>
       <c r="F331" s="7"/>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
         <v>1109</v>
       </c>
@@ -13753,7 +13787,7 @@
       </c>
       <c r="F332" s="7"/>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
         <v>1112</v>
       </c>
@@ -13771,7 +13805,7 @@
       </c>
       <c r="F333" s="7"/>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
         <v>1115</v>
       </c>
@@ -13789,7 +13823,7 @@
       </c>
       <c r="F334" s="7"/>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
         <v>1118</v>
       </c>
@@ -13807,7 +13841,7 @@
       </c>
       <c r="F335" s="7"/>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="7" t="s">
         <v>1121</v>
       </c>
@@ -13825,7 +13859,7 @@
       </c>
       <c r="F336" s="7"/>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
         <v>1124</v>
       </c>
@@ -13843,7 +13877,7 @@
       </c>
       <c r="F337" s="7"/>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="7" t="s">
         <v>1127</v>
       </c>
@@ -13861,7 +13895,7 @@
       </c>
       <c r="F338" s="7"/>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
         <v>1130</v>
       </c>
@@ -13879,7 +13913,7 @@
       </c>
       <c r="F339" s="7"/>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
         <v>1133</v>
       </c>
@@ -13897,7 +13931,7 @@
       </c>
       <c r="F340" s="7"/>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
         <v>1136</v>
       </c>
@@ -13915,7 +13949,7 @@
       </c>
       <c r="F341" s="7"/>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
         <v>1139</v>
       </c>
@@ -13933,7 +13967,7 @@
       </c>
       <c r="F342" s="7"/>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
         <v>1142</v>
       </c>
@@ -13951,7 +13985,7 @@
       </c>
       <c r="F343" s="7"/>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
         <v>1145</v>
       </c>
@@ -13969,7 +14003,7 @@
       </c>
       <c r="F344" s="7"/>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
         <v>1148</v>
       </c>
@@ -13987,7 +14021,7 @@
       </c>
       <c r="F345" s="7"/>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="7" t="s">
         <v>1151</v>
       </c>
@@ -14005,7 +14039,7 @@
       </c>
       <c r="F346" s="7"/>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
         <v>1154</v>
       </c>
@@ -14023,7 +14057,7 @@
       </c>
       <c r="F347" s="7"/>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
         <v>1157</v>
       </c>
@@ -14041,7 +14075,7 @@
       </c>
       <c r="F348" s="7"/>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
         <v>1160</v>
       </c>
@@ -14059,7 +14093,7 @@
       </c>
       <c r="F349" s="7"/>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
         <v>1162</v>
       </c>
@@ -14077,7 +14111,7 @@
       </c>
       <c r="F350" s="7"/>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
         <v>1165</v>
       </c>
@@ -14095,7 +14129,7 @@
       </c>
       <c r="F351" s="7"/>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="7" t="s">
         <v>1167</v>
       </c>
@@ -14111,7 +14145,7 @@
       <c r="E352" s="7"/>
       <c r="F352" s="7"/>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
         <v>1169</v>
       </c>
@@ -14129,7 +14163,7 @@
       </c>
       <c r="F353" s="7"/>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="7" t="s">
         <v>1172</v>
       </c>
@@ -14147,7 +14181,7 @@
       </c>
       <c r="F354" s="7"/>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
         <v>1175</v>
       </c>
@@ -14165,7 +14199,7 @@
       </c>
       <c r="F355" s="7"/>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="7" t="s">
         <v>1178</v>
       </c>
@@ -14183,7 +14217,7 @@
       </c>
       <c r="F356" s="7"/>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
         <v>1181</v>
       </c>
@@ -14201,7 +14235,7 @@
       </c>
       <c r="F357" s="7"/>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="7" t="s">
         <v>1184</v>
       </c>
@@ -14219,7 +14253,7 @@
       </c>
       <c r="F358" s="7"/>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="7" t="s">
         <v>1187</v>
       </c>
@@ -14237,7 +14271,7 @@
       </c>
       <c r="F359" s="7"/>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="7" t="s">
         <v>1190</v>
       </c>
@@ -14255,7 +14289,7 @@
       </c>
       <c r="F360" s="7"/>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
         <v>1193</v>
       </c>
@@ -14273,7 +14307,7 @@
       </c>
       <c r="F361" s="7"/>
     </row>
-    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="7" t="s">
         <v>1196</v>
       </c>
@@ -14291,7 +14325,7 @@
       </c>
       <c r="F362" s="7"/>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
         <v>1199</v>
       </c>
@@ -14309,7 +14343,7 @@
       </c>
       <c r="F363" s="7"/>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="7" t="s">
         <v>1202</v>
       </c>
@@ -14327,7 +14361,7 @@
       </c>
       <c r="F364" s="7"/>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
         <v>1205</v>
       </c>
@@ -14345,7 +14379,7 @@
       </c>
       <c r="F365" s="7"/>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
         <v>1208</v>
       </c>
@@ -14363,7 +14397,7 @@
       </c>
       <c r="F366" s="7"/>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
         <v>1211</v>
       </c>
@@ -14381,7 +14415,7 @@
       </c>
       <c r="F367" s="7"/>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
         <v>1214</v>
       </c>
@@ -14399,7 +14433,7 @@
       </c>
       <c r="F368" s="7"/>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
         <v>1217</v>
       </c>
@@ -14417,7 +14451,7 @@
       </c>
       <c r="F369" s="7"/>
     </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
         <v>1220</v>
       </c>
@@ -14435,7 +14469,7 @@
       </c>
       <c r="F370" s="7"/>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
         <v>1223</v>
       </c>
@@ -14451,7 +14485,7 @@
       <c r="E371" s="7"/>
       <c r="F371" s="7"/>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
         <v>1225</v>
       </c>
@@ -14469,7 +14503,7 @@
       </c>
       <c r="F372" s="7"/>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="7" t="s">
         <v>1228</v>
       </c>
@@ -14487,7 +14521,7 @@
       </c>
       <c r="F373" s="7"/>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="7" t="s">
         <v>1231</v>
       </c>
@@ -14505,7 +14539,7 @@
       </c>
       <c r="F374" s="7"/>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
         <v>1234</v>
       </c>
@@ -14523,7 +14557,7 @@
       </c>
       <c r="F375" s="7"/>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
         <v>1237</v>
       </c>
@@ -14541,7 +14575,7 @@
       </c>
       <c r="F376" s="7"/>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
         <v>1240</v>
       </c>
@@ -14559,7 +14593,7 @@
       </c>
       <c r="F377" s="7"/>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="7" t="s">
         <v>1243</v>
       </c>
@@ -14577,7 +14611,7 @@
       </c>
       <c r="F378" s="7"/>
     </row>
-    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="7" t="s">
         <v>1246</v>
       </c>
@@ -14595,7 +14629,7 @@
       </c>
       <c r="F379" s="7"/>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="7" t="s">
         <v>1249</v>
       </c>
@@ -14613,7 +14647,7 @@
       </c>
       <c r="F380" s="7"/>
     </row>
-    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="7" t="s">
         <v>1252</v>
       </c>
@@ -14631,7 +14665,7 @@
       </c>
       <c r="F381" s="7"/>
     </row>
-    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="7" t="s">
         <v>1255</v>
       </c>
@@ -14649,7 +14683,7 @@
       </c>
       <c r="F382" s="7"/>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="7" t="s">
         <v>1258</v>
       </c>
@@ -14667,7 +14701,7 @@
       </c>
       <c r="F383" s="7"/>
     </row>
-    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="7" t="s">
         <v>1261</v>
       </c>
@@ -14685,7 +14719,7 @@
       </c>
       <c r="F384" s="7"/>
     </row>
-    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="7" t="s">
         <v>1264</v>
       </c>
@@ -14703,7 +14737,7 @@
       </c>
       <c r="F385" s="7"/>
     </row>
-    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="7" t="s">
         <v>1267</v>
       </c>
@@ -14721,7 +14755,7 @@
       </c>
       <c r="F386" s="7"/>
     </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="7" t="s">
         <v>1270</v>
       </c>
@@ -14739,7 +14773,7 @@
       </c>
       <c r="F387" s="7"/>
     </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="7" t="s">
         <v>1273</v>
       </c>
@@ -14757,7 +14791,7 @@
       </c>
       <c r="F388" s="7"/>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
         <v>1276</v>
       </c>
@@ -14775,7 +14809,7 @@
       </c>
       <c r="F389" s="7"/>
     </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="7" t="s">
         <v>1279</v>
       </c>
@@ -14793,7 +14827,7 @@
       </c>
       <c r="F390" s="7"/>
     </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="7" t="s">
         <v>1282</v>
       </c>
@@ -14811,7 +14845,7 @@
       </c>
       <c r="F391" s="7"/>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="7" t="s">
         <v>1285</v>
       </c>
@@ -14829,7 +14863,7 @@
       </c>
       <c r="F392" s="7"/>
     </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="7" t="s">
         <v>1288</v>
       </c>
@@ -14847,7 +14881,7 @@
       </c>
       <c r="F393" s="7"/>
     </row>
-    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="7" t="s">
         <v>1291</v>
       </c>
@@ -14865,7 +14899,7 @@
       </c>
       <c r="F394" s="7"/>
     </row>
-    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
         <v>1294</v>
       </c>
@@ -14883,7 +14917,7 @@
       </c>
       <c r="F395" s="7"/>
     </row>
-    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="7" t="s">
         <v>1297</v>
       </c>
@@ -14901,7 +14935,7 @@
       </c>
       <c r="F396" s="7"/>
     </row>
-    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="7" t="s">
         <v>1300</v>
       </c>
@@ -14919,7 +14953,7 @@
       </c>
       <c r="F397" s="7"/>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="7" t="s">
         <v>1303</v>
       </c>
@@ -14937,7 +14971,7 @@
       </c>
       <c r="F398" s="7"/>
     </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="7" t="s">
         <v>1306</v>
       </c>
@@ -14955,7 +14989,7 @@
       </c>
       <c r="F399" s="7"/>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="7" t="s">
         <v>1309</v>
       </c>
@@ -14973,7 +15007,7 @@
       </c>
       <c r="F400" s="7"/>
     </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="7" t="s">
         <v>1312</v>
       </c>
@@ -14991,7 +15025,7 @@
       </c>
       <c r="F401" s="7"/>
     </row>
-    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
         <v>1315</v>
       </c>
@@ -15009,7 +15043,7 @@
       </c>
       <c r="F402" s="7"/>
     </row>
-    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="7" t="s">
         <v>1318</v>
       </c>
@@ -15027,7 +15061,7 @@
       </c>
       <c r="F403" s="7"/>
     </row>
-    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
         <v>1321</v>
       </c>
@@ -15045,7 +15079,7 @@
       </c>
       <c r="F404" s="7"/>
     </row>
-    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
         <v>1324</v>
       </c>
@@ -15063,7 +15097,7 @@
       </c>
       <c r="F405" s="7"/>
     </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="7" t="s">
         <v>1327</v>
       </c>
@@ -15081,7 +15115,7 @@
       </c>
       <c r="F406" s="7"/>
     </row>
-    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="7" t="s">
         <v>1330</v>
       </c>
@@ -15099,7 +15133,7 @@
       </c>
       <c r="F407" s="7"/>
     </row>
-    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="7" t="s">
         <v>1333</v>
       </c>
@@ -15117,7 +15151,7 @@
       </c>
       <c r="F408" s="7"/>
     </row>
-    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="7" t="s">
         <v>1336</v>
       </c>
@@ -15135,7 +15169,7 @@
       </c>
       <c r="F409" s="7"/>
     </row>
-    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
         <v>1339</v>
       </c>
@@ -15153,7 +15187,7 @@
       </c>
       <c r="F410" s="7"/>
     </row>
-    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
         <v>1342</v>
       </c>
@@ -15171,7 +15205,7 @@
       </c>
       <c r="F411" s="7"/>
     </row>
-    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
         <v>1345</v>
       </c>
@@ -15189,7 +15223,7 @@
       </c>
       <c r="F412" s="7"/>
     </row>
-    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="7" t="s">
         <v>1348</v>
       </c>
@@ -15207,7 +15241,7 @@
       </c>
       <c r="F413" s="7"/>
     </row>
-    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="7" t="s">
         <v>1351</v>
       </c>
@@ -15225,7 +15259,7 @@
       </c>
       <c r="F414" s="7"/>
     </row>
-    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="7" t="s">
         <v>1354</v>
       </c>
@@ -15243,7 +15277,7 @@
       </c>
       <c r="F415" s="7"/>
     </row>
-    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="7" t="s">
         <v>1357</v>
       </c>
@@ -15261,7 +15295,7 @@
       </c>
       <c r="F416" s="7"/>
     </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
         <v>1359</v>
       </c>
@@ -15279,7 +15313,7 @@
       </c>
       <c r="F417" s="7"/>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="7" t="s">
         <v>1362</v>
       </c>
@@ -15297,7 +15331,7 @@
       </c>
       <c r="F418" s="7"/>
     </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="7" t="s">
         <v>1365</v>
       </c>
@@ -15315,7 +15349,7 @@
       </c>
       <c r="F419" s="7"/>
     </row>
-    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="7" t="s">
         <v>1368</v>
       </c>
@@ -15333,7 +15367,7 @@
       </c>
       <c r="F420" s="7"/>
     </row>
-    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="7" t="s">
         <v>1371</v>
       </c>
@@ -15351,7 +15385,7 @@
       </c>
       <c r="F421" s="7"/>
     </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="7" t="s">
         <v>1374</v>
       </c>
@@ -15369,7 +15403,7 @@
       </c>
       <c r="F422" s="7"/>
     </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="7" t="s">
         <v>1377</v>
       </c>
@@ -15387,7 +15421,7 @@
       </c>
       <c r="F423" s="7"/>
     </row>
-    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="7" t="s">
         <v>1380</v>
       </c>
@@ -15405,7 +15439,7 @@
       </c>
       <c r="F424" s="7"/>
     </row>
-    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="7" t="s">
         <v>1383</v>
       </c>
@@ -15423,7 +15457,7 @@
       </c>
       <c r="F425" s="7"/>
     </row>
-    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="7" t="s">
         <v>1386</v>
       </c>
@@ -15441,7 +15475,7 @@
       </c>
       <c r="F426" s="7"/>
     </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="7" t="s">
         <v>1389</v>
       </c>
@@ -15459,7 +15493,7 @@
       </c>
       <c r="F427" s="7"/>
     </row>
-    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="7" t="s">
         <v>1392</v>
       </c>
@@ -15477,7 +15511,7 @@
       </c>
       <c r="F428" s="7"/>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="7" t="s">
         <v>1395</v>
       </c>
@@ -15495,7 +15529,7 @@
       </c>
       <c r="F429" s="7"/>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="7" t="s">
         <v>1398</v>
       </c>
@@ -15513,7 +15547,7 @@
       </c>
       <c r="F430" s="7"/>
     </row>
-    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="7" t="s">
         <v>1401</v>
       </c>
@@ -15531,7 +15565,7 @@
       </c>
       <c r="F431" s="7"/>
     </row>
-    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="7" t="s">
         <v>1404</v>
       </c>
@@ -15549,7 +15583,7 @@
       </c>
       <c r="F432" s="7"/>
     </row>
-    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="7" t="s">
         <v>1407</v>
       </c>
@@ -15567,7 +15601,7 @@
       </c>
       <c r="F433" s="7"/>
     </row>
-    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="7" t="s">
         <v>1410</v>
       </c>
@@ -15585,7 +15619,7 @@
       </c>
       <c r="F434" s="7"/>
     </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="7" t="s">
         <v>1413</v>
       </c>
@@ -15603,7 +15637,7 @@
       </c>
       <c r="F435" s="7"/>
     </row>
-    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="7" t="s">
         <v>1416</v>
       </c>
@@ -15621,7 +15655,7 @@
       </c>
       <c r="F436" s="7"/>
     </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="7" t="s">
         <v>1419</v>
       </c>
@@ -15639,7 +15673,7 @@
       </c>
       <c r="F437" s="7"/>
     </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="7" t="s">
         <v>1422</v>
       </c>
@@ -15657,7 +15691,7 @@
       </c>
       <c r="F438" s="7"/>
     </row>
-    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="7" t="s">
         <v>1425</v>
       </c>
@@ -15675,7 +15709,7 @@
       </c>
       <c r="F439" s="7"/>
     </row>
-    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="7" t="s">
         <v>1428</v>
       </c>
@@ -15693,7 +15727,7 @@
       </c>
       <c r="F440" s="7"/>
     </row>
-    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="7" t="s">
         <v>1431</v>
       </c>
@@ -15711,7 +15745,7 @@
       </c>
       <c r="F441" s="7"/>
     </row>
-    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="7" t="s">
         <v>1434</v>
       </c>
@@ -15729,7 +15763,7 @@
       </c>
       <c r="F442" s="7"/>
     </row>
-    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="7" t="s">
         <v>1437</v>
       </c>
@@ -15747,7 +15781,7 @@
       </c>
       <c r="F443" s="7"/>
     </row>
-    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="7" t="s">
         <v>1440</v>
       </c>
@@ -15765,7 +15799,7 @@
       </c>
       <c r="F444" s="7"/>
     </row>
-    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="7" t="s">
         <v>1443</v>
       </c>
@@ -15783,7 +15817,7 @@
       </c>
       <c r="F445" s="7"/>
     </row>
-    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="7" t="s">
         <v>1446</v>
       </c>
@@ -15801,7 +15835,7 @@
       </c>
       <c r="F446" s="7"/>
     </row>
-    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="7" t="s">
         <v>1449</v>
       </c>
@@ -15819,7 +15853,7 @@
       </c>
       <c r="F447" s="7"/>
     </row>
-    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="7" t="s">
         <v>1452</v>
       </c>
@@ -15837,7 +15871,7 @@
       </c>
       <c r="F448" s="7"/>
     </row>
-    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="7" t="s">
         <v>1455</v>
       </c>
@@ -15855,7 +15889,7 @@
       </c>
       <c r="F449" s="7"/>
     </row>
-    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="7" t="s">
         <v>1458</v>
       </c>
@@ -15873,7 +15907,7 @@
       </c>
       <c r="F450" s="7"/>
     </row>
-    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="7" t="s">
         <v>1461</v>
       </c>
@@ -15891,7 +15925,7 @@
       </c>
       <c r="F451" s="7"/>
     </row>
-    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="7" t="s">
         <v>1464</v>
       </c>
@@ -15909,7 +15943,7 @@
       </c>
       <c r="F452" s="7"/>
     </row>
-    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="7" t="s">
         <v>1467</v>
       </c>
@@ -15927,7 +15961,7 @@
       </c>
       <c r="F453" s="7"/>
     </row>
-    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="7" t="s">
         <v>1470</v>
       </c>
@@ -15945,7 +15979,7 @@
       </c>
       <c r="F454" s="7"/>
     </row>
-    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="7" t="s">
         <v>1473</v>
       </c>
@@ -15963,7 +15997,7 @@
       </c>
       <c r="F455" s="7"/>
     </row>
-    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="7" t="s">
         <v>1476</v>
       </c>
@@ -15981,7 +16015,7 @@
       </c>
       <c r="F456" s="7"/>
     </row>
-    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="7" t="s">
         <v>1478</v>
       </c>
@@ -15999,7 +16033,7 @@
       </c>
       <c r="F457" s="7"/>
     </row>
-    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="7" t="s">
         <v>1481</v>
       </c>
@@ -16017,7 +16051,7 @@
       </c>
       <c r="F458" s="7"/>
     </row>
-    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="7" t="s">
         <v>1483</v>
       </c>
@@ -16035,7 +16069,7 @@
       </c>
       <c r="F459" s="7"/>
     </row>
-    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="7" t="s">
         <v>1486</v>
       </c>
@@ -16053,7 +16087,7 @@
       </c>
       <c r="F460" s="7"/>
     </row>
-    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="7" t="s">
         <v>1489</v>
       </c>
@@ -16071,7 +16105,7 @@
       </c>
       <c r="F461" s="7"/>
     </row>
-    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="7" t="s">
         <v>1492</v>
       </c>
@@ -16089,7 +16123,7 @@
       </c>
       <c r="F462" s="7"/>
     </row>
-    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="7" t="s">
         <v>1495</v>
       </c>
@@ -16107,7 +16141,7 @@
       </c>
       <c r="F463" s="7"/>
     </row>
-    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="7" t="s">
         <v>1498</v>
       </c>
@@ -16125,7 +16159,7 @@
       </c>
       <c r="F464" s="7"/>
     </row>
-    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="7" t="s">
         <v>1501</v>
       </c>
@@ -16143,7 +16177,7 @@
       </c>
       <c r="F465" s="7"/>
     </row>
-    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="7" t="s">
         <v>1504</v>
       </c>
@@ -16161,7 +16195,7 @@
       </c>
       <c r="F466" s="7"/>
     </row>
-    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="7" t="s">
         <v>1507</v>
       </c>
@@ -18375,7 +18409,7 @@
       </c>
       <c r="F589" s="7"/>
     </row>
-    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" s="7" t="s">
         <v>1871</v>
       </c>
@@ -18391,7 +18425,7 @@
       </c>
       <c r="F590" s="7"/>
     </row>
-    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" s="7" t="s">
         <v>1874</v>
       </c>
@@ -18407,7 +18441,7 @@
       </c>
       <c r="F591" s="7"/>
     </row>
-    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" s="7" t="s">
         <v>1877</v>
       </c>
@@ -18423,7 +18457,7 @@
       </c>
       <c r="F592" s="7"/>
     </row>
-    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" s="7" t="s">
         <v>1880</v>
       </c>
@@ -18439,7 +18473,7 @@
       </c>
       <c r="F593" s="7"/>
     </row>
-    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" s="7" t="s">
         <v>1883</v>
       </c>
@@ -18455,7 +18489,7 @@
       </c>
       <c r="F594" s="7"/>
     </row>
-    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" s="7" t="s">
         <v>1886</v>
       </c>
@@ -18471,7 +18505,7 @@
       </c>
       <c r="F595" s="7"/>
     </row>
-    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" s="7" t="s">
         <v>1889</v>
       </c>
@@ -18487,7 +18521,7 @@
       </c>
       <c r="F596" s="7"/>
     </row>
-    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" s="7" t="s">
         <v>1892</v>
       </c>
@@ -18503,7 +18537,7 @@
       </c>
       <c r="F597" s="7"/>
     </row>
-    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" s="7" t="s">
         <v>1895</v>
       </c>
@@ -18519,7 +18553,7 @@
       </c>
       <c r="F598" s="7"/>
     </row>
-    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" s="7" t="s">
         <v>1898</v>
       </c>
@@ -18535,7 +18569,7 @@
       </c>
       <c r="F599" s="7"/>
     </row>
-    <row r="600" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" s="7" t="s">
         <v>1901</v>
       </c>
@@ -18551,7 +18585,7 @@
       </c>
       <c r="F600" s="7"/>
     </row>
-    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" s="7" t="s">
         <v>1904</v>
       </c>
@@ -18567,7 +18601,7 @@
       </c>
       <c r="F601" s="7"/>
     </row>
-    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" s="7" t="s">
         <v>1906</v>
       </c>
@@ -18583,7 +18617,7 @@
       </c>
       <c r="F602" s="7"/>
     </row>
-    <row r="603" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" s="7" t="s">
         <v>1909</v>
       </c>
@@ -18599,7 +18633,7 @@
       </c>
       <c r="F603" s="7"/>
     </row>
-    <row r="604" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" s="7" t="s">
         <v>1912</v>
       </c>
@@ -18615,7 +18649,7 @@
       </c>
       <c r="F604" s="7"/>
     </row>
-    <row r="605" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" s="7" t="s">
         <v>1915</v>
       </c>
@@ -18631,7 +18665,7 @@
       </c>
       <c r="F605" s="7"/>
     </row>
-    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" s="7" t="s">
         <v>1918</v>
       </c>
@@ -18647,7 +18681,7 @@
       </c>
       <c r="F606" s="7"/>
     </row>
-    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" s="7" t="s">
         <v>1921</v>
       </c>
@@ -18663,7 +18697,7 @@
       </c>
       <c r="F607" s="7"/>
     </row>
-    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" s="7" t="s">
         <v>1924</v>
       </c>
@@ -18679,7 +18713,7 @@
       </c>
       <c r="F608" s="7"/>
     </row>
-    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="7" t="s">
         <v>1927</v>
       </c>
@@ -18695,7 +18729,7 @@
       </c>
       <c r="F609" s="7"/>
     </row>
-    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="7" t="s">
         <v>1930</v>
       </c>
@@ -18714,8 +18748,9 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -18724,15 +18759,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE995B6E-F8E3-4919-A9E0-E67EE815BFB7}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19486,7 +19521,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F600F5F0-E3F4-4CD1-B823-B0373889BA6B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AAF0A29-3F52-4C58-8342-2E5A45F6CD49}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/nomenclature_parser/in/Nomenclatures EMSI RESOURCE.xlsx
+++ b/nomenclature_parser/in/Nomenclatures EMSI RESOURCE.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1197" documentId="8_{4FA08952-AD8A-4EC5-BA39-9F1D18567017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{041DE4A5-FAD7-4ACF-A48F-261D3586C397}"/>
+  <xr:revisionPtr revIDLastSave="1198" documentId="8_{4FA08952-AD8A-4EC5-BA39-9F1D18567017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DE8F1C0-786A-428A-81D4-2B3C3155A5AA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E3A59C1D-DF4F-40E3-A908-700669E2F1F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E3A59C1D-DF4F-40E3-A908-700669E2F1F4}"/>
   </bookViews>
   <sheets>
     <sheet name="RESOURCE.UM" sheetId="6" r:id="rId1"/>
-    <sheet name="RESOURCE.RTYPE.CLASS" sheetId="3" r:id="rId2"/>
+    <sheet name="RESOURCE.RTYPE.RCLASS" sheetId="3" r:id="rId2"/>
     <sheet name="RESOURCE.RTYPE.CAPABILITY" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -5966,7 +5966,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6009,12 +6009,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -7901,8 +7895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CB9E0D-B8DC-4CCE-8710-BDDD2261629F}">
   <dimension ref="A1:F610"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18759,7 +18753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE995B6E-F8E3-4919-A9E0-E67EE815BFB7}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -19046,6 +19040,67 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="b3317a165cd10de70dc68851db9884d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b8430278eece82d06f551ff77398a68" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19459,93 +19514,48 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f8b6baa267c0456bbf6a8d18c49a130b>
-    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
-    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p671c8df16a44846939d278d4958f62c>
-    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b2804ef99be44b9e8166e80a6c2eb9f1>
-    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mc4aa6e782e045f6bb87dab01c971b56>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m312bc62cb0243b6a873cbbf4dace6b2>
-    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b084a4cb34a444d7969136255594d2f3>
-    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g30fb2d8061a4d40b63138f91c1a832e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m9a76db3058146ae844db6599c9d7036>
-    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l0a6b4600f484920bbceae0813174244>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AAF0A29-3F52-4C58-8342-2E5A45F6CD49}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98F885D4-EF3D-4686-B5F6-1FDD2BF41E71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A3BBB1E-C9DF-4117-9187-A8DD65EB643C}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98F885D4-EF3D-4686-B5F6-1FDD2BF41E71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AAF0A29-3F52-4C58-8342-2E5A45F6CD49}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/nomenclature_parser/in/Nomenclatures EMSI RESOURCE.xlsx
+++ b/nomenclature_parser/in/Nomenclatures EMSI RESOURCE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1198" documentId="8_{4FA08952-AD8A-4EC5-BA39-9F1D18567017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DE8F1C0-786A-428A-81D4-2B3C3155A5AA}"/>
+  <xr:revisionPtr revIDLastSave="1199" documentId="8_{4FA08952-AD8A-4EC5-BA39-9F1D18567017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC0C16AC-E0BE-2D44-9F16-A840D6875D8C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E3A59C1D-DF4F-40E3-A908-700669E2F1F4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E3A59C1D-DF4F-40E3-A908-700669E2F1F4}"/>
   </bookViews>
   <sheets>
     <sheet name="RESOURCE.UM" sheetId="6" r:id="rId1"/>
@@ -45,9 +45,9 @@
   <commentList>
     <comment ref="A520" authorId="0" shapeId="0" xr:uid="{A1A63B83-8E84-4021-B9EA-CDD31A45BF58}">
       <text>
-        <t>[Commentaire à thread]
-Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
-Commentaire :
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     VSAV</t>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="1968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="1969">
   <si>
     <t>Référentiel nomenclature</t>
   </si>
@@ -5960,6 +5960,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Cette capacité s'applique à un véhicule ou à une remorque. Elle indique que le véhicule est destiné à être utilisé uniquement sur des routes (pas en tout-terrain).</t>
+  </si>
+  <si>
+    <t>FAC/OPR/HSPFLD2</t>
   </si>
 </sst>
 </file>
@@ -6079,7 +6082,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="60 % - Accent5" xfId="1" builtinId="48"/>
+    <cellStyle name="60% - Accent5" xfId="1" builtinId="48"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
@@ -6739,9 +6742,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6779,7 +6782,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6885,7 +6888,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7027,7 +7030,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7049,16 +7052,16 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7067,7 +7070,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7076,7 +7079,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -7085,7 +7088,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -7094,7 +7097,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -7103,14 +7106,14 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -7119,14 +7122,14 @@
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -7143,7 +7146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -7156,7 +7159,7 @@
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
@@ -7169,7 +7172,7 @@
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
@@ -7182,7 +7185,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -7195,7 +7198,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
@@ -7208,7 +7211,7 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
@@ -7223,7 +7226,7 @@
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
@@ -7238,7 +7241,7 @@
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -7253,7 +7256,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -7268,7 +7271,7 @@
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>39</v>
       </c>
@@ -7283,7 +7286,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>41</v>
       </c>
@@ -7298,7 +7301,7 @@
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>44</v>
       </c>
@@ -7313,7 +7316,7 @@
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>47</v>
       </c>
@@ -7328,7 +7331,7 @@
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
@@ -7343,7 +7346,7 @@
       </c>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
@@ -7358,7 +7361,7 @@
       </c>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>55</v>
       </c>
@@ -7373,7 +7376,7 @@
       </c>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>58</v>
       </c>
@@ -7388,7 +7391,7 @@
       </c>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>61</v>
       </c>
@@ -7403,7 +7406,7 @@
       </c>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>63</v>
       </c>
@@ -7418,7 +7421,7 @@
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>65</v>
       </c>
@@ -7433,7 +7436,7 @@
       </c>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>68</v>
       </c>
@@ -7448,7 +7451,7 @@
       </c>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>70</v>
       </c>
@@ -7463,7 +7466,7 @@
       </c>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>73</v>
       </c>
@@ -7478,7 +7481,7 @@
       </c>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>76</v>
       </c>
@@ -7493,7 +7496,7 @@
       </c>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>79</v>
       </c>
@@ -7508,7 +7511,7 @@
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>82</v>
       </c>
@@ -7523,7 +7526,7 @@
       </c>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>85</v>
       </c>
@@ -7538,7 +7541,7 @@
       </c>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>88</v>
       </c>
@@ -7553,7 +7556,7 @@
       </c>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>91</v>
       </c>
@@ -7568,7 +7571,7 @@
       </c>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>94</v>
       </c>
@@ -7583,7 +7586,7 @@
       </c>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>97</v>
       </c>
@@ -7598,7 +7601,7 @@
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>100</v>
       </c>
@@ -7613,7 +7616,7 @@
       </c>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>103</v>
       </c>
@@ -7628,7 +7631,7 @@
       </c>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>106</v>
       </c>
@@ -7643,7 +7646,7 @@
       </c>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>108</v>
       </c>
@@ -7658,7 +7661,7 @@
       </c>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>111</v>
       </c>
@@ -7673,7 +7676,7 @@
       </c>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>114</v>
       </c>
@@ -7688,7 +7691,7 @@
       </c>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>117</v>
       </c>
@@ -7703,7 +7706,7 @@
       </c>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>120</v>
       </c>
@@ -7718,7 +7721,7 @@
       </c>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>123</v>
       </c>
@@ -7733,7 +7736,7 @@
       </c>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>126</v>
       </c>
@@ -7748,7 +7751,7 @@
       </c>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>129</v>
       </c>
@@ -7763,7 +7766,7 @@
       </c>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>132</v>
       </c>
@@ -7778,7 +7781,7 @@
       </c>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>135</v>
       </c>
@@ -7793,7 +7796,7 @@
       </c>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>137</v>
       </c>
@@ -7808,7 +7811,7 @@
       </c>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>140</v>
       </c>
@@ -7823,7 +7826,7 @@
       </c>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>143</v>
       </c>
@@ -7838,7 +7841,7 @@
       </c>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>145</v>
       </c>
@@ -7853,7 +7856,7 @@
       </c>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>148</v>
       </c>
@@ -7868,7 +7871,7 @@
       </c>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>151</v>
       </c>
@@ -7895,21 +7898,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CB9E0D-B8DC-4CCE-8710-BDDD2261629F}">
   <dimension ref="A1:F610"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="90.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="90.83203125" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7919,7 +7922,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7929,7 +7932,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -7939,7 +7942,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -7949,7 +7952,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -7959,7 +7962,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -7967,7 +7970,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -7977,7 +7980,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -7985,7 +7988,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -8005,7 +8008,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>157</v>
       </c>
@@ -8019,7 +8022,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>160</v>
       </c>
@@ -8033,7 +8036,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>163</v>
       </c>
@@ -8047,7 +8050,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>166</v>
       </c>
@@ -8061,7 +8064,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>169</v>
       </c>
@@ -8077,7 +8080,7 @@
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>172</v>
       </c>
@@ -8093,7 +8096,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>175</v>
       </c>
@@ -8109,7 +8112,7 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>178</v>
       </c>
@@ -8125,7 +8128,7 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>181</v>
       </c>
@@ -8141,7 +8144,7 @@
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>184</v>
       </c>
@@ -8157,7 +8160,7 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>187</v>
       </c>
@@ -8173,7 +8176,7 @@
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>190</v>
       </c>
@@ -8191,7 +8194,7 @@
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>193</v>
       </c>
@@ -8209,7 +8212,7 @@
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>196</v>
       </c>
@@ -8227,7 +8230,7 @@
       </c>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>199</v>
       </c>
@@ -8245,7 +8248,7 @@
       </c>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>202</v>
       </c>
@@ -8263,7 +8266,7 @@
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>205</v>
       </c>
@@ -8281,7 +8284,7 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>208</v>
       </c>
@@ -8299,7 +8302,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>211</v>
       </c>
@@ -8317,7 +8320,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>214</v>
       </c>
@@ -8335,7 +8338,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>217</v>
       </c>
@@ -8353,7 +8356,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>220</v>
       </c>
@@ -8371,7 +8374,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>223</v>
       </c>
@@ -8389,7 +8392,7 @@
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>226</v>
       </c>
@@ -8407,7 +8410,7 @@
       </c>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>229</v>
       </c>
@@ -8425,7 +8428,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>231</v>
       </c>
@@ -8443,7 +8446,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>234</v>
       </c>
@@ -8461,7 +8464,7 @@
       </c>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>237</v>
       </c>
@@ -8479,7 +8482,7 @@
       </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>240</v>
       </c>
@@ -8497,7 +8500,7 @@
       </c>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>243</v>
       </c>
@@ -8515,7 +8518,7 @@
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>246</v>
       </c>
@@ -8533,7 +8536,7 @@
       </c>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>249</v>
       </c>
@@ -8551,7 +8554,7 @@
       </c>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>252</v>
       </c>
@@ -8569,7 +8572,7 @@
       </c>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>255</v>
       </c>
@@ -8587,7 +8590,7 @@
       </c>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>258</v>
       </c>
@@ -8605,7 +8608,7 @@
       </c>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>261</v>
       </c>
@@ -8623,7 +8626,7 @@
       </c>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>264</v>
       </c>
@@ -8641,7 +8644,7 @@
       </c>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>267</v>
       </c>
@@ -8659,7 +8662,7 @@
       </c>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>270</v>
       </c>
@@ -8677,7 +8680,7 @@
       </c>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>273</v>
       </c>
@@ -8695,7 +8698,7 @@
       </c>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>276</v>
       </c>
@@ -8713,7 +8716,7 @@
       </c>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>279</v>
       </c>
@@ -8731,7 +8734,7 @@
       </c>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>282</v>
       </c>
@@ -8749,7 +8752,7 @@
       </c>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>285</v>
       </c>
@@ -8767,7 +8770,7 @@
       </c>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>288</v>
       </c>
@@ -8785,7 +8788,7 @@
       </c>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>291</v>
       </c>
@@ -8803,7 +8806,7 @@
       </c>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>294</v>
       </c>
@@ -8821,7 +8824,7 @@
       </c>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>296</v>
       </c>
@@ -8839,7 +8842,7 @@
       </c>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>299</v>
       </c>
@@ -8857,7 +8860,7 @@
       </c>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>301</v>
       </c>
@@ -8875,7 +8878,7 @@
       </c>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>304</v>
       </c>
@@ -8893,7 +8896,7 @@
       </c>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>307</v>
       </c>
@@ -8911,7 +8914,7 @@
       </c>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>310</v>
       </c>
@@ -8929,7 +8932,7 @@
       </c>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>313</v>
       </c>
@@ -8947,7 +8950,7 @@
       </c>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>316</v>
       </c>
@@ -8965,7 +8968,7 @@
       </c>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>319</v>
       </c>
@@ -8983,7 +8986,7 @@
       </c>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>322</v>
       </c>
@@ -9001,7 +9004,7 @@
       </c>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>325</v>
       </c>
@@ -9019,7 +9022,7 @@
       </c>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>328</v>
       </c>
@@ -9037,7 +9040,7 @@
       </c>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>330</v>
       </c>
@@ -9055,7 +9058,7 @@
       </c>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>333</v>
       </c>
@@ -9073,7 +9076,7 @@
       </c>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>335</v>
       </c>
@@ -9091,7 +9094,7 @@
       </c>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>338</v>
       </c>
@@ -9109,7 +9112,7 @@
       </c>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>341</v>
       </c>
@@ -9127,7 +9130,7 @@
       </c>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>344</v>
       </c>
@@ -9145,7 +9148,7 @@
       </c>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>347</v>
       </c>
@@ -9163,7 +9166,7 @@
       </c>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>350</v>
       </c>
@@ -9181,7 +9184,7 @@
       </c>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>353</v>
       </c>
@@ -9199,7 +9202,7 @@
       </c>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>356</v>
       </c>
@@ -9217,7 +9220,7 @@
       </c>
       <c r="F78" s="7"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>358</v>
       </c>
@@ -9235,7 +9238,7 @@
       </c>
       <c r="F79" s="7"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>361</v>
       </c>
@@ -9253,7 +9256,7 @@
       </c>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>363</v>
       </c>
@@ -9271,7 +9274,7 @@
       </c>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>366</v>
       </c>
@@ -9289,7 +9292,7 @@
       </c>
       <c r="F82" s="7"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>369</v>
       </c>
@@ -9307,7 +9310,7 @@
       </c>
       <c r="F83" s="7"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>372</v>
       </c>
@@ -9325,7 +9328,7 @@
       </c>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>375</v>
       </c>
@@ -9343,7 +9346,7 @@
       </c>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>378</v>
       </c>
@@ -9361,7 +9364,7 @@
       </c>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>381</v>
       </c>
@@ -9379,7 +9382,7 @@
       </c>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>384</v>
       </c>
@@ -9397,7 +9400,7 @@
       </c>
       <c r="F88" s="7"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>386</v>
       </c>
@@ -9415,7 +9418,7 @@
       </c>
       <c r="F89" s="7"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>389</v>
       </c>
@@ -9433,7 +9436,7 @@
       </c>
       <c r="F90" s="7"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>392</v>
       </c>
@@ -9451,7 +9454,7 @@
       </c>
       <c r="F91" s="7"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>395</v>
       </c>
@@ -9469,7 +9472,7 @@
       </c>
       <c r="F92" s="7"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>398</v>
       </c>
@@ -9487,7 +9490,7 @@
       </c>
       <c r="F93" s="7"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>401</v>
       </c>
@@ -9505,7 +9508,7 @@
       </c>
       <c r="F94" s="7"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>404</v>
       </c>
@@ -9523,7 +9526,7 @@
       </c>
       <c r="F95" s="7"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>407</v>
       </c>
@@ -9541,7 +9544,7 @@
       </c>
       <c r="F96" s="7"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>410</v>
       </c>
@@ -9559,7 +9562,7 @@
       </c>
       <c r="F97" s="7"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>413</v>
       </c>
@@ -9577,7 +9580,7 @@
       </c>
       <c r="F98" s="7"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>416</v>
       </c>
@@ -9595,7 +9598,7 @@
       </c>
       <c r="F99" s="7"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>419</v>
       </c>
@@ -9613,7 +9616,7 @@
       </c>
       <c r="F100" s="7"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>422</v>
       </c>
@@ -9631,7 +9634,7 @@
       </c>
       <c r="F101" s="7"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>425</v>
       </c>
@@ -9649,7 +9652,7 @@
       </c>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>428</v>
       </c>
@@ -9667,7 +9670,7 @@
       </c>
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>431</v>
       </c>
@@ -9685,7 +9688,7 @@
       </c>
       <c r="F104" s="7"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>434</v>
       </c>
@@ -9703,7 +9706,7 @@
       </c>
       <c r="F105" s="7"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>437</v>
       </c>
@@ -9721,7 +9724,7 @@
       </c>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>439</v>
       </c>
@@ -9739,7 +9742,7 @@
       </c>
       <c r="F107" s="7"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>442</v>
       </c>
@@ -9757,9 +9760,9 @@
       </c>
       <c r="F108" s="7"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>442</v>
+        <v>1968</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>158</v>
@@ -9775,7 +9778,7 @@
       </c>
       <c r="F109" s="7"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>447</v>
       </c>
@@ -9793,7 +9796,7 @@
       </c>
       <c r="F110" s="7"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>450</v>
       </c>
@@ -9811,7 +9814,7 @@
       </c>
       <c r="F111" s="7"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>453</v>
       </c>
@@ -9829,7 +9832,7 @@
       </c>
       <c r="F112" s="7"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>456</v>
       </c>
@@ -9847,7 +9850,7 @@
       </c>
       <c r="F113" s="7"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>459</v>
       </c>
@@ -9865,7 +9868,7 @@
       </c>
       <c r="F114" s="7"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>462</v>
       </c>
@@ -9883,7 +9886,7 @@
       </c>
       <c r="F115" s="7"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>465</v>
       </c>
@@ -9901,7 +9904,7 @@
       </c>
       <c r="F116" s="7"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>468</v>
       </c>
@@ -9919,7 +9922,7 @@
       </c>
       <c r="F117" s="7"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
         <v>471</v>
       </c>
@@ -9937,7 +9940,7 @@
       </c>
       <c r="F118" s="7"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
         <v>474</v>
       </c>
@@ -9955,7 +9958,7 @@
       </c>
       <c r="F119" s="7"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
         <v>477</v>
       </c>
@@ -9973,7 +9976,7 @@
       </c>
       <c r="F120" s="7"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
         <v>480</v>
       </c>
@@ -9991,7 +9994,7 @@
       </c>
       <c r="F121" s="7"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>483</v>
       </c>
@@ -10009,7 +10012,7 @@
       </c>
       <c r="F122" s="7"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
         <v>486</v>
       </c>
@@ -10027,7 +10030,7 @@
       </c>
       <c r="F123" s="7"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>489</v>
       </c>
@@ -10045,7 +10048,7 @@
       </c>
       <c r="F124" s="7"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
         <v>492</v>
       </c>
@@ -10063,7 +10066,7 @@
       </c>
       <c r="F125" s="7"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
         <v>495</v>
       </c>
@@ -10081,7 +10084,7 @@
       </c>
       <c r="F126" s="7"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>498</v>
       </c>
@@ -10099,7 +10102,7 @@
       </c>
       <c r="F127" s="7"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>501</v>
       </c>
@@ -10117,7 +10120,7 @@
       </c>
       <c r="F128" s="7"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>504</v>
       </c>
@@ -10135,7 +10138,7 @@
       </c>
       <c r="F129" s="7"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>507</v>
       </c>
@@ -10153,7 +10156,7 @@
       </c>
       <c r="F130" s="7"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>510</v>
       </c>
@@ -10171,7 +10174,7 @@
       </c>
       <c r="F131" s="7"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>513</v>
       </c>
@@ -10189,7 +10192,7 @@
       </c>
       <c r="F132" s="7"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>516</v>
       </c>
@@ -10207,7 +10210,7 @@
       </c>
       <c r="F133" s="7"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>519</v>
       </c>
@@ -10225,7 +10228,7 @@
       </c>
       <c r="F134" s="7"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>522</v>
       </c>
@@ -10243,7 +10246,7 @@
       </c>
       <c r="F135" s="7"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
         <v>525</v>
       </c>
@@ -10261,7 +10264,7 @@
       </c>
       <c r="F136" s="7"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
         <v>528</v>
       </c>
@@ -10279,7 +10282,7 @@
       </c>
       <c r="F137" s="7"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>531</v>
       </c>
@@ -10297,7 +10300,7 @@
       </c>
       <c r="F138" s="7"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>534</v>
       </c>
@@ -10315,7 +10318,7 @@
       </c>
       <c r="F139" s="7"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>537</v>
       </c>
@@ -10333,7 +10336,7 @@
       </c>
       <c r="F140" s="7"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>540</v>
       </c>
@@ -10351,7 +10354,7 @@
       </c>
       <c r="F141" s="7"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
         <v>543</v>
       </c>
@@ -10369,7 +10372,7 @@
       </c>
       <c r="F142" s="7"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
         <v>546</v>
       </c>
@@ -10387,7 +10390,7 @@
       </c>
       <c r="F143" s="7"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>549</v>
       </c>
@@ -10405,7 +10408,7 @@
       </c>
       <c r="F144" s="7"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>552</v>
       </c>
@@ -10423,7 +10426,7 @@
       </c>
       <c r="F145" s="7"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>555</v>
       </c>
@@ -10441,7 +10444,7 @@
       </c>
       <c r="F146" s="7"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
         <v>558</v>
       </c>
@@ -10459,7 +10462,7 @@
       </c>
       <c r="F147" s="7"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>561</v>
       </c>
@@ -10477,7 +10480,7 @@
       </c>
       <c r="F148" s="7"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>564</v>
       </c>
@@ -10495,7 +10498,7 @@
       </c>
       <c r="F149" s="7"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>567</v>
       </c>
@@ -10513,7 +10516,7 @@
       </c>
       <c r="F150" s="7"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
         <v>570</v>
       </c>
@@ -10531,7 +10534,7 @@
       </c>
       <c r="F151" s="7"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
         <v>573</v>
       </c>
@@ -10549,7 +10552,7 @@
       </c>
       <c r="F152" s="7"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>576</v>
       </c>
@@ -10567,7 +10570,7 @@
       </c>
       <c r="F153" s="7"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>579</v>
       </c>
@@ -10585,7 +10588,7 @@
       </c>
       <c r="F154" s="7"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
         <v>582</v>
       </c>
@@ -10603,7 +10606,7 @@
       </c>
       <c r="F155" s="7"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
         <v>585</v>
       </c>
@@ -10619,7 +10622,7 @@
       </c>
       <c r="F156" s="7"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
         <v>588</v>
       </c>
@@ -10635,7 +10638,7 @@
       </c>
       <c r="F157" s="7"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
         <v>591</v>
       </c>
@@ -10651,7 +10654,7 @@
       </c>
       <c r="F158" s="7"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
         <v>594</v>
       </c>
@@ -10669,7 +10672,7 @@
       </c>
       <c r="F159" s="7"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>597</v>
       </c>
@@ -10687,7 +10690,7 @@
       </c>
       <c r="F160" s="7"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>600</v>
       </c>
@@ -10705,7 +10708,7 @@
       </c>
       <c r="F161" s="7"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>603</v>
       </c>
@@ -10723,7 +10726,7 @@
       </c>
       <c r="F162" s="7"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>606</v>
       </c>
@@ -10741,7 +10744,7 @@
       </c>
       <c r="F163" s="7"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>609</v>
       </c>
@@ -10759,7 +10762,7 @@
       </c>
       <c r="F164" s="7"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>612</v>
       </c>
@@ -10777,7 +10780,7 @@
       </c>
       <c r="F165" s="7"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>615</v>
       </c>
@@ -10795,7 +10798,7 @@
       </c>
       <c r="F166" s="7"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
         <v>618</v>
       </c>
@@ -10813,7 +10816,7 @@
       </c>
       <c r="F167" s="7"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
         <v>621</v>
       </c>
@@ -10831,7 +10834,7 @@
       </c>
       <c r="F168" s="7"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
         <v>624</v>
       </c>
@@ -10849,7 +10852,7 @@
       </c>
       <c r="F169" s="7"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
         <v>627</v>
       </c>
@@ -10867,7 +10870,7 @@
       </c>
       <c r="F170" s="7"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
         <v>630</v>
       </c>
@@ -10885,7 +10888,7 @@
       </c>
       <c r="F171" s="7"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="7" t="s">
         <v>633</v>
       </c>
@@ -10903,7 +10906,7 @@
       </c>
       <c r="F172" s="7"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
         <v>636</v>
       </c>
@@ -10921,7 +10924,7 @@
       </c>
       <c r="F173" s="7"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>639</v>
       </c>
@@ -10939,7 +10942,7 @@
       </c>
       <c r="F174" s="7"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
         <v>642</v>
       </c>
@@ -10957,7 +10960,7 @@
       </c>
       <c r="F175" s="7"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
         <v>645</v>
       </c>
@@ -10975,7 +10978,7 @@
       </c>
       <c r="F176" s="7"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>648</v>
       </c>
@@ -10993,7 +10996,7 @@
       </c>
       <c r="F177" s="7"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="7" t="s">
         <v>651</v>
       </c>
@@ -11011,7 +11014,7 @@
       </c>
       <c r="F178" s="7"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="s">
         <v>654</v>
       </c>
@@ -11029,7 +11032,7 @@
       </c>
       <c r="F179" s="7"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>657</v>
       </c>
@@ -11047,7 +11050,7 @@
       </c>
       <c r="F180" s="7"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>660</v>
       </c>
@@ -11065,7 +11068,7 @@
       </c>
       <c r="F181" s="7"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
         <v>663</v>
       </c>
@@ -11083,7 +11086,7 @@
       </c>
       <c r="F182" s="7"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="s">
         <v>666</v>
       </c>
@@ -11101,7 +11104,7 @@
       </c>
       <c r="F183" s="7"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="7" t="s">
         <v>669</v>
       </c>
@@ -11119,7 +11122,7 @@
       </c>
       <c r="F184" s="7"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="s">
         <v>672</v>
       </c>
@@ -11137,7 +11140,7 @@
       </c>
       <c r="F185" s="7"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="7" t="s">
         <v>675</v>
       </c>
@@ -11155,7 +11158,7 @@
       </c>
       <c r="F186" s="7"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
         <v>678</v>
       </c>
@@ -11173,7 +11176,7 @@
       </c>
       <c r="F187" s="7"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
         <v>681</v>
       </c>
@@ -11191,7 +11194,7 @@
       </c>
       <c r="F188" s="7"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>684</v>
       </c>
@@ -11209,7 +11212,7 @@
       </c>
       <c r="F189" s="7"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
         <v>687</v>
       </c>
@@ -11227,7 +11230,7 @@
       </c>
       <c r="F190" s="7"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
         <v>690</v>
       </c>
@@ -11245,7 +11248,7 @@
       </c>
       <c r="F191" s="7"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
         <v>693</v>
       </c>
@@ -11263,7 +11266,7 @@
       </c>
       <c r="F192" s="7"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
         <v>696</v>
       </c>
@@ -11281,7 +11284,7 @@
       </c>
       <c r="F193" s="7"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>699</v>
       </c>
@@ -11299,7 +11302,7 @@
       </c>
       <c r="F194" s="7"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="s">
         <v>702</v>
       </c>
@@ -11317,7 +11320,7 @@
       </c>
       <c r="F195" s="7"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="7" t="s">
         <v>705</v>
       </c>
@@ -11335,7 +11338,7 @@
       </c>
       <c r="F196" s="7"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>708</v>
       </c>
@@ -11353,7 +11356,7 @@
       </c>
       <c r="F197" s="7"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>711</v>
       </c>
@@ -11371,7 +11374,7 @@
       </c>
       <c r="F198" s="7"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>714</v>
       </c>
@@ -11389,7 +11392,7 @@
       </c>
       <c r="F199" s="7"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
         <v>717</v>
       </c>
@@ -11407,7 +11410,7 @@
       </c>
       <c r="F200" s="7"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
         <v>720</v>
       </c>
@@ -11425,7 +11428,7 @@
       </c>
       <c r="F201" s="7"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
         <v>723</v>
       </c>
@@ -11443,7 +11446,7 @@
       </c>
       <c r="F202" s="7"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="s">
         <v>726</v>
       </c>
@@ -11461,7 +11464,7 @@
       </c>
       <c r="F203" s="7"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
         <v>729</v>
       </c>
@@ -11479,7 +11482,7 @@
       </c>
       <c r="F204" s="7"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
         <v>732</v>
       </c>
@@ -11497,7 +11500,7 @@
       </c>
       <c r="F205" s="7"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
         <v>735</v>
       </c>
@@ -11515,7 +11518,7 @@
       </c>
       <c r="F206" s="7"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
         <v>737</v>
       </c>
@@ -11533,7 +11536,7 @@
       </c>
       <c r="F207" s="7"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
         <v>740</v>
       </c>
@@ -11551,7 +11554,7 @@
       </c>
       <c r="F208" s="7"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
         <v>743</v>
       </c>
@@ -11569,7 +11572,7 @@
       </c>
       <c r="F209" s="7"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
         <v>746</v>
       </c>
@@ -11587,7 +11590,7 @@
       </c>
       <c r="F210" s="7"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
         <v>749</v>
       </c>
@@ -11605,7 +11608,7 @@
       </c>
       <c r="F211" s="7"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>752</v>
       </c>
@@ -11623,7 +11626,7 @@
       </c>
       <c r="F212" s="7"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
         <v>755</v>
       </c>
@@ -11641,7 +11644,7 @@
       </c>
       <c r="F213" s="7"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
         <v>758</v>
       </c>
@@ -11659,7 +11662,7 @@
       </c>
       <c r="F214" s="7"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
         <v>761</v>
       </c>
@@ -11677,7 +11680,7 @@
       </c>
       <c r="F215" s="7"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
         <v>764</v>
       </c>
@@ -11695,7 +11698,7 @@
       </c>
       <c r="F216" s="7"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
         <v>767</v>
       </c>
@@ -11713,7 +11716,7 @@
       </c>
       <c r="F217" s="7"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="7" t="s">
         <v>770</v>
       </c>
@@ -11731,7 +11734,7 @@
       </c>
       <c r="F218" s="7"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
         <v>773</v>
       </c>
@@ -11749,7 +11752,7 @@
       </c>
       <c r="F219" s="7"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
         <v>776</v>
       </c>
@@ -11767,7 +11770,7 @@
       </c>
       <c r="F220" s="7"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="s">
         <v>779</v>
       </c>
@@ -11785,7 +11788,7 @@
       </c>
       <c r="F221" s="7"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="7" t="s">
         <v>782</v>
       </c>
@@ -11803,7 +11806,7 @@
       </c>
       <c r="F222" s="7"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
         <v>785</v>
       </c>
@@ -11821,7 +11824,7 @@
       </c>
       <c r="F223" s="7"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
         <v>788</v>
       </c>
@@ -11839,7 +11842,7 @@
       </c>
       <c r="F224" s="7"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>791</v>
       </c>
@@ -11857,7 +11860,7 @@
       </c>
       <c r="F225" s="7"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
         <v>794</v>
       </c>
@@ -11875,7 +11878,7 @@
       </c>
       <c r="F226" s="7"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>797</v>
       </c>
@@ -11893,7 +11896,7 @@
       </c>
       <c r="F227" s="7"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>800</v>
       </c>
@@ -11911,7 +11914,7 @@
       </c>
       <c r="F228" s="7"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>803</v>
       </c>
@@ -11929,7 +11932,7 @@
       </c>
       <c r="F229" s="7"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>806</v>
       </c>
@@ -11947,7 +11950,7 @@
       </c>
       <c r="F230" s="7"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
         <v>809</v>
       </c>
@@ -11965,7 +11968,7 @@
       </c>
       <c r="F231" s="7"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
         <v>812</v>
       </c>
@@ -11983,7 +11986,7 @@
       </c>
       <c r="F232" s="7"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
         <v>815</v>
       </c>
@@ -12001,7 +12004,7 @@
       </c>
       <c r="F233" s="7"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
         <v>818</v>
       </c>
@@ -12019,7 +12022,7 @@
       </c>
       <c r="F234" s="7"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
         <v>821</v>
       </c>
@@ -12037,7 +12040,7 @@
       </c>
       <c r="F235" s="7"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
         <v>824</v>
       </c>
@@ -12055,7 +12058,7 @@
       </c>
       <c r="F236" s="7"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
         <v>827</v>
       </c>
@@ -12073,7 +12076,7 @@
       </c>
       <c r="F237" s="7"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
         <v>830</v>
       </c>
@@ -12091,7 +12094,7 @@
       </c>
       <c r="F238" s="7"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
         <v>833</v>
       </c>
@@ -12109,7 +12112,7 @@
       </c>
       <c r="F239" s="7"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
         <v>836</v>
       </c>
@@ -12127,7 +12130,7 @@
       </c>
       <c r="F240" s="7"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>839</v>
       </c>
@@ -12145,7 +12148,7 @@
       </c>
       <c r="F241" s="7"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="7" t="s">
         <v>842</v>
       </c>
@@ -12163,7 +12166,7 @@
       </c>
       <c r="F242" s="7"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
         <v>845</v>
       </c>
@@ -12181,7 +12184,7 @@
       </c>
       <c r="F243" s="7"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="7" t="s">
         <v>848</v>
       </c>
@@ -12199,7 +12202,7 @@
       </c>
       <c r="F244" s="7"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
         <v>851</v>
       </c>
@@ -12217,7 +12220,7 @@
       </c>
       <c r="F245" s="7"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
         <v>854</v>
       </c>
@@ -12235,7 +12238,7 @@
       </c>
       <c r="F246" s="7"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
         <v>857</v>
       </c>
@@ -12253,7 +12256,7 @@
       </c>
       <c r="F247" s="7"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
         <v>860</v>
       </c>
@@ -12271,7 +12274,7 @@
       </c>
       <c r="F248" s="7"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
         <v>863</v>
       </c>
@@ -12289,7 +12292,7 @@
       </c>
       <c r="F249" s="7"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="7" t="s">
         <v>866</v>
       </c>
@@ -12307,7 +12310,7 @@
       </c>
       <c r="F250" s="7"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
         <v>869</v>
       </c>
@@ -12325,7 +12328,7 @@
       </c>
       <c r="F251" s="7"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
         <v>872</v>
       </c>
@@ -12343,7 +12346,7 @@
       </c>
       <c r="F252" s="7"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
         <v>875</v>
       </c>
@@ -12361,7 +12364,7 @@
       </c>
       <c r="F253" s="7"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
         <v>878</v>
       </c>
@@ -12379,7 +12382,7 @@
       </c>
       <c r="F254" s="7"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="7" t="s">
         <v>881</v>
       </c>
@@ -12397,7 +12400,7 @@
       </c>
       <c r="F255" s="7"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
         <v>884</v>
       </c>
@@ -12415,7 +12418,7 @@
       </c>
       <c r="F256" s="7"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
         <v>887</v>
       </c>
@@ -12433,7 +12436,7 @@
       </c>
       <c r="F257" s="7"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="7" t="s">
         <v>890</v>
       </c>
@@ -12451,7 +12454,7 @@
       </c>
       <c r="F258" s="7"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="7" t="s">
         <v>893</v>
       </c>
@@ -12469,7 +12472,7 @@
       </c>
       <c r="F259" s="7"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="7" t="s">
         <v>896</v>
       </c>
@@ -12487,7 +12490,7 @@
       </c>
       <c r="F260" s="7"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="s">
         <v>899</v>
       </c>
@@ -12505,7 +12508,7 @@
       </c>
       <c r="F261" s="7"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="7" t="s">
         <v>902</v>
       </c>
@@ -12523,7 +12526,7 @@
       </c>
       <c r="F262" s="7"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="7" t="s">
         <v>905</v>
       </c>
@@ -12541,7 +12544,7 @@
       </c>
       <c r="F263" s="7"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="7" t="s">
         <v>908</v>
       </c>
@@ -12559,7 +12562,7 @@
       </c>
       <c r="F264" s="7"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
         <v>911</v>
       </c>
@@ -12577,7 +12580,7 @@
       </c>
       <c r="F265" s="7"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="7" t="s">
         <v>914</v>
       </c>
@@ -12595,7 +12598,7 @@
       </c>
       <c r="F266" s="7"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="s">
         <v>917</v>
       </c>
@@ -12613,7 +12616,7 @@
       </c>
       <c r="F267" s="7"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="7" t="s">
         <v>920</v>
       </c>
@@ -12631,7 +12634,7 @@
       </c>
       <c r="F268" s="7"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="s">
         <v>923</v>
       </c>
@@ -12649,7 +12652,7 @@
       </c>
       <c r="F269" s="7"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
         <v>926</v>
       </c>
@@ -12667,7 +12670,7 @@
       </c>
       <c r="F270" s="7"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
         <v>929</v>
       </c>
@@ -12685,7 +12688,7 @@
       </c>
       <c r="F271" s="7"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
         <v>932</v>
       </c>
@@ -12703,7 +12706,7 @@
       </c>
       <c r="F272" s="7"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
         <v>935</v>
       </c>
@@ -12721,7 +12724,7 @@
       </c>
       <c r="F273" s="7"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
         <v>938</v>
       </c>
@@ -12739,7 +12742,7 @@
       </c>
       <c r="F274" s="7"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
         <v>941</v>
       </c>
@@ -12757,7 +12760,7 @@
       </c>
       <c r="F275" s="7"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
         <v>944</v>
       </c>
@@ -12775,7 +12778,7 @@
       </c>
       <c r="F276" s="7"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
         <v>947</v>
       </c>
@@ -12793,7 +12796,7 @@
       </c>
       <c r="F277" s="7"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
         <v>950</v>
       </c>
@@ -12811,7 +12814,7 @@
       </c>
       <c r="F278" s="7"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
         <v>953</v>
       </c>
@@ -12829,7 +12832,7 @@
       </c>
       <c r="F279" s="7"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
         <v>954</v>
       </c>
@@ -12847,7 +12850,7 @@
       </c>
       <c r="F280" s="7"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
         <v>957</v>
       </c>
@@ -12865,7 +12868,7 @@
       </c>
       <c r="F281" s="7"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
         <v>960</v>
       </c>
@@ -12883,7 +12886,7 @@
       </c>
       <c r="F282" s="7"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
         <v>963</v>
       </c>
@@ -12901,7 +12904,7 @@
       </c>
       <c r="F283" s="7"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
         <v>966</v>
       </c>
@@ -12919,7 +12922,7 @@
       </c>
       <c r="F284" s="7"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
         <v>969</v>
       </c>
@@ -12937,7 +12940,7 @@
       </c>
       <c r="F285" s="7"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
         <v>972</v>
       </c>
@@ -12955,7 +12958,7 @@
       </c>
       <c r="F286" s="7"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>975</v>
       </c>
@@ -12973,7 +12976,7 @@
       </c>
       <c r="F287" s="7"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
         <v>978</v>
       </c>
@@ -12991,7 +12994,7 @@
       </c>
       <c r="F288" s="7"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="7" t="s">
         <v>981</v>
       </c>
@@ -13009,7 +13012,7 @@
       </c>
       <c r="F289" s="7"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="7" t="s">
         <v>984</v>
       </c>
@@ -13027,7 +13030,7 @@
       </c>
       <c r="F290" s="7"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
         <v>987</v>
       </c>
@@ -13045,7 +13048,7 @@
       </c>
       <c r="F291" s="7"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="7" t="s">
         <v>990</v>
       </c>
@@ -13063,7 +13066,7 @@
       </c>
       <c r="F292" s="7"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="s">
         <v>993</v>
       </c>
@@ -13081,7 +13084,7 @@
       </c>
       <c r="F293" s="7"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
         <v>996</v>
       </c>
@@ -13099,7 +13102,7 @@
       </c>
       <c r="F294" s="7"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="s">
         <v>999</v>
       </c>
@@ -13117,7 +13120,7 @@
       </c>
       <c r="F295" s="7"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="7" t="s">
         <v>1002</v>
       </c>
@@ -13135,7 +13138,7 @@
       </c>
       <c r="F296" s="7"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="7" t="s">
         <v>1005</v>
       </c>
@@ -13153,7 +13156,7 @@
       </c>
       <c r="F297" s="7"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="7" t="s">
         <v>1008</v>
       </c>
@@ -13171,7 +13174,7 @@
       </c>
       <c r="F298" s="7"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="7" t="s">
         <v>1011</v>
       </c>
@@ -13189,7 +13192,7 @@
       </c>
       <c r="F299" s="7"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="7" t="s">
         <v>1014</v>
       </c>
@@ -13207,7 +13210,7 @@
       </c>
       <c r="F300" s="7"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="7" t="s">
         <v>1017</v>
       </c>
@@ -13225,7 +13228,7 @@
       </c>
       <c r="F301" s="7"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="7" t="s">
         <v>1020</v>
       </c>
@@ -13243,7 +13246,7 @@
       </c>
       <c r="F302" s="7"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="7" t="s">
         <v>1023</v>
       </c>
@@ -13259,7 +13262,7 @@
       <c r="E303" s="7"/>
       <c r="F303" s="7"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="7" t="s">
         <v>1025</v>
       </c>
@@ -13277,7 +13280,7 @@
       </c>
       <c r="F304" s="7"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="s">
         <v>1028</v>
       </c>
@@ -13295,7 +13298,7 @@
       </c>
       <c r="F305" s="7"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="7" t="s">
         <v>1031</v>
       </c>
@@ -13313,7 +13316,7 @@
       </c>
       <c r="F306" s="7"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="7" t="s">
         <v>1034</v>
       </c>
@@ -13331,7 +13334,7 @@
       </c>
       <c r="F307" s="7"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="7" t="s">
         <v>1037</v>
       </c>
@@ -13349,7 +13352,7 @@
       </c>
       <c r="F308" s="7"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="7" t="s">
         <v>1040</v>
       </c>
@@ -13367,7 +13370,7 @@
       </c>
       <c r="F309" s="7"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="7" t="s">
         <v>1043</v>
       </c>
@@ -13385,7 +13388,7 @@
       </c>
       <c r="F310" s="7"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="7" t="s">
         <v>1046</v>
       </c>
@@ -13403,7 +13406,7 @@
       </c>
       <c r="F311" s="7"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="7" t="s">
         <v>1049</v>
       </c>
@@ -13421,7 +13424,7 @@
       </c>
       <c r="F312" s="7"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="7" t="s">
         <v>1052</v>
       </c>
@@ -13439,7 +13442,7 @@
       </c>
       <c r="F313" s="7"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="7" t="s">
         <v>1055</v>
       </c>
@@ -13457,7 +13460,7 @@
       </c>
       <c r="F314" s="7"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="7" t="s">
         <v>1058</v>
       </c>
@@ -13475,7 +13478,7 @@
       </c>
       <c r="F315" s="7"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="7" t="s">
         <v>1061</v>
       </c>
@@ -13493,7 +13496,7 @@
       </c>
       <c r="F316" s="7"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="7" t="s">
         <v>1064</v>
       </c>
@@ -13511,7 +13514,7 @@
       </c>
       <c r="F317" s="7"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="7" t="s">
         <v>1067</v>
       </c>
@@ -13529,7 +13532,7 @@
       </c>
       <c r="F318" s="7"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="7" t="s">
         <v>1070</v>
       </c>
@@ -13547,7 +13550,7 @@
       </c>
       <c r="F319" s="7"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="7" t="s">
         <v>1073</v>
       </c>
@@ -13565,7 +13568,7 @@
       </c>
       <c r="F320" s="7"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="7" t="s">
         <v>1076</v>
       </c>
@@ -13583,7 +13586,7 @@
       </c>
       <c r="F321" s="7"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="7" t="s">
         <v>1079</v>
       </c>
@@ -13601,7 +13604,7 @@
       </c>
       <c r="F322" s="7"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="s">
         <v>1082</v>
       </c>
@@ -13619,7 +13622,7 @@
       </c>
       <c r="F323" s="7"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="7" t="s">
         <v>1085</v>
       </c>
@@ -13637,7 +13640,7 @@
       </c>
       <c r="F324" s="7"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="7" t="s">
         <v>1088</v>
       </c>
@@ -13655,7 +13658,7 @@
       </c>
       <c r="F325" s="7"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="7" t="s">
         <v>1091</v>
       </c>
@@ -13673,7 +13676,7 @@
       </c>
       <c r="F326" s="7"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="7" t="s">
         <v>1094</v>
       </c>
@@ -13691,7 +13694,7 @@
       </c>
       <c r="F327" s="7"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="7" t="s">
         <v>1097</v>
       </c>
@@ -13709,7 +13712,7 @@
       </c>
       <c r="F328" s="7"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="7" t="s">
         <v>1100</v>
       </c>
@@ -13727,7 +13730,7 @@
       </c>
       <c r="F329" s="7"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="7" t="s">
         <v>1103</v>
       </c>
@@ -13745,7 +13748,7 @@
       </c>
       <c r="F330" s="7"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="7" t="s">
         <v>1106</v>
       </c>
@@ -13763,7 +13766,7 @@
       </c>
       <c r="F331" s="7"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="7" t="s">
         <v>1109</v>
       </c>
@@ -13781,7 +13784,7 @@
       </c>
       <c r="F332" s="7"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="7" t="s">
         <v>1112</v>
       </c>
@@ -13799,7 +13802,7 @@
       </c>
       <c r="F333" s="7"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="7" t="s">
         <v>1115</v>
       </c>
@@ -13817,7 +13820,7 @@
       </c>
       <c r="F334" s="7"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="s">
         <v>1118</v>
       </c>
@@ -13835,7 +13838,7 @@
       </c>
       <c r="F335" s="7"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="7" t="s">
         <v>1121</v>
       </c>
@@ -13853,7 +13856,7 @@
       </c>
       <c r="F336" s="7"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
         <v>1124</v>
       </c>
@@ -13871,7 +13874,7 @@
       </c>
       <c r="F337" s="7"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="7" t="s">
         <v>1127</v>
       </c>
@@ -13889,7 +13892,7 @@
       </c>
       <c r="F338" s="7"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="7" t="s">
         <v>1130</v>
       </c>
@@ -13907,7 +13910,7 @@
       </c>
       <c r="F339" s="7"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="7" t="s">
         <v>1133</v>
       </c>
@@ -13925,7 +13928,7 @@
       </c>
       <c r="F340" s="7"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="7" t="s">
         <v>1136</v>
       </c>
@@ -13943,7 +13946,7 @@
       </c>
       <c r="F341" s="7"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="7" t="s">
         <v>1139</v>
       </c>
@@ -13961,7 +13964,7 @@
       </c>
       <c r="F342" s="7"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="7" t="s">
         <v>1142</v>
       </c>
@@ -13979,7 +13982,7 @@
       </c>
       <c r="F343" s="7"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="7" t="s">
         <v>1145</v>
       </c>
@@ -13997,7 +14000,7 @@
       </c>
       <c r="F344" s="7"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="7" t="s">
         <v>1148</v>
       </c>
@@ -14015,7 +14018,7 @@
       </c>
       <c r="F345" s="7"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="7" t="s">
         <v>1151</v>
       </c>
@@ -14033,7 +14036,7 @@
       </c>
       <c r="F346" s="7"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="7" t="s">
         <v>1154</v>
       </c>
@@ -14051,7 +14054,7 @@
       </c>
       <c r="F347" s="7"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="7" t="s">
         <v>1157</v>
       </c>
@@ -14069,7 +14072,7 @@
       </c>
       <c r="F348" s="7"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="7" t="s">
         <v>1160</v>
       </c>
@@ -14087,7 +14090,7 @@
       </c>
       <c r="F349" s="7"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="7" t="s">
         <v>1162</v>
       </c>
@@ -14105,7 +14108,7 @@
       </c>
       <c r="F350" s="7"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="7" t="s">
         <v>1165</v>
       </c>
@@ -14123,7 +14126,7 @@
       </c>
       <c r="F351" s="7"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="7" t="s">
         <v>1167</v>
       </c>
@@ -14139,7 +14142,7 @@
       <c r="E352" s="7"/>
       <c r="F352" s="7"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="7" t="s">
         <v>1169</v>
       </c>
@@ -14157,7 +14160,7 @@
       </c>
       <c r="F353" s="7"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="7" t="s">
         <v>1172</v>
       </c>
@@ -14175,7 +14178,7 @@
       </c>
       <c r="F354" s="7"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="7" t="s">
         <v>1175</v>
       </c>
@@ -14193,7 +14196,7 @@
       </c>
       <c r="F355" s="7"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="7" t="s">
         <v>1178</v>
       </c>
@@ -14211,7 +14214,7 @@
       </c>
       <c r="F356" s="7"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="7" t="s">
         <v>1181</v>
       </c>
@@ -14229,7 +14232,7 @@
       </c>
       <c r="F357" s="7"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="7" t="s">
         <v>1184</v>
       </c>
@@ -14247,7 +14250,7 @@
       </c>
       <c r="F358" s="7"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="7" t="s">
         <v>1187</v>
       </c>
@@ -14265,7 +14268,7 @@
       </c>
       <c r="F359" s="7"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="7" t="s">
         <v>1190</v>
       </c>
@@ -14283,7 +14286,7 @@
       </c>
       <c r="F360" s="7"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="7" t="s">
         <v>1193</v>
       </c>
@@ -14301,7 +14304,7 @@
       </c>
       <c r="F361" s="7"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="7" t="s">
         <v>1196</v>
       </c>
@@ -14319,7 +14322,7 @@
       </c>
       <c r="F362" s="7"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="7" t="s">
         <v>1199</v>
       </c>
@@ -14337,7 +14340,7 @@
       </c>
       <c r="F363" s="7"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="7" t="s">
         <v>1202</v>
       </c>
@@ -14355,7 +14358,7 @@
       </c>
       <c r="F364" s="7"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="7" t="s">
         <v>1205</v>
       </c>
@@ -14373,7 +14376,7 @@
       </c>
       <c r="F365" s="7"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="7" t="s">
         <v>1208</v>
       </c>
@@ -14391,7 +14394,7 @@
       </c>
       <c r="F366" s="7"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" s="7" t="s">
         <v>1211</v>
       </c>
@@ -14409,7 +14412,7 @@
       </c>
       <c r="F367" s="7"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="7" t="s">
         <v>1214</v>
       </c>
@@ -14427,7 +14430,7 @@
       </c>
       <c r="F368" s="7"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="7" t="s">
         <v>1217</v>
       </c>
@@ -14445,7 +14448,7 @@
       </c>
       <c r="F369" s="7"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="7" t="s">
         <v>1220</v>
       </c>
@@ -14463,7 +14466,7 @@
       </c>
       <c r="F370" s="7"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="7" t="s">
         <v>1223</v>
       </c>
@@ -14479,7 +14482,7 @@
       <c r="E371" s="7"/>
       <c r="F371" s="7"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="7" t="s">
         <v>1225</v>
       </c>
@@ -14497,7 +14500,7 @@
       </c>
       <c r="F372" s="7"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="7" t="s">
         <v>1228</v>
       </c>
@@ -14515,7 +14518,7 @@
       </c>
       <c r="F373" s="7"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="7" t="s">
         <v>1231</v>
       </c>
@@ -14533,7 +14536,7 @@
       </c>
       <c r="F374" s="7"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="7" t="s">
         <v>1234</v>
       </c>
@@ -14551,7 +14554,7 @@
       </c>
       <c r="F375" s="7"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" s="7" t="s">
         <v>1237</v>
       </c>
@@ -14569,7 +14572,7 @@
       </c>
       <c r="F376" s="7"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" s="7" t="s">
         <v>1240</v>
       </c>
@@ -14587,7 +14590,7 @@
       </c>
       <c r="F377" s="7"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" s="7" t="s">
         <v>1243</v>
       </c>
@@ -14605,7 +14608,7 @@
       </c>
       <c r="F378" s="7"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" s="7" t="s">
         <v>1246</v>
       </c>
@@ -14623,7 +14626,7 @@
       </c>
       <c r="F379" s="7"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" s="7" t="s">
         <v>1249</v>
       </c>
@@ -14641,7 +14644,7 @@
       </c>
       <c r="F380" s="7"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" s="7" t="s">
         <v>1252</v>
       </c>
@@ -14659,7 +14662,7 @@
       </c>
       <c r="F381" s="7"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" s="7" t="s">
         <v>1255</v>
       </c>
@@ -14677,7 +14680,7 @@
       </c>
       <c r="F382" s="7"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" s="7" t="s">
         <v>1258</v>
       </c>
@@ -14695,7 +14698,7 @@
       </c>
       <c r="F383" s="7"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" s="7" t="s">
         <v>1261</v>
       </c>
@@ -14713,7 +14716,7 @@
       </c>
       <c r="F384" s="7"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" s="7" t="s">
         <v>1264</v>
       </c>
@@ -14731,7 +14734,7 @@
       </c>
       <c r="F385" s="7"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" s="7" t="s">
         <v>1267</v>
       </c>
@@ -14749,7 +14752,7 @@
       </c>
       <c r="F386" s="7"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" s="7" t="s">
         <v>1270</v>
       </c>
@@ -14767,7 +14770,7 @@
       </c>
       <c r="F387" s="7"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" s="7" t="s">
         <v>1273</v>
       </c>
@@ -14785,7 +14788,7 @@
       </c>
       <c r="F388" s="7"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" s="7" t="s">
         <v>1276</v>
       </c>
@@ -14803,7 +14806,7 @@
       </c>
       <c r="F389" s="7"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" s="7" t="s">
         <v>1279</v>
       </c>
@@ -14821,7 +14824,7 @@
       </c>
       <c r="F390" s="7"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" s="7" t="s">
         <v>1282</v>
       </c>
@@ -14839,7 +14842,7 @@
       </c>
       <c r="F391" s="7"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" s="7" t="s">
         <v>1285</v>
       </c>
@@ -14857,7 +14860,7 @@
       </c>
       <c r="F392" s="7"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" s="7" t="s">
         <v>1288</v>
       </c>
@@ -14875,7 +14878,7 @@
       </c>
       <c r="F393" s="7"/>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" s="7" t="s">
         <v>1291</v>
       </c>
@@ -14893,7 +14896,7 @@
       </c>
       <c r="F394" s="7"/>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" s="7" t="s">
         <v>1294</v>
       </c>
@@ -14911,7 +14914,7 @@
       </c>
       <c r="F395" s="7"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" s="7" t="s">
         <v>1297</v>
       </c>
@@ -14929,7 +14932,7 @@
       </c>
       <c r="F396" s="7"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" s="7" t="s">
         <v>1300</v>
       </c>
@@ -14947,7 +14950,7 @@
       </c>
       <c r="F397" s="7"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" s="7" t="s">
         <v>1303</v>
       </c>
@@ -14965,7 +14968,7 @@
       </c>
       <c r="F398" s="7"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" s="7" t="s">
         <v>1306</v>
       </c>
@@ -14983,7 +14986,7 @@
       </c>
       <c r="F399" s="7"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" s="7" t="s">
         <v>1309</v>
       </c>
@@ -15001,7 +15004,7 @@
       </c>
       <c r="F400" s="7"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" s="7" t="s">
         <v>1312</v>
       </c>
@@ -15019,7 +15022,7 @@
       </c>
       <c r="F401" s="7"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" s="7" t="s">
         <v>1315</v>
       </c>
@@ -15037,7 +15040,7 @@
       </c>
       <c r="F402" s="7"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" s="7" t="s">
         <v>1318</v>
       </c>
@@ -15055,7 +15058,7 @@
       </c>
       <c r="F403" s="7"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" s="7" t="s">
         <v>1321</v>
       </c>
@@ -15073,7 +15076,7 @@
       </c>
       <c r="F404" s="7"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" s="7" t="s">
         <v>1324</v>
       </c>
@@ -15091,7 +15094,7 @@
       </c>
       <c r="F405" s="7"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="7" t="s">
         <v>1327</v>
       </c>
@@ -15109,7 +15112,7 @@
       </c>
       <c r="F406" s="7"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" s="7" t="s">
         <v>1330</v>
       </c>
@@ -15127,7 +15130,7 @@
       </c>
       <c r="F407" s="7"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" s="7" t="s">
         <v>1333</v>
       </c>
@@ -15145,7 +15148,7 @@
       </c>
       <c r="F408" s="7"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" s="7" t="s">
         <v>1336</v>
       </c>
@@ -15163,7 +15166,7 @@
       </c>
       <c r="F409" s="7"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" s="7" t="s">
         <v>1339</v>
       </c>
@@ -15181,7 +15184,7 @@
       </c>
       <c r="F410" s="7"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" s="7" t="s">
         <v>1342</v>
       </c>
@@ -15199,7 +15202,7 @@
       </c>
       <c r="F411" s="7"/>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" s="7" t="s">
         <v>1345</v>
       </c>
@@ -15217,7 +15220,7 @@
       </c>
       <c r="F412" s="7"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" s="7" t="s">
         <v>1348</v>
       </c>
@@ -15235,7 +15238,7 @@
       </c>
       <c r="F413" s="7"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" s="7" t="s">
         <v>1351</v>
       </c>
@@ -15253,7 +15256,7 @@
       </c>
       <c r="F414" s="7"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" s="7" t="s">
         <v>1354</v>
       </c>
@@ -15271,7 +15274,7 @@
       </c>
       <c r="F415" s="7"/>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" s="7" t="s">
         <v>1357</v>
       </c>
@@ -15289,7 +15292,7 @@
       </c>
       <c r="F416" s="7"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" s="7" t="s">
         <v>1359</v>
       </c>
@@ -15307,7 +15310,7 @@
       </c>
       <c r="F417" s="7"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" s="7" t="s">
         <v>1362</v>
       </c>
@@ -15325,7 +15328,7 @@
       </c>
       <c r="F418" s="7"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" s="7" t="s">
         <v>1365</v>
       </c>
@@ -15343,7 +15346,7 @@
       </c>
       <c r="F419" s="7"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" s="7" t="s">
         <v>1368</v>
       </c>
@@ -15361,7 +15364,7 @@
       </c>
       <c r="F420" s="7"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" s="7" t="s">
         <v>1371</v>
       </c>
@@ -15379,7 +15382,7 @@
       </c>
       <c r="F421" s="7"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" s="7" t="s">
         <v>1374</v>
       </c>
@@ -15397,7 +15400,7 @@
       </c>
       <c r="F422" s="7"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" s="7" t="s">
         <v>1377</v>
       </c>
@@ -15415,7 +15418,7 @@
       </c>
       <c r="F423" s="7"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" s="7" t="s">
         <v>1380</v>
       </c>
@@ -15433,7 +15436,7 @@
       </c>
       <c r="F424" s="7"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" s="7" t="s">
         <v>1383</v>
       </c>
@@ -15451,7 +15454,7 @@
       </c>
       <c r="F425" s="7"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" s="7" t="s">
         <v>1386</v>
       </c>
@@ -15469,7 +15472,7 @@
       </c>
       <c r="F426" s="7"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" s="7" t="s">
         <v>1389</v>
       </c>
@@ -15487,7 +15490,7 @@
       </c>
       <c r="F427" s="7"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" s="7" t="s">
         <v>1392</v>
       </c>
@@ -15505,7 +15508,7 @@
       </c>
       <c r="F428" s="7"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" s="7" t="s">
         <v>1395</v>
       </c>
@@ -15523,7 +15526,7 @@
       </c>
       <c r="F429" s="7"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" s="7" t="s">
         <v>1398</v>
       </c>
@@ -15541,7 +15544,7 @@
       </c>
       <c r="F430" s="7"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" s="7" t="s">
         <v>1401</v>
       </c>
@@ -15559,7 +15562,7 @@
       </c>
       <c r="F431" s="7"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" s="7" t="s">
         <v>1404</v>
       </c>
@@ -15577,7 +15580,7 @@
       </c>
       <c r="F432" s="7"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" s="7" t="s">
         <v>1407</v>
       </c>
@@ -15595,7 +15598,7 @@
       </c>
       <c r="F433" s="7"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" s="7" t="s">
         <v>1410</v>
       </c>
@@ -15613,7 +15616,7 @@
       </c>
       <c r="F434" s="7"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" s="7" t="s">
         <v>1413</v>
       </c>
@@ -15631,7 +15634,7 @@
       </c>
       <c r="F435" s="7"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" s="7" t="s">
         <v>1416</v>
       </c>
@@ -15649,7 +15652,7 @@
       </c>
       <c r="F436" s="7"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" s="7" t="s">
         <v>1419</v>
       </c>
@@ -15667,7 +15670,7 @@
       </c>
       <c r="F437" s="7"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" s="7" t="s">
         <v>1422</v>
       </c>
@@ -15685,7 +15688,7 @@
       </c>
       <c r="F438" s="7"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" s="7" t="s">
         <v>1425</v>
       </c>
@@ -15703,7 +15706,7 @@
       </c>
       <c r="F439" s="7"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" s="7" t="s">
         <v>1428</v>
       </c>
@@ -15721,7 +15724,7 @@
       </c>
       <c r="F440" s="7"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" s="7" t="s">
         <v>1431</v>
       </c>
@@ -15739,7 +15742,7 @@
       </c>
       <c r="F441" s="7"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" s="7" t="s">
         <v>1434</v>
       </c>
@@ -15757,7 +15760,7 @@
       </c>
       <c r="F442" s="7"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" s="7" t="s">
         <v>1437</v>
       </c>
@@ -15775,7 +15778,7 @@
       </c>
       <c r="F443" s="7"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" s="7" t="s">
         <v>1440</v>
       </c>
@@ -15793,7 +15796,7 @@
       </c>
       <c r="F444" s="7"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" s="7" t="s">
         <v>1443</v>
       </c>
@@ -15811,7 +15814,7 @@
       </c>
       <c r="F445" s="7"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" s="7" t="s">
         <v>1446</v>
       </c>
@@ -15829,7 +15832,7 @@
       </c>
       <c r="F446" s="7"/>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" s="7" t="s">
         <v>1449</v>
       </c>
@@ -15847,7 +15850,7 @@
       </c>
       <c r="F447" s="7"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" s="7" t="s">
         <v>1452</v>
       </c>
@@ -15865,7 +15868,7 @@
       </c>
       <c r="F448" s="7"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" s="7" t="s">
         <v>1455</v>
       </c>
@@ -15883,7 +15886,7 @@
       </c>
       <c r="F449" s="7"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" s="7" t="s">
         <v>1458</v>
       </c>
@@ -15901,7 +15904,7 @@
       </c>
       <c r="F450" s="7"/>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" s="7" t="s">
         <v>1461</v>
       </c>
@@ -15919,7 +15922,7 @@
       </c>
       <c r="F451" s="7"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" s="7" t="s">
         <v>1464</v>
       </c>
@@ -15937,7 +15940,7 @@
       </c>
       <c r="F452" s="7"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" s="7" t="s">
         <v>1467</v>
       </c>
@@ -15955,7 +15958,7 @@
       </c>
       <c r="F453" s="7"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" s="7" t="s">
         <v>1470</v>
       </c>
@@ -15973,7 +15976,7 @@
       </c>
       <c r="F454" s="7"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" s="7" t="s">
         <v>1473</v>
       </c>
@@ -15991,7 +15994,7 @@
       </c>
       <c r="F455" s="7"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" s="7" t="s">
         <v>1476</v>
       </c>
@@ -16009,7 +16012,7 @@
       </c>
       <c r="F456" s="7"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" s="7" t="s">
         <v>1478</v>
       </c>
@@ -16027,7 +16030,7 @@
       </c>
       <c r="F457" s="7"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" s="7" t="s">
         <v>1481</v>
       </c>
@@ -16045,7 +16048,7 @@
       </c>
       <c r="F458" s="7"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" s="7" t="s">
         <v>1483</v>
       </c>
@@ -16063,7 +16066,7 @@
       </c>
       <c r="F459" s="7"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" s="7" t="s">
         <v>1486</v>
       </c>
@@ -16081,7 +16084,7 @@
       </c>
       <c r="F460" s="7"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" s="7" t="s">
         <v>1489</v>
       </c>
@@ -16099,7 +16102,7 @@
       </c>
       <c r="F461" s="7"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" s="7" t="s">
         <v>1492</v>
       </c>
@@ -16117,7 +16120,7 @@
       </c>
       <c r="F462" s="7"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" s="7" t="s">
         <v>1495</v>
       </c>
@@ -16135,7 +16138,7 @@
       </c>
       <c r="F463" s="7"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" s="7" t="s">
         <v>1498</v>
       </c>
@@ -16153,7 +16156,7 @@
       </c>
       <c r="F464" s="7"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" s="7" t="s">
         <v>1501</v>
       </c>
@@ -16171,7 +16174,7 @@
       </c>
       <c r="F465" s="7"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" s="7" t="s">
         <v>1504</v>
       </c>
@@ -16189,7 +16192,7 @@
       </c>
       <c r="F466" s="7"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" s="7" t="s">
         <v>1507</v>
       </c>
@@ -16207,7 +16210,7 @@
       </c>
       <c r="F467" s="7"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" s="7" t="s">
         <v>1510</v>
       </c>
@@ -16225,7 +16228,7 @@
       </c>
       <c r="F468" s="7"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" s="7" t="s">
         <v>1513</v>
       </c>
@@ -16243,7 +16246,7 @@
       </c>
       <c r="F469" s="7"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470" s="7" t="s">
         <v>1516</v>
       </c>
@@ -16261,7 +16264,7 @@
       </c>
       <c r="F470" s="7"/>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" s="7" t="s">
         <v>1519</v>
       </c>
@@ -16279,7 +16282,7 @@
       </c>
       <c r="F471" s="7"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472" s="7" t="s">
         <v>1522</v>
       </c>
@@ -16297,7 +16300,7 @@
       </c>
       <c r="F472" s="7"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" s="7" t="s">
         <v>1525</v>
       </c>
@@ -16315,7 +16318,7 @@
       </c>
       <c r="F473" s="7"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" s="7" t="s">
         <v>1528</v>
       </c>
@@ -16333,7 +16336,7 @@
       </c>
       <c r="F474" s="7"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" s="7" t="s">
         <v>1531</v>
       </c>
@@ -16351,7 +16354,7 @@
       </c>
       <c r="F475" s="7"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" s="7" t="s">
         <v>1533</v>
       </c>
@@ -16369,7 +16372,7 @@
       </c>
       <c r="F476" s="7"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" s="7" t="s">
         <v>1536</v>
       </c>
@@ -16387,7 +16390,7 @@
       </c>
       <c r="F477" s="7"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478" s="7" t="s">
         <v>1539</v>
       </c>
@@ -16405,7 +16408,7 @@
       </c>
       <c r="F478" s="7"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" s="7" t="s">
         <v>1542</v>
       </c>
@@ -16423,7 +16426,7 @@
       </c>
       <c r="F479" s="7"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" s="7" t="s">
         <v>1545</v>
       </c>
@@ -16441,7 +16444,7 @@
       </c>
       <c r="F480" s="7"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481" s="7" t="s">
         <v>1547</v>
       </c>
@@ -16459,7 +16462,7 @@
       </c>
       <c r="F481" s="7"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482" s="7" t="s">
         <v>1550</v>
       </c>
@@ -16477,7 +16480,7 @@
       </c>
       <c r="F482" s="7"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483" s="7" t="s">
         <v>1553</v>
       </c>
@@ -16495,7 +16498,7 @@
       </c>
       <c r="F483" s="7"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484" s="7" t="s">
         <v>1556</v>
       </c>
@@ -16513,7 +16516,7 @@
       </c>
       <c r="F484" s="7"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485" s="7" t="s">
         <v>1559</v>
       </c>
@@ -16531,7 +16534,7 @@
       </c>
       <c r="F485" s="7"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486" s="7" t="s">
         <v>1562</v>
       </c>
@@ -16549,7 +16552,7 @@
       </c>
       <c r="F486" s="7"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487" s="7" t="s">
         <v>1565</v>
       </c>
@@ -16567,7 +16570,7 @@
       </c>
       <c r="F487" s="7"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488" s="7" t="s">
         <v>1568</v>
       </c>
@@ -16585,7 +16588,7 @@
       </c>
       <c r="F488" s="7"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489" s="7" t="s">
         <v>1571</v>
       </c>
@@ -16603,7 +16606,7 @@
       </c>
       <c r="F489" s="7"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490" s="7" t="s">
         <v>1574</v>
       </c>
@@ -16621,7 +16624,7 @@
       </c>
       <c r="F490" s="7"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491" s="7" t="s">
         <v>1577</v>
       </c>
@@ -16639,7 +16642,7 @@
       </c>
       <c r="F491" s="7"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492" s="7" t="s">
         <v>1580</v>
       </c>
@@ -16657,7 +16660,7 @@
       </c>
       <c r="F492" s="7"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493" s="7" t="s">
         <v>1583</v>
       </c>
@@ -16675,7 +16678,7 @@
       </c>
       <c r="F493" s="7"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494" s="7" t="s">
         <v>1586</v>
       </c>
@@ -16693,7 +16696,7 @@
       </c>
       <c r="F494" s="7"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495" s="7" t="s">
         <v>1589</v>
       </c>
@@ -16711,7 +16714,7 @@
       </c>
       <c r="F495" s="7"/>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496" s="7" t="s">
         <v>1592</v>
       </c>
@@ -16729,7 +16732,7 @@
       </c>
       <c r="F496" s="7"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497" s="7" t="s">
         <v>1595</v>
       </c>
@@ -16747,7 +16750,7 @@
       </c>
       <c r="F497" s="7"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498" s="7" t="s">
         <v>1598</v>
       </c>
@@ -16765,7 +16768,7 @@
       </c>
       <c r="F498" s="7"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A499" s="7" t="s">
         <v>1601</v>
       </c>
@@ -16783,7 +16786,7 @@
       </c>
       <c r="F499" s="7"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A500" s="7" t="s">
         <v>1604</v>
       </c>
@@ -16801,7 +16804,7 @@
       </c>
       <c r="F500" s="7"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A501" s="7" t="s">
         <v>1607</v>
       </c>
@@ -16819,7 +16822,7 @@
       </c>
       <c r="F501" s="7"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A502" s="7" t="s">
         <v>1610</v>
       </c>
@@ -16837,7 +16840,7 @@
       </c>
       <c r="F502" s="7"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A503" s="7" t="s">
         <v>1613</v>
       </c>
@@ -16855,7 +16858,7 @@
       </c>
       <c r="F503" s="7"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A504" s="7" t="s">
         <v>1616</v>
       </c>
@@ -16873,7 +16876,7 @@
       </c>
       <c r="F504" s="7"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A505" s="7" t="s">
         <v>1619</v>
       </c>
@@ -16891,7 +16894,7 @@
       </c>
       <c r="F505" s="7"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A506" s="7" t="s">
         <v>1622</v>
       </c>
@@ -16909,7 +16912,7 @@
       </c>
       <c r="F506" s="7"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A507" s="7" t="s">
         <v>1625</v>
       </c>
@@ -16927,7 +16930,7 @@
       </c>
       <c r="F507" s="7"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A508" s="7" t="s">
         <v>1628</v>
       </c>
@@ -16945,7 +16948,7 @@
       </c>
       <c r="F508" s="7"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A509" s="7" t="s">
         <v>1631</v>
       </c>
@@ -16963,7 +16966,7 @@
       </c>
       <c r="F509" s="7"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A510" s="7" t="s">
         <v>1634</v>
       </c>
@@ -16981,7 +16984,7 @@
       </c>
       <c r="F510" s="7"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A511" s="7" t="s">
         <v>1637</v>
       </c>
@@ -16999,7 +17002,7 @@
       </c>
       <c r="F511" s="7"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A512" s="7" t="s">
         <v>1640</v>
       </c>
@@ -17017,7 +17020,7 @@
       </c>
       <c r="F512" s="7"/>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A513" s="7" t="s">
         <v>1643</v>
       </c>
@@ -17035,7 +17038,7 @@
       </c>
       <c r="F513" s="7"/>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A514" s="7" t="s">
         <v>1646</v>
       </c>
@@ -17053,7 +17056,7 @@
       </c>
       <c r="F514" s="7"/>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A515" s="7" t="s">
         <v>1649</v>
       </c>
@@ -17071,7 +17074,7 @@
       </c>
       <c r="F515" s="7"/>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A516" s="7" t="s">
         <v>1652</v>
       </c>
@@ -17089,7 +17092,7 @@
       </c>
       <c r="F516" s="7"/>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A517" s="7" t="s">
         <v>1655</v>
       </c>
@@ -17107,7 +17110,7 @@
       </c>
       <c r="F517" s="7"/>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A518" s="7" t="s">
         <v>1658</v>
       </c>
@@ -17125,7 +17128,7 @@
       </c>
       <c r="F518" s="7"/>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A519" s="7" t="s">
         <v>1661</v>
       </c>
@@ -17143,7 +17146,7 @@
       </c>
       <c r="F519" s="7"/>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A520" s="7" t="s">
         <v>1664</v>
       </c>
@@ -17161,7 +17164,7 @@
       </c>
       <c r="F520" s="7"/>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A521" s="7" t="s">
         <v>1667</v>
       </c>
@@ -17179,7 +17182,7 @@
       </c>
       <c r="F521" s="7"/>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A522" s="7" t="s">
         <v>1670</v>
       </c>
@@ -17197,7 +17200,7 @@
       </c>
       <c r="F522" s="7"/>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A523" s="7" t="s">
         <v>1673</v>
       </c>
@@ -17215,7 +17218,7 @@
       </c>
       <c r="F523" s="7"/>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A524" s="7" t="s">
         <v>1676</v>
       </c>
@@ -17233,7 +17236,7 @@
       </c>
       <c r="F524" s="7"/>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A525" s="7" t="s">
         <v>1679</v>
       </c>
@@ -17251,7 +17254,7 @@
       </c>
       <c r="F525" s="7"/>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A526" s="7" t="s">
         <v>1682</v>
       </c>
@@ -17269,7 +17272,7 @@
       </c>
       <c r="F526" s="7"/>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A527" s="7" t="s">
         <v>1685</v>
       </c>
@@ -17287,7 +17290,7 @@
       </c>
       <c r="F527" s="7"/>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A528" s="7" t="s">
         <v>1688</v>
       </c>
@@ -17305,7 +17308,7 @@
       </c>
       <c r="F528" s="7"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529" s="7" t="s">
         <v>1691</v>
       </c>
@@ -17323,7 +17326,7 @@
       </c>
       <c r="F529" s="7"/>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A530" s="7" t="s">
         <v>1694</v>
       </c>
@@ -17341,7 +17344,7 @@
       </c>
       <c r="F530" s="7"/>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A531" s="7" t="s">
         <v>1697</v>
       </c>
@@ -17359,7 +17362,7 @@
       </c>
       <c r="F531" s="7"/>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A532" s="7" t="s">
         <v>1700</v>
       </c>
@@ -17377,7 +17380,7 @@
       </c>
       <c r="F532" s="7"/>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A533" s="7" t="s">
         <v>1703</v>
       </c>
@@ -17395,7 +17398,7 @@
       </c>
       <c r="F533" s="7"/>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A534" s="7" t="s">
         <v>1706</v>
       </c>
@@ -17413,7 +17416,7 @@
       </c>
       <c r="F534" s="7"/>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A535" s="7" t="s">
         <v>1709</v>
       </c>
@@ -17431,7 +17434,7 @@
       </c>
       <c r="F535" s="7"/>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A536" s="7" t="s">
         <v>1712</v>
       </c>
@@ -17449,7 +17452,7 @@
       </c>
       <c r="F536" s="7"/>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537" s="7" t="s">
         <v>1715</v>
       </c>
@@ -17467,7 +17470,7 @@
       </c>
       <c r="F537" s="7"/>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A538" s="7" t="s">
         <v>1718</v>
       </c>
@@ -17485,7 +17488,7 @@
       </c>
       <c r="F538" s="7"/>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A539" s="7" t="s">
         <v>1721</v>
       </c>
@@ -17503,7 +17506,7 @@
       </c>
       <c r="F539" s="7"/>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A540" s="7" t="s">
         <v>1724</v>
       </c>
@@ -17521,7 +17524,7 @@
       </c>
       <c r="F540" s="7"/>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A541" s="7" t="s">
         <v>1727</v>
       </c>
@@ -17539,7 +17542,7 @@
       </c>
       <c r="F541" s="7"/>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A542" s="7" t="s">
         <v>1730</v>
       </c>
@@ -17557,7 +17560,7 @@
       </c>
       <c r="F542" s="7"/>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A543" s="7" t="s">
         <v>1733</v>
       </c>
@@ -17575,7 +17578,7 @@
       </c>
       <c r="F543" s="7"/>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544" s="7" t="s">
         <v>1736</v>
       </c>
@@ -17593,7 +17596,7 @@
       </c>
       <c r="F544" s="7"/>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A545" s="7" t="s">
         <v>1739</v>
       </c>
@@ -17611,7 +17614,7 @@
       </c>
       <c r="F545" s="7"/>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A546" s="7" t="s">
         <v>1742</v>
       </c>
@@ -17629,7 +17632,7 @@
       </c>
       <c r="F546" s="7"/>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A547" s="7" t="s">
         <v>1745</v>
       </c>
@@ -17647,7 +17650,7 @@
       </c>
       <c r="F547" s="7"/>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A548" s="7" t="s">
         <v>1748</v>
       </c>
@@ -17665,7 +17668,7 @@
       </c>
       <c r="F548" s="7"/>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A549" s="7" t="s">
         <v>1751</v>
       </c>
@@ -17683,7 +17686,7 @@
       </c>
       <c r="F549" s="7"/>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A550" s="7" t="s">
         <v>1754</v>
       </c>
@@ -17701,7 +17704,7 @@
       </c>
       <c r="F550" s="7"/>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A551" s="7" t="s">
         <v>1757</v>
       </c>
@@ -17719,7 +17722,7 @@
       </c>
       <c r="F551" s="7"/>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A552" s="7" t="s">
         <v>1760</v>
       </c>
@@ -17737,7 +17740,7 @@
       </c>
       <c r="F552" s="7"/>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A553" s="7" t="s">
         <v>1763</v>
       </c>
@@ -17755,7 +17758,7 @@
       </c>
       <c r="F553" s="7"/>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A554" s="7" t="s">
         <v>1765</v>
       </c>
@@ -17773,7 +17776,7 @@
       </c>
       <c r="F554" s="7"/>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A555" s="7" t="s">
         <v>1768</v>
       </c>
@@ -17791,7 +17794,7 @@
       </c>
       <c r="F555" s="7"/>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A556" s="7" t="s">
         <v>1771</v>
       </c>
@@ -17809,7 +17812,7 @@
       </c>
       <c r="F556" s="7"/>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A557" s="7" t="s">
         <v>1774</v>
       </c>
@@ -17827,7 +17830,7 @@
       </c>
       <c r="F557" s="7"/>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A558" s="7" t="s">
         <v>1777</v>
       </c>
@@ -17845,7 +17848,7 @@
       </c>
       <c r="F558" s="7"/>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A559" s="7" t="s">
         <v>1780</v>
       </c>
@@ -17863,7 +17866,7 @@
       </c>
       <c r="F559" s="7"/>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A560" s="7" t="s">
         <v>1783</v>
       </c>
@@ -17881,7 +17884,7 @@
       </c>
       <c r="F560" s="7"/>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A561" s="7" t="s">
         <v>1786</v>
       </c>
@@ -17899,7 +17902,7 @@
       </c>
       <c r="F561" s="7"/>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A562" s="7" t="s">
         <v>1789</v>
       </c>
@@ -17917,7 +17920,7 @@
       </c>
       <c r="F562" s="7"/>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A563" s="7" t="s">
         <v>1792</v>
       </c>
@@ -17935,7 +17938,7 @@
       </c>
       <c r="F563" s="7"/>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A564" s="7" t="s">
         <v>1795</v>
       </c>
@@ -17953,7 +17956,7 @@
       </c>
       <c r="F564" s="7"/>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A565" s="7" t="s">
         <v>1798</v>
       </c>
@@ -17971,7 +17974,7 @@
       </c>
       <c r="F565" s="7"/>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A566" s="7" t="s">
         <v>1801</v>
       </c>
@@ -17989,7 +17992,7 @@
       </c>
       <c r="F566" s="7"/>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A567" s="7" t="s">
         <v>1804</v>
       </c>
@@ -18007,7 +18010,7 @@
       </c>
       <c r="F567" s="7"/>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A568" s="7" t="s">
         <v>1807</v>
       </c>
@@ -18025,7 +18028,7 @@
       </c>
       <c r="F568" s="7"/>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A569" s="7" t="s">
         <v>1810</v>
       </c>
@@ -18043,7 +18046,7 @@
       </c>
       <c r="F569" s="7"/>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A570" s="7" t="s">
         <v>1813</v>
       </c>
@@ -18061,7 +18064,7 @@
       </c>
       <c r="F570" s="7"/>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A571" s="7" t="s">
         <v>1816</v>
       </c>
@@ -18079,7 +18082,7 @@
       </c>
       <c r="F571" s="7"/>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A572" s="7" t="s">
         <v>1819</v>
       </c>
@@ -18097,7 +18100,7 @@
       </c>
       <c r="F572" s="7"/>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A573" s="7" t="s">
         <v>1821</v>
       </c>
@@ -18115,7 +18118,7 @@
       </c>
       <c r="F573" s="7"/>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A574" s="7" t="s">
         <v>1824</v>
       </c>
@@ -18133,7 +18136,7 @@
       </c>
       <c r="F574" s="7"/>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A575" s="7" t="s">
         <v>1827</v>
       </c>
@@ -18151,7 +18154,7 @@
       </c>
       <c r="F575" s="7"/>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A576" s="7" t="s">
         <v>1830</v>
       </c>
@@ -18169,7 +18172,7 @@
       </c>
       <c r="F576" s="7"/>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A577" s="7" t="s">
         <v>1833</v>
       </c>
@@ -18187,7 +18190,7 @@
       </c>
       <c r="F577" s="7"/>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578" s="7" t="s">
         <v>1836</v>
       </c>
@@ -18205,7 +18208,7 @@
       </c>
       <c r="F578" s="7"/>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A579" s="7" t="s">
         <v>1839</v>
       </c>
@@ -18223,7 +18226,7 @@
       </c>
       <c r="F579" s="7"/>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A580" s="7" t="s">
         <v>1842</v>
       </c>
@@ -18241,7 +18244,7 @@
       </c>
       <c r="F580" s="7"/>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A581" s="7" t="s">
         <v>1845</v>
       </c>
@@ -18259,7 +18262,7 @@
       </c>
       <c r="F581" s="7"/>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A582" s="7" t="s">
         <v>1848</v>
       </c>
@@ -18277,7 +18280,7 @@
       </c>
       <c r="F582" s="7"/>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A583" s="7" t="s">
         <v>1851</v>
       </c>
@@ -18295,7 +18298,7 @@
       </c>
       <c r="F583" s="7"/>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A584" s="7" t="s">
         <v>1854</v>
       </c>
@@ -18313,7 +18316,7 @@
       </c>
       <c r="F584" s="7"/>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A585" s="7" t="s">
         <v>1857</v>
       </c>
@@ -18331,7 +18334,7 @@
       </c>
       <c r="F585" s="7"/>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A586" s="7" t="s">
         <v>1860</v>
       </c>
@@ -18349,7 +18352,7 @@
       </c>
       <c r="F586" s="7"/>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A587" s="7" t="s">
         <v>1863</v>
       </c>
@@ -18367,7 +18370,7 @@
       </c>
       <c r="F587" s="7"/>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A588" s="7" t="s">
         <v>1865</v>
       </c>
@@ -18385,7 +18388,7 @@
       </c>
       <c r="F588" s="7"/>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A589" s="7" t="s">
         <v>1868</v>
       </c>
@@ -18403,7 +18406,7 @@
       </c>
       <c r="F589" s="7"/>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A590" s="7" t="s">
         <v>1871</v>
       </c>
@@ -18419,7 +18422,7 @@
       </c>
       <c r="F590" s="7"/>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A591" s="7" t="s">
         <v>1874</v>
       </c>
@@ -18435,7 +18438,7 @@
       </c>
       <c r="F591" s="7"/>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A592" s="7" t="s">
         <v>1877</v>
       </c>
@@ -18451,7 +18454,7 @@
       </c>
       <c r="F592" s="7"/>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A593" s="7" t="s">
         <v>1880</v>
       </c>
@@ -18467,7 +18470,7 @@
       </c>
       <c r="F593" s="7"/>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594" s="7" t="s">
         <v>1883</v>
       </c>
@@ -18483,7 +18486,7 @@
       </c>
       <c r="F594" s="7"/>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595" s="7" t="s">
         <v>1886</v>
       </c>
@@ -18499,7 +18502,7 @@
       </c>
       <c r="F595" s="7"/>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A596" s="7" t="s">
         <v>1889</v>
       </c>
@@ -18515,7 +18518,7 @@
       </c>
       <c r="F596" s="7"/>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A597" s="7" t="s">
         <v>1892</v>
       </c>
@@ -18531,7 +18534,7 @@
       </c>
       <c r="F597" s="7"/>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598" s="7" t="s">
         <v>1895</v>
       </c>
@@ -18547,7 +18550,7 @@
       </c>
       <c r="F598" s="7"/>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A599" s="7" t="s">
         <v>1898</v>
       </c>
@@ -18563,7 +18566,7 @@
       </c>
       <c r="F599" s="7"/>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A600" s="7" t="s">
         <v>1901</v>
       </c>
@@ -18579,7 +18582,7 @@
       </c>
       <c r="F600" s="7"/>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A601" s="7" t="s">
         <v>1904</v>
       </c>
@@ -18595,7 +18598,7 @@
       </c>
       <c r="F601" s="7"/>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A602" s="7" t="s">
         <v>1906</v>
       </c>
@@ -18611,7 +18614,7 @@
       </c>
       <c r="F602" s="7"/>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603" s="7" t="s">
         <v>1909</v>
       </c>
@@ -18627,7 +18630,7 @@
       </c>
       <c r="F603" s="7"/>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A604" s="7" t="s">
         <v>1912</v>
       </c>
@@ -18643,7 +18646,7 @@
       </c>
       <c r="F604" s="7"/>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A605" s="7" t="s">
         <v>1915</v>
       </c>
@@ -18659,7 +18662,7 @@
       </c>
       <c r="F605" s="7"/>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A606" s="7" t="s">
         <v>1918</v>
       </c>
@@ -18675,7 +18678,7 @@
       </c>
       <c r="F606" s="7"/>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A607" s="7" t="s">
         <v>1921</v>
       </c>
@@ -18691,7 +18694,7 @@
       </c>
       <c r="F607" s="7"/>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A608" s="7" t="s">
         <v>1924</v>
       </c>
@@ -18707,7 +18710,7 @@
       </c>
       <c r="F608" s="7"/>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A609" s="7" t="s">
         <v>1927</v>
       </c>
@@ -18723,7 +18726,7 @@
       </c>
       <c r="F609" s="7"/>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A610" s="7" t="s">
         <v>1930</v>
       </c>
@@ -18757,15 +18760,15 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18773,7 +18776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -18781,7 +18784,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -18789,7 +18792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -18797,7 +18800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -18805,13 +18808,13 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -18819,13 +18822,13 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -18839,7 +18842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18851,7 +18854,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18863,7 +18866,7 @@
       </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18875,7 +18878,7 @@
       </c>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18887,7 +18890,7 @@
       </c>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18899,7 +18902,7 @@
       </c>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18911,7 +18914,7 @@
       </c>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18923,7 +18926,7 @@
       </c>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18935,7 +18938,7 @@
       </c>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18947,7 +18950,7 @@
       </c>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18959,7 +18962,7 @@
       </c>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18971,7 +18974,7 @@
       </c>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18983,7 +18986,7 @@
       </c>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18995,7 +18998,7 @@
       </c>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>1935</v>
       </c>
@@ -19007,7 +19010,7 @@
       </c>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>1935</v>
       </c>
@@ -19019,7 +19022,7 @@
       </c>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>1935</v>
       </c>
@@ -19040,67 +19043,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f8b6baa267c0456bbf6a8d18c49a130b>
-    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
-    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p671c8df16a44846939d278d4958f62c>
-    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b2804ef99be44b9e8166e80a6c2eb9f1>
-    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mc4aa6e782e045f6bb87dab01c971b56>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m312bc62cb0243b6a873cbbf4dace6b2>
-    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b084a4cb34a444d7969136255594d2f3>
-    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g30fb2d8061a4d40b63138f91c1a832e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m9a76db3058146ae844db6599c9d7036>
-    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l0a6b4600f484920bbceae0813174244>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="5a233c5be867259e7f523794110a7773">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71fc54e2a62b1985aea6da9d2195ce0c" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19514,10 +19456,83 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98F885D4-EF3D-4686-B5F6-1FDD2BF41E71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE15430E-EDEB-4525-8A05-D19415B9D64D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19525,21 +19540,25 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A3BBB1E-C9DF-4117-9187-A8DD65EB643C}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE15430E-EDEB-4525-8A05-D19415B9D64D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98F885D4-EF3D-4686-B5F6-1FDD2BF41E71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/nomenclature_parser/in/Nomenclatures EMSI RESOURCE.xlsx
+++ b/nomenclature_parser/in/Nomenclatures EMSI RESOURCE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1199" documentId="8_{4FA08952-AD8A-4EC5-BA39-9F1D18567017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC0C16AC-E0BE-2D44-9F16-A840D6875D8C}"/>
+  <xr:revisionPtr revIDLastSave="1198" documentId="8_{4FA08952-AD8A-4EC5-BA39-9F1D18567017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DE8F1C0-786A-428A-81D4-2B3C3155A5AA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E3A59C1D-DF4F-40E3-A908-700669E2F1F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E3A59C1D-DF4F-40E3-A908-700669E2F1F4}"/>
   </bookViews>
   <sheets>
     <sheet name="RESOURCE.UM" sheetId="6" r:id="rId1"/>
@@ -45,9 +45,9 @@
   <commentList>
     <comment ref="A520" authorId="0" shapeId="0" xr:uid="{A1A63B83-8E84-4021-B9EA-CDD31A45BF58}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     VSAV</t>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="1969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="1968">
   <si>
     <t>Référentiel nomenclature</t>
   </si>
@@ -5960,9 +5960,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Cette capacité s'applique à un véhicule ou à une remorque. Elle indique que le véhicule est destiné à être utilisé uniquement sur des routes (pas en tout-terrain).</t>
-  </si>
-  <si>
-    <t>FAC/OPR/HSPFLD2</t>
   </si>
 </sst>
 </file>
@@ -6082,7 +6079,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="60% - Accent5" xfId="1" builtinId="48"/>
+    <cellStyle name="60 % - Accent5" xfId="1" builtinId="48"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
@@ -6742,9 +6739,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6782,7 +6779,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6888,7 +6885,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7030,7 +7027,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7052,16 +7049,16 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7070,7 +7067,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7079,7 +7076,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -7088,7 +7085,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -7097,7 +7094,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -7106,14 +7103,14 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -7122,14 +7119,14 @@
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -7146,7 +7143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -7159,7 +7156,7 @@
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
@@ -7172,7 +7169,7 @@
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
@@ -7185,7 +7182,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -7198,7 +7195,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
@@ -7211,7 +7208,7 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
@@ -7226,7 +7223,7 @@
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
@@ -7241,7 +7238,7 @@
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -7256,7 +7253,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -7271,7 +7268,7 @@
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>39</v>
       </c>
@@ -7286,7 +7283,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>41</v>
       </c>
@@ -7301,7 +7298,7 @@
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>44</v>
       </c>
@@ -7316,7 +7313,7 @@
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>47</v>
       </c>
@@ -7331,7 +7328,7 @@
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
@@ -7346,7 +7343,7 @@
       </c>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
@@ -7361,7 +7358,7 @@
       </c>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>55</v>
       </c>
@@ -7376,7 +7373,7 @@
       </c>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>58</v>
       </c>
@@ -7391,7 +7388,7 @@
       </c>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>61</v>
       </c>
@@ -7406,7 +7403,7 @@
       </c>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>63</v>
       </c>
@@ -7421,7 +7418,7 @@
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>65</v>
       </c>
@@ -7436,7 +7433,7 @@
       </c>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>68</v>
       </c>
@@ -7451,7 +7448,7 @@
       </c>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>70</v>
       </c>
@@ -7466,7 +7463,7 @@
       </c>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>73</v>
       </c>
@@ -7481,7 +7478,7 @@
       </c>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>76</v>
       </c>
@@ -7496,7 +7493,7 @@
       </c>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>79</v>
       </c>
@@ -7511,7 +7508,7 @@
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>82</v>
       </c>
@@ -7526,7 +7523,7 @@
       </c>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>85</v>
       </c>
@@ -7541,7 +7538,7 @@
       </c>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>88</v>
       </c>
@@ -7556,7 +7553,7 @@
       </c>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>91</v>
       </c>
@@ -7571,7 +7568,7 @@
       </c>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>94</v>
       </c>
@@ -7586,7 +7583,7 @@
       </c>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>97</v>
       </c>
@@ -7601,7 +7598,7 @@
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>100</v>
       </c>
@@ -7616,7 +7613,7 @@
       </c>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>103</v>
       </c>
@@ -7631,7 +7628,7 @@
       </c>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>106</v>
       </c>
@@ -7646,7 +7643,7 @@
       </c>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>108</v>
       </c>
@@ -7661,7 +7658,7 @@
       </c>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>111</v>
       </c>
@@ -7676,7 +7673,7 @@
       </c>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>114</v>
       </c>
@@ -7691,7 +7688,7 @@
       </c>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>117</v>
       </c>
@@ -7706,7 +7703,7 @@
       </c>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>120</v>
       </c>
@@ -7721,7 +7718,7 @@
       </c>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>123</v>
       </c>
@@ -7736,7 +7733,7 @@
       </c>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>126</v>
       </c>
@@ -7751,7 +7748,7 @@
       </c>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>129</v>
       </c>
@@ -7766,7 +7763,7 @@
       </c>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>132</v>
       </c>
@@ -7781,7 +7778,7 @@
       </c>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>135</v>
       </c>
@@ -7796,7 +7793,7 @@
       </c>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>137</v>
       </c>
@@ -7811,7 +7808,7 @@
       </c>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>140</v>
       </c>
@@ -7826,7 +7823,7 @@
       </c>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>143</v>
       </c>
@@ -7841,7 +7838,7 @@
       </c>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>145</v>
       </c>
@@ -7856,7 +7853,7 @@
       </c>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>148</v>
       </c>
@@ -7871,7 +7868,7 @@
       </c>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>151</v>
       </c>
@@ -7898,21 +7895,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CB9E0D-B8DC-4CCE-8710-BDDD2261629F}">
   <dimension ref="A1:F610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="90.83203125" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="90.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7922,7 +7919,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7932,7 +7929,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -7942,7 +7939,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -7952,7 +7949,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -7962,7 +7959,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -7970,7 +7967,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -7980,7 +7977,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -7988,7 +7985,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -8008,7 +8005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>157</v>
       </c>
@@ -8022,7 +8019,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>160</v>
       </c>
@@ -8036,7 +8033,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>163</v>
       </c>
@@ -8050,7 +8047,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>166</v>
       </c>
@@ -8064,7 +8061,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>169</v>
       </c>
@@ -8080,7 +8077,7 @@
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>172</v>
       </c>
@@ -8096,7 +8093,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>175</v>
       </c>
@@ -8112,7 +8109,7 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>178</v>
       </c>
@@ -8128,7 +8125,7 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>181</v>
       </c>
@@ -8144,7 +8141,7 @@
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>184</v>
       </c>
@@ -8160,7 +8157,7 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>187</v>
       </c>
@@ -8176,7 +8173,7 @@
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>190</v>
       </c>
@@ -8194,7 +8191,7 @@
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>193</v>
       </c>
@@ -8212,7 +8209,7 @@
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>196</v>
       </c>
@@ -8230,7 +8227,7 @@
       </c>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>199</v>
       </c>
@@ -8248,7 +8245,7 @@
       </c>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>202</v>
       </c>
@@ -8266,7 +8263,7 @@
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>205</v>
       </c>
@@ -8284,7 +8281,7 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>208</v>
       </c>
@@ -8302,7 +8299,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>211</v>
       </c>
@@ -8320,7 +8317,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>214</v>
       </c>
@@ -8338,7 +8335,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>217</v>
       </c>
@@ -8356,7 +8353,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>220</v>
       </c>
@@ -8374,7 +8371,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>223</v>
       </c>
@@ -8392,7 +8389,7 @@
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>226</v>
       </c>
@@ -8410,7 +8407,7 @@
       </c>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>229</v>
       </c>
@@ -8428,7 +8425,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>231</v>
       </c>
@@ -8446,7 +8443,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>234</v>
       </c>
@@ -8464,7 +8461,7 @@
       </c>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>237</v>
       </c>
@@ -8482,7 +8479,7 @@
       </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>240</v>
       </c>
@@ -8500,7 +8497,7 @@
       </c>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>243</v>
       </c>
@@ -8518,7 +8515,7 @@
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>246</v>
       </c>
@@ -8536,7 +8533,7 @@
       </c>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>249</v>
       </c>
@@ -8554,7 +8551,7 @@
       </c>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>252</v>
       </c>
@@ -8572,7 +8569,7 @@
       </c>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>255</v>
       </c>
@@ -8590,7 +8587,7 @@
       </c>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>258</v>
       </c>
@@ -8608,7 +8605,7 @@
       </c>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>261</v>
       </c>
@@ -8626,7 +8623,7 @@
       </c>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>264</v>
       </c>
@@ -8644,7 +8641,7 @@
       </c>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>267</v>
       </c>
@@ -8662,7 +8659,7 @@
       </c>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>270</v>
       </c>
@@ -8680,7 +8677,7 @@
       </c>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>273</v>
       </c>
@@ -8698,7 +8695,7 @@
       </c>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>276</v>
       </c>
@@ -8716,7 +8713,7 @@
       </c>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>279</v>
       </c>
@@ -8734,7 +8731,7 @@
       </c>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>282</v>
       </c>
@@ -8752,7 +8749,7 @@
       </c>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>285</v>
       </c>
@@ -8770,7 +8767,7 @@
       </c>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>288</v>
       </c>
@@ -8788,7 +8785,7 @@
       </c>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>291</v>
       </c>
@@ -8806,7 +8803,7 @@
       </c>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>294</v>
       </c>
@@ -8824,7 +8821,7 @@
       </c>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>296</v>
       </c>
@@ -8842,7 +8839,7 @@
       </c>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>299</v>
       </c>
@@ -8860,7 +8857,7 @@
       </c>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>301</v>
       </c>
@@ -8878,7 +8875,7 @@
       </c>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>304</v>
       </c>
@@ -8896,7 +8893,7 @@
       </c>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>307</v>
       </c>
@@ -8914,7 +8911,7 @@
       </c>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>310</v>
       </c>
@@ -8932,7 +8929,7 @@
       </c>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>313</v>
       </c>
@@ -8950,7 +8947,7 @@
       </c>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>316</v>
       </c>
@@ -8968,7 +8965,7 @@
       </c>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>319</v>
       </c>
@@ -8986,7 +8983,7 @@
       </c>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>322</v>
       </c>
@@ -9004,7 +9001,7 @@
       </c>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>325</v>
       </c>
@@ -9022,7 +9019,7 @@
       </c>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>328</v>
       </c>
@@ -9040,7 +9037,7 @@
       </c>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>330</v>
       </c>
@@ -9058,7 +9055,7 @@
       </c>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>333</v>
       </c>
@@ -9076,7 +9073,7 @@
       </c>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>335</v>
       </c>
@@ -9094,7 +9091,7 @@
       </c>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>338</v>
       </c>
@@ -9112,7 +9109,7 @@
       </c>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>341</v>
       </c>
@@ -9130,7 +9127,7 @@
       </c>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>344</v>
       </c>
@@ -9148,7 +9145,7 @@
       </c>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>347</v>
       </c>
@@ -9166,7 +9163,7 @@
       </c>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>350</v>
       </c>
@@ -9184,7 +9181,7 @@
       </c>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>353</v>
       </c>
@@ -9202,7 +9199,7 @@
       </c>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>356</v>
       </c>
@@ -9220,7 +9217,7 @@
       </c>
       <c r="F78" s="7"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>358</v>
       </c>
@@ -9238,7 +9235,7 @@
       </c>
       <c r="F79" s="7"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>361</v>
       </c>
@@ -9256,7 +9253,7 @@
       </c>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>363</v>
       </c>
@@ -9274,7 +9271,7 @@
       </c>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>366</v>
       </c>
@@ -9292,7 +9289,7 @@
       </c>
       <c r="F82" s="7"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>369</v>
       </c>
@@ -9310,7 +9307,7 @@
       </c>
       <c r="F83" s="7"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>372</v>
       </c>
@@ -9328,7 +9325,7 @@
       </c>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>375</v>
       </c>
@@ -9346,7 +9343,7 @@
       </c>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>378</v>
       </c>
@@ -9364,7 +9361,7 @@
       </c>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>381</v>
       </c>
@@ -9382,7 +9379,7 @@
       </c>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>384</v>
       </c>
@@ -9400,7 +9397,7 @@
       </c>
       <c r="F88" s="7"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>386</v>
       </c>
@@ -9418,7 +9415,7 @@
       </c>
       <c r="F89" s="7"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>389</v>
       </c>
@@ -9436,7 +9433,7 @@
       </c>
       <c r="F90" s="7"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>392</v>
       </c>
@@ -9454,7 +9451,7 @@
       </c>
       <c r="F91" s="7"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>395</v>
       </c>
@@ -9472,7 +9469,7 @@
       </c>
       <c r="F92" s="7"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>398</v>
       </c>
@@ -9490,7 +9487,7 @@
       </c>
       <c r="F93" s="7"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>401</v>
       </c>
@@ -9508,7 +9505,7 @@
       </c>
       <c r="F94" s="7"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>404</v>
       </c>
@@ -9526,7 +9523,7 @@
       </c>
       <c r="F95" s="7"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>407</v>
       </c>
@@ -9544,7 +9541,7 @@
       </c>
       <c r="F96" s="7"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>410</v>
       </c>
@@ -9562,7 +9559,7 @@
       </c>
       <c r="F97" s="7"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>413</v>
       </c>
@@ -9580,7 +9577,7 @@
       </c>
       <c r="F98" s="7"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>416</v>
       </c>
@@ -9598,7 +9595,7 @@
       </c>
       <c r="F99" s="7"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>419</v>
       </c>
@@ -9616,7 +9613,7 @@
       </c>
       <c r="F100" s="7"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>422</v>
       </c>
@@ -9634,7 +9631,7 @@
       </c>
       <c r="F101" s="7"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>425</v>
       </c>
@@ -9652,7 +9649,7 @@
       </c>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>428</v>
       </c>
@@ -9670,7 +9667,7 @@
       </c>
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>431</v>
       </c>
@@ -9688,7 +9685,7 @@
       </c>
       <c r="F104" s="7"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>434</v>
       </c>
@@ -9706,7 +9703,7 @@
       </c>
       <c r="F105" s="7"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>437</v>
       </c>
@@ -9724,7 +9721,7 @@
       </c>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>439</v>
       </c>
@@ -9742,7 +9739,7 @@
       </c>
       <c r="F107" s="7"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>442</v>
       </c>
@@ -9760,9 +9757,9 @@
       </c>
       <c r="F108" s="7"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>1968</v>
+        <v>442</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>158</v>
@@ -9778,7 +9775,7 @@
       </c>
       <c r="F109" s="7"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>447</v>
       </c>
@@ -9796,7 +9793,7 @@
       </c>
       <c r="F110" s="7"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>450</v>
       </c>
@@ -9814,7 +9811,7 @@
       </c>
       <c r="F111" s="7"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>453</v>
       </c>
@@ -9832,7 +9829,7 @@
       </c>
       <c r="F112" s="7"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>456</v>
       </c>
@@ -9850,7 +9847,7 @@
       </c>
       <c r="F113" s="7"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>459</v>
       </c>
@@ -9868,7 +9865,7 @@
       </c>
       <c r="F114" s="7"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>462</v>
       </c>
@@ -9886,7 +9883,7 @@
       </c>
       <c r="F115" s="7"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>465</v>
       </c>
@@ -9904,7 +9901,7 @@
       </c>
       <c r="F116" s="7"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>468</v>
       </c>
@@ -9922,7 +9919,7 @@
       </c>
       <c r="F117" s="7"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>471</v>
       </c>
@@ -9940,7 +9937,7 @@
       </c>
       <c r="F118" s="7"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>474</v>
       </c>
@@ -9958,7 +9955,7 @@
       </c>
       <c r="F119" s="7"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>477</v>
       </c>
@@ -9976,7 +9973,7 @@
       </c>
       <c r="F120" s="7"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>480</v>
       </c>
@@ -9994,7 +9991,7 @@
       </c>
       <c r="F121" s="7"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>483</v>
       </c>
@@ -10012,7 +10009,7 @@
       </c>
       <c r="F122" s="7"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>486</v>
       </c>
@@ -10030,7 +10027,7 @@
       </c>
       <c r="F123" s="7"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>489</v>
       </c>
@@ -10048,7 +10045,7 @@
       </c>
       <c r="F124" s="7"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>492</v>
       </c>
@@ -10066,7 +10063,7 @@
       </c>
       <c r="F125" s="7"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>495</v>
       </c>
@@ -10084,7 +10081,7 @@
       </c>
       <c r="F126" s="7"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>498</v>
       </c>
@@ -10102,7 +10099,7 @@
       </c>
       <c r="F127" s="7"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>501</v>
       </c>
@@ -10120,7 +10117,7 @@
       </c>
       <c r="F128" s="7"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>504</v>
       </c>
@@ -10138,7 +10135,7 @@
       </c>
       <c r="F129" s="7"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>507</v>
       </c>
@@ -10156,7 +10153,7 @@
       </c>
       <c r="F130" s="7"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>510</v>
       </c>
@@ -10174,7 +10171,7 @@
       </c>
       <c r="F131" s="7"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>513</v>
       </c>
@@ -10192,7 +10189,7 @@
       </c>
       <c r="F132" s="7"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>516</v>
       </c>
@@ -10210,7 +10207,7 @@
       </c>
       <c r="F133" s="7"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>519</v>
       </c>
@@ -10228,7 +10225,7 @@
       </c>
       <c r="F134" s="7"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>522</v>
       </c>
@@ -10246,7 +10243,7 @@
       </c>
       <c r="F135" s="7"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>525</v>
       </c>
@@ -10264,7 +10261,7 @@
       </c>
       <c r="F136" s="7"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>528</v>
       </c>
@@ -10282,7 +10279,7 @@
       </c>
       <c r="F137" s="7"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>531</v>
       </c>
@@ -10300,7 +10297,7 @@
       </c>
       <c r="F138" s="7"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>534</v>
       </c>
@@ -10318,7 +10315,7 @@
       </c>
       <c r="F139" s="7"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>537</v>
       </c>
@@ -10336,7 +10333,7 @@
       </c>
       <c r="F140" s="7"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>540</v>
       </c>
@@ -10354,7 +10351,7 @@
       </c>
       <c r="F141" s="7"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>543</v>
       </c>
@@ -10372,7 +10369,7 @@
       </c>
       <c r="F142" s="7"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>546</v>
       </c>
@@ -10390,7 +10387,7 @@
       </c>
       <c r="F143" s="7"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>549</v>
       </c>
@@ -10408,7 +10405,7 @@
       </c>
       <c r="F144" s="7"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>552</v>
       </c>
@@ -10426,7 +10423,7 @@
       </c>
       <c r="F145" s="7"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>555</v>
       </c>
@@ -10444,7 +10441,7 @@
       </c>
       <c r="F146" s="7"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>558</v>
       </c>
@@ -10462,7 +10459,7 @@
       </c>
       <c r="F147" s="7"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>561</v>
       </c>
@@ -10480,7 +10477,7 @@
       </c>
       <c r="F148" s="7"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>564</v>
       </c>
@@ -10498,7 +10495,7 @@
       </c>
       <c r="F149" s="7"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>567</v>
       </c>
@@ -10516,7 +10513,7 @@
       </c>
       <c r="F150" s="7"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>570</v>
       </c>
@@ -10534,7 +10531,7 @@
       </c>
       <c r="F151" s="7"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>573</v>
       </c>
@@ -10552,7 +10549,7 @@
       </c>
       <c r="F152" s="7"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>576</v>
       </c>
@@ -10570,7 +10567,7 @@
       </c>
       <c r="F153" s="7"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>579</v>
       </c>
@@ -10588,7 +10585,7 @@
       </c>
       <c r="F154" s="7"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>582</v>
       </c>
@@ -10606,7 +10603,7 @@
       </c>
       <c r="F155" s="7"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>585</v>
       </c>
@@ -10622,7 +10619,7 @@
       </c>
       <c r="F156" s="7"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>588</v>
       </c>
@@ -10638,7 +10635,7 @@
       </c>
       <c r="F157" s="7"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>591</v>
       </c>
@@ -10654,7 +10651,7 @@
       </c>
       <c r="F158" s="7"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>594</v>
       </c>
@@ -10672,7 +10669,7 @@
       </c>
       <c r="F159" s="7"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>597</v>
       </c>
@@ -10690,7 +10687,7 @@
       </c>
       <c r="F160" s="7"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>600</v>
       </c>
@@ -10708,7 +10705,7 @@
       </c>
       <c r="F161" s="7"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>603</v>
       </c>
@@ -10726,7 +10723,7 @@
       </c>
       <c r="F162" s="7"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>606</v>
       </c>
@@ -10744,7 +10741,7 @@
       </c>
       <c r="F163" s="7"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>609</v>
       </c>
@@ -10762,7 +10759,7 @@
       </c>
       <c r="F164" s="7"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>612</v>
       </c>
@@ -10780,7 +10777,7 @@
       </c>
       <c r="F165" s="7"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>615</v>
       </c>
@@ -10798,7 +10795,7 @@
       </c>
       <c r="F166" s="7"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>618</v>
       </c>
@@ -10816,7 +10813,7 @@
       </c>
       <c r="F167" s="7"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>621</v>
       </c>
@@ -10834,7 +10831,7 @@
       </c>
       <c r="F168" s="7"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>624</v>
       </c>
@@ -10852,7 +10849,7 @@
       </c>
       <c r="F169" s="7"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>627</v>
       </c>
@@ -10870,7 +10867,7 @@
       </c>
       <c r="F170" s="7"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>630</v>
       </c>
@@ -10888,7 +10885,7 @@
       </c>
       <c r="F171" s="7"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>633</v>
       </c>
@@ -10906,7 +10903,7 @@
       </c>
       <c r="F172" s="7"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>636</v>
       </c>
@@ -10924,7 +10921,7 @@
       </c>
       <c r="F173" s="7"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>639</v>
       </c>
@@ -10942,7 +10939,7 @@
       </c>
       <c r="F174" s="7"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>642</v>
       </c>
@@ -10960,7 +10957,7 @@
       </c>
       <c r="F175" s="7"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>645</v>
       </c>
@@ -10978,7 +10975,7 @@
       </c>
       <c r="F176" s="7"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>648</v>
       </c>
@@ -10996,7 +10993,7 @@
       </c>
       <c r="F177" s="7"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>651</v>
       </c>
@@ -11014,7 +11011,7 @@
       </c>
       <c r="F178" s="7"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>654</v>
       </c>
@@ -11032,7 +11029,7 @@
       </c>
       <c r="F179" s="7"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>657</v>
       </c>
@@ -11050,7 +11047,7 @@
       </c>
       <c r="F180" s="7"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>660</v>
       </c>
@@ -11068,7 +11065,7 @@
       </c>
       <c r="F181" s="7"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>663</v>
       </c>
@@ -11086,7 +11083,7 @@
       </c>
       <c r="F182" s="7"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>666</v>
       </c>
@@ -11104,7 +11101,7 @@
       </c>
       <c r="F183" s="7"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>669</v>
       </c>
@@ -11122,7 +11119,7 @@
       </c>
       <c r="F184" s="7"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>672</v>
       </c>
@@ -11140,7 +11137,7 @@
       </c>
       <c r="F185" s="7"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>675</v>
       </c>
@@ -11158,7 +11155,7 @@
       </c>
       <c r="F186" s="7"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>678</v>
       </c>
@@ -11176,7 +11173,7 @@
       </c>
       <c r="F187" s="7"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>681</v>
       </c>
@@ -11194,7 +11191,7 @@
       </c>
       <c r="F188" s="7"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>684</v>
       </c>
@@ -11212,7 +11209,7 @@
       </c>
       <c r="F189" s="7"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>687</v>
       </c>
@@ -11230,7 +11227,7 @@
       </c>
       <c r="F190" s="7"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>690</v>
       </c>
@@ -11248,7 +11245,7 @@
       </c>
       <c r="F191" s="7"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>693</v>
       </c>
@@ -11266,7 +11263,7 @@
       </c>
       <c r="F192" s="7"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>696</v>
       </c>
@@ -11284,7 +11281,7 @@
       </c>
       <c r="F193" s="7"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>699</v>
       </c>
@@ -11302,7 +11299,7 @@
       </c>
       <c r="F194" s="7"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>702</v>
       </c>
@@ -11320,7 +11317,7 @@
       </c>
       <c r="F195" s="7"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>705</v>
       </c>
@@ -11338,7 +11335,7 @@
       </c>
       <c r="F196" s="7"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>708</v>
       </c>
@@ -11356,7 +11353,7 @@
       </c>
       <c r="F197" s="7"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>711</v>
       </c>
@@ -11374,7 +11371,7 @@
       </c>
       <c r="F198" s="7"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>714</v>
       </c>
@@ -11392,7 +11389,7 @@
       </c>
       <c r="F199" s="7"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>717</v>
       </c>
@@ -11410,7 +11407,7 @@
       </c>
       <c r="F200" s="7"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>720</v>
       </c>
@@ -11428,7 +11425,7 @@
       </c>
       <c r="F201" s="7"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>723</v>
       </c>
@@ -11446,7 +11443,7 @@
       </c>
       <c r="F202" s="7"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>726</v>
       </c>
@@ -11464,7 +11461,7 @@
       </c>
       <c r="F203" s="7"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>729</v>
       </c>
@@ -11482,7 +11479,7 @@
       </c>
       <c r="F204" s="7"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>732</v>
       </c>
@@ -11500,7 +11497,7 @@
       </c>
       <c r="F205" s="7"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>735</v>
       </c>
@@ -11518,7 +11515,7 @@
       </c>
       <c r="F206" s="7"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>737</v>
       </c>
@@ -11536,7 +11533,7 @@
       </c>
       <c r="F207" s="7"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>740</v>
       </c>
@@ -11554,7 +11551,7 @@
       </c>
       <c r="F208" s="7"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>743</v>
       </c>
@@ -11572,7 +11569,7 @@
       </c>
       <c r="F209" s="7"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>746</v>
       </c>
@@ -11590,7 +11587,7 @@
       </c>
       <c r="F210" s="7"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>749</v>
       </c>
@@ -11608,7 +11605,7 @@
       </c>
       <c r="F211" s="7"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>752</v>
       </c>
@@ -11626,7 +11623,7 @@
       </c>
       <c r="F212" s="7"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>755</v>
       </c>
@@ -11644,7 +11641,7 @@
       </c>
       <c r="F213" s="7"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>758</v>
       </c>
@@ -11662,7 +11659,7 @@
       </c>
       <c r="F214" s="7"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>761</v>
       </c>
@@ -11680,7 +11677,7 @@
       </c>
       <c r="F215" s="7"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>764</v>
       </c>
@@ -11698,7 +11695,7 @@
       </c>
       <c r="F216" s="7"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>767</v>
       </c>
@@ -11716,7 +11713,7 @@
       </c>
       <c r="F217" s="7"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>770</v>
       </c>
@@ -11734,7 +11731,7 @@
       </c>
       <c r="F218" s="7"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>773</v>
       </c>
@@ -11752,7 +11749,7 @@
       </c>
       <c r="F219" s="7"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>776</v>
       </c>
@@ -11770,7 +11767,7 @@
       </c>
       <c r="F220" s="7"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>779</v>
       </c>
@@ -11788,7 +11785,7 @@
       </c>
       <c r="F221" s="7"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>782</v>
       </c>
@@ -11806,7 +11803,7 @@
       </c>
       <c r="F222" s="7"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>785</v>
       </c>
@@ -11824,7 +11821,7 @@
       </c>
       <c r="F223" s="7"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>788</v>
       </c>
@@ -11842,7 +11839,7 @@
       </c>
       <c r="F224" s="7"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>791</v>
       </c>
@@ -11860,7 +11857,7 @@
       </c>
       <c r="F225" s="7"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>794</v>
       </c>
@@ -11878,7 +11875,7 @@
       </c>
       <c r="F226" s="7"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>797</v>
       </c>
@@ -11896,7 +11893,7 @@
       </c>
       <c r="F227" s="7"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>800</v>
       </c>
@@ -11914,7 +11911,7 @@
       </c>
       <c r="F228" s="7"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>803</v>
       </c>
@@ -11932,7 +11929,7 @@
       </c>
       <c r="F229" s="7"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>806</v>
       </c>
@@ -11950,7 +11947,7 @@
       </c>
       <c r="F230" s="7"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>809</v>
       </c>
@@ -11968,7 +11965,7 @@
       </c>
       <c r="F231" s="7"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>812</v>
       </c>
@@ -11986,7 +11983,7 @@
       </c>
       <c r="F232" s="7"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>815</v>
       </c>
@@ -12004,7 +12001,7 @@
       </c>
       <c r="F233" s="7"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>818</v>
       </c>
@@ -12022,7 +12019,7 @@
       </c>
       <c r="F234" s="7"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>821</v>
       </c>
@@ -12040,7 +12037,7 @@
       </c>
       <c r="F235" s="7"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>824</v>
       </c>
@@ -12058,7 +12055,7 @@
       </c>
       <c r="F236" s="7"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>827</v>
       </c>
@@ -12076,7 +12073,7 @@
       </c>
       <c r="F237" s="7"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>830</v>
       </c>
@@ -12094,7 +12091,7 @@
       </c>
       <c r="F238" s="7"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>833</v>
       </c>
@@ -12112,7 +12109,7 @@
       </c>
       <c r="F239" s="7"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>836</v>
       </c>
@@ -12130,7 +12127,7 @@
       </c>
       <c r="F240" s="7"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>839</v>
       </c>
@@ -12148,7 +12145,7 @@
       </c>
       <c r="F241" s="7"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>842</v>
       </c>
@@ -12166,7 +12163,7 @@
       </c>
       <c r="F242" s="7"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>845</v>
       </c>
@@ -12184,7 +12181,7 @@
       </c>
       <c r="F243" s="7"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>848</v>
       </c>
@@ -12202,7 +12199,7 @@
       </c>
       <c r="F244" s="7"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>851</v>
       </c>
@@ -12220,7 +12217,7 @@
       </c>
       <c r="F245" s="7"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>854</v>
       </c>
@@ -12238,7 +12235,7 @@
       </c>
       <c r="F246" s="7"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>857</v>
       </c>
@@ -12256,7 +12253,7 @@
       </c>
       <c r="F247" s="7"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>860</v>
       </c>
@@ -12274,7 +12271,7 @@
       </c>
       <c r="F248" s="7"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>863</v>
       </c>
@@ -12292,7 +12289,7 @@
       </c>
       <c r="F249" s="7"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>866</v>
       </c>
@@ -12310,7 +12307,7 @@
       </c>
       <c r="F250" s="7"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>869</v>
       </c>
@@ -12328,7 +12325,7 @@
       </c>
       <c r="F251" s="7"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>872</v>
       </c>
@@ -12346,7 +12343,7 @@
       </c>
       <c r="F252" s="7"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>875</v>
       </c>
@@ -12364,7 +12361,7 @@
       </c>
       <c r="F253" s="7"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>878</v>
       </c>
@@ -12382,7 +12379,7 @@
       </c>
       <c r="F254" s="7"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>881</v>
       </c>
@@ -12400,7 +12397,7 @@
       </c>
       <c r="F255" s="7"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>884</v>
       </c>
@@ -12418,7 +12415,7 @@
       </c>
       <c r="F256" s="7"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>887</v>
       </c>
@@ -12436,7 +12433,7 @@
       </c>
       <c r="F257" s="7"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>890</v>
       </c>
@@ -12454,7 +12451,7 @@
       </c>
       <c r="F258" s="7"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>893</v>
       </c>
@@ -12472,7 +12469,7 @@
       </c>
       <c r="F259" s="7"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>896</v>
       </c>
@@ -12490,7 +12487,7 @@
       </c>
       <c r="F260" s="7"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
         <v>899</v>
       </c>
@@ -12508,7 +12505,7 @@
       </c>
       <c r="F261" s="7"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
         <v>902</v>
       </c>
@@ -12526,7 +12523,7 @@
       </c>
       <c r="F262" s="7"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>905</v>
       </c>
@@ -12544,7 +12541,7 @@
       </c>
       <c r="F263" s="7"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
         <v>908</v>
       </c>
@@ -12562,7 +12559,7 @@
       </c>
       <c r="F264" s="7"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>911</v>
       </c>
@@ -12580,7 +12577,7 @@
       </c>
       <c r="F265" s="7"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
         <v>914</v>
       </c>
@@ -12598,7 +12595,7 @@
       </c>
       <c r="F266" s="7"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>917</v>
       </c>
@@ -12616,7 +12613,7 @@
       </c>
       <c r="F267" s="7"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>920</v>
       </c>
@@ -12634,7 +12631,7 @@
       </c>
       <c r="F268" s="7"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>923</v>
       </c>
@@ -12652,7 +12649,7 @@
       </c>
       <c r="F269" s="7"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>926</v>
       </c>
@@ -12670,7 +12667,7 @@
       </c>
       <c r="F270" s="7"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>929</v>
       </c>
@@ -12688,7 +12685,7 @@
       </c>
       <c r="F271" s="7"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>932</v>
       </c>
@@ -12706,7 +12703,7 @@
       </c>
       <c r="F272" s="7"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>935</v>
       </c>
@@ -12724,7 +12721,7 @@
       </c>
       <c r="F273" s="7"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>938</v>
       </c>
@@ -12742,7 +12739,7 @@
       </c>
       <c r="F274" s="7"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>941</v>
       </c>
@@ -12760,7 +12757,7 @@
       </c>
       <c r="F275" s="7"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>944</v>
       </c>
@@ -12778,7 +12775,7 @@
       </c>
       <c r="F276" s="7"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>947</v>
       </c>
@@ -12796,7 +12793,7 @@
       </c>
       <c r="F277" s="7"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>950</v>
       </c>
@@ -12814,7 +12811,7 @@
       </c>
       <c r="F278" s="7"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>953</v>
       </c>
@@ -12832,7 +12829,7 @@
       </c>
       <c r="F279" s="7"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>954</v>
       </c>
@@ -12850,7 +12847,7 @@
       </c>
       <c r="F280" s="7"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>957</v>
       </c>
@@ -12868,7 +12865,7 @@
       </c>
       <c r="F281" s="7"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>960</v>
       </c>
@@ -12886,7 +12883,7 @@
       </c>
       <c r="F282" s="7"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>963</v>
       </c>
@@ -12904,7 +12901,7 @@
       </c>
       <c r="F283" s="7"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>966</v>
       </c>
@@ -12922,7 +12919,7 @@
       </c>
       <c r="F284" s="7"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>969</v>
       </c>
@@ -12940,7 +12937,7 @@
       </c>
       <c r="F285" s="7"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>972</v>
       </c>
@@ -12958,7 +12955,7 @@
       </c>
       <c r="F286" s="7"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>975</v>
       </c>
@@ -12976,7 +12973,7 @@
       </c>
       <c r="F287" s="7"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>978</v>
       </c>
@@ -12994,7 +12991,7 @@
       </c>
       <c r="F288" s="7"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>981</v>
       </c>
@@ -13012,7 +13009,7 @@
       </c>
       <c r="F289" s="7"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
         <v>984</v>
       </c>
@@ -13030,7 +13027,7 @@
       </c>
       <c r="F290" s="7"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>987</v>
       </c>
@@ -13048,7 +13045,7 @@
       </c>
       <c r="F291" s="7"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>990</v>
       </c>
@@ -13066,7 +13063,7 @@
       </c>
       <c r="F292" s="7"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
         <v>993</v>
       </c>
@@ -13084,7 +13081,7 @@
       </c>
       <c r="F293" s="7"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>996</v>
       </c>
@@ -13102,7 +13099,7 @@
       </c>
       <c r="F294" s="7"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>999</v>
       </c>
@@ -13120,7 +13117,7 @@
       </c>
       <c r="F295" s="7"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>1002</v>
       </c>
@@ -13138,7 +13135,7 @@
       </c>
       <c r="F296" s="7"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>1005</v>
       </c>
@@ -13156,7 +13153,7 @@
       </c>
       <c r="F297" s="7"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
         <v>1008</v>
       </c>
@@ -13174,7 +13171,7 @@
       </c>
       <c r="F298" s="7"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
         <v>1011</v>
       </c>
@@ -13192,7 +13189,7 @@
       </c>
       <c r="F299" s="7"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
         <v>1014</v>
       </c>
@@ -13210,7 +13207,7 @@
       </c>
       <c r="F300" s="7"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
         <v>1017</v>
       </c>
@@ -13228,7 +13225,7 @@
       </c>
       <c r="F301" s="7"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
         <v>1020</v>
       </c>
@@ -13246,7 +13243,7 @@
       </c>
       <c r="F302" s="7"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
         <v>1023</v>
       </c>
@@ -13262,7 +13259,7 @@
       <c r="E303" s="7"/>
       <c r="F303" s="7"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>1025</v>
       </c>
@@ -13280,7 +13277,7 @@
       </c>
       <c r="F304" s="7"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>1028</v>
       </c>
@@ -13298,7 +13295,7 @@
       </c>
       <c r="F305" s="7"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
         <v>1031</v>
       </c>
@@ -13316,7 +13313,7 @@
       </c>
       <c r="F306" s="7"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
         <v>1034</v>
       </c>
@@ -13334,7 +13331,7 @@
       </c>
       <c r="F307" s="7"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
         <v>1037</v>
       </c>
@@ -13352,7 +13349,7 @@
       </c>
       <c r="F308" s="7"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>1040</v>
       </c>
@@ -13370,7 +13367,7 @@
       </c>
       <c r="F309" s="7"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
         <v>1043</v>
       </c>
@@ -13388,7 +13385,7 @@
       </c>
       <c r="F310" s="7"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
         <v>1046</v>
       </c>
@@ -13406,7 +13403,7 @@
       </c>
       <c r="F311" s="7"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
         <v>1049</v>
       </c>
@@ -13424,7 +13421,7 @@
       </c>
       <c r="F312" s="7"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
         <v>1052</v>
       </c>
@@ -13442,7 +13439,7 @@
       </c>
       <c r="F313" s="7"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
         <v>1055</v>
       </c>
@@ -13460,7 +13457,7 @@
       </c>
       <c r="F314" s="7"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
         <v>1058</v>
       </c>
@@ -13478,7 +13475,7 @@
       </c>
       <c r="F315" s="7"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
         <v>1061</v>
       </c>
@@ -13496,7 +13493,7 @@
       </c>
       <c r="F316" s="7"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
         <v>1064</v>
       </c>
@@ -13514,7 +13511,7 @@
       </c>
       <c r="F317" s="7"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
         <v>1067</v>
       </c>
@@ -13532,7 +13529,7 @@
       </c>
       <c r="F318" s="7"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
         <v>1070</v>
       </c>
@@ -13550,7 +13547,7 @@
       </c>
       <c r="F319" s="7"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
         <v>1073</v>
       </c>
@@ -13568,7 +13565,7 @@
       </c>
       <c r="F320" s="7"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
         <v>1076</v>
       </c>
@@ -13586,7 +13583,7 @@
       </c>
       <c r="F321" s="7"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
         <v>1079</v>
       </c>
@@ -13604,7 +13601,7 @@
       </c>
       <c r="F322" s="7"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
         <v>1082</v>
       </c>
@@ -13622,7 +13619,7 @@
       </c>
       <c r="F323" s="7"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
         <v>1085</v>
       </c>
@@ -13640,7 +13637,7 @@
       </c>
       <c r="F324" s="7"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
         <v>1088</v>
       </c>
@@ -13658,7 +13655,7 @@
       </c>
       <c r="F325" s="7"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
         <v>1091</v>
       </c>
@@ -13676,7 +13673,7 @@
       </c>
       <c r="F326" s="7"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
         <v>1094</v>
       </c>
@@ -13694,7 +13691,7 @@
       </c>
       <c r="F327" s="7"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
         <v>1097</v>
       </c>
@@ -13712,7 +13709,7 @@
       </c>
       <c r="F328" s="7"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
         <v>1100</v>
       </c>
@@ -13730,7 +13727,7 @@
       </c>
       <c r="F329" s="7"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="7" t="s">
         <v>1103</v>
       </c>
@@ -13748,7 +13745,7 @@
       </c>
       <c r="F330" s="7"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
         <v>1106</v>
       </c>
@@ -13766,7 +13763,7 @@
       </c>
       <c r="F331" s="7"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
         <v>1109</v>
       </c>
@@ -13784,7 +13781,7 @@
       </c>
       <c r="F332" s="7"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
         <v>1112</v>
       </c>
@@ -13802,7 +13799,7 @@
       </c>
       <c r="F333" s="7"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
         <v>1115</v>
       </c>
@@ -13820,7 +13817,7 @@
       </c>
       <c r="F334" s="7"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
         <v>1118</v>
       </c>
@@ -13838,7 +13835,7 @@
       </c>
       <c r="F335" s="7"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="7" t="s">
         <v>1121</v>
       </c>
@@ -13856,7 +13853,7 @@
       </c>
       <c r="F336" s="7"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
         <v>1124</v>
       </c>
@@ -13874,7 +13871,7 @@
       </c>
       <c r="F337" s="7"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="7" t="s">
         <v>1127</v>
       </c>
@@ -13892,7 +13889,7 @@
       </c>
       <c r="F338" s="7"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
         <v>1130</v>
       </c>
@@ -13910,7 +13907,7 @@
       </c>
       <c r="F339" s="7"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
         <v>1133</v>
       </c>
@@ -13928,7 +13925,7 @@
       </c>
       <c r="F340" s="7"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
         <v>1136</v>
       </c>
@@ -13946,7 +13943,7 @@
       </c>
       <c r="F341" s="7"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
         <v>1139</v>
       </c>
@@ -13964,7 +13961,7 @@
       </c>
       <c r="F342" s="7"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
         <v>1142</v>
       </c>
@@ -13982,7 +13979,7 @@
       </c>
       <c r="F343" s="7"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
         <v>1145</v>
       </c>
@@ -14000,7 +13997,7 @@
       </c>
       <c r="F344" s="7"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
         <v>1148</v>
       </c>
@@ -14018,7 +14015,7 @@
       </c>
       <c r="F345" s="7"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="7" t="s">
         <v>1151</v>
       </c>
@@ -14036,7 +14033,7 @@
       </c>
       <c r="F346" s="7"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
         <v>1154</v>
       </c>
@@ -14054,7 +14051,7 @@
       </c>
       <c r="F347" s="7"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
         <v>1157</v>
       </c>
@@ -14072,7 +14069,7 @@
       </c>
       <c r="F348" s="7"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
         <v>1160</v>
       </c>
@@ -14090,7 +14087,7 @@
       </c>
       <c r="F349" s="7"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
         <v>1162</v>
       </c>
@@ -14108,7 +14105,7 @@
       </c>
       <c r="F350" s="7"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
         <v>1165</v>
       </c>
@@ -14126,7 +14123,7 @@
       </c>
       <c r="F351" s="7"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="7" t="s">
         <v>1167</v>
       </c>
@@ -14142,7 +14139,7 @@
       <c r="E352" s="7"/>
       <c r="F352" s="7"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
         <v>1169</v>
       </c>
@@ -14160,7 +14157,7 @@
       </c>
       <c r="F353" s="7"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="7" t="s">
         <v>1172</v>
       </c>
@@ -14178,7 +14175,7 @@
       </c>
       <c r="F354" s="7"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
         <v>1175</v>
       </c>
@@ -14196,7 +14193,7 @@
       </c>
       <c r="F355" s="7"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="7" t="s">
         <v>1178</v>
       </c>
@@ -14214,7 +14211,7 @@
       </c>
       <c r="F356" s="7"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
         <v>1181</v>
       </c>
@@ -14232,7 +14229,7 @@
       </c>
       <c r="F357" s="7"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="7" t="s">
         <v>1184</v>
       </c>
@@ -14250,7 +14247,7 @@
       </c>
       <c r="F358" s="7"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="7" t="s">
         <v>1187</v>
       </c>
@@ -14268,7 +14265,7 @@
       </c>
       <c r="F359" s="7"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="7" t="s">
         <v>1190</v>
       </c>
@@ -14286,7 +14283,7 @@
       </c>
       <c r="F360" s="7"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
         <v>1193</v>
       </c>
@@ -14304,7 +14301,7 @@
       </c>
       <c r="F361" s="7"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="7" t="s">
         <v>1196</v>
       </c>
@@ -14322,7 +14319,7 @@
       </c>
       <c r="F362" s="7"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
         <v>1199</v>
       </c>
@@ -14340,7 +14337,7 @@
       </c>
       <c r="F363" s="7"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="7" t="s">
         <v>1202</v>
       </c>
@@ -14358,7 +14355,7 @@
       </c>
       <c r="F364" s="7"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
         <v>1205</v>
       </c>
@@ -14376,7 +14373,7 @@
       </c>
       <c r="F365" s="7"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
         <v>1208</v>
       </c>
@@ -14394,7 +14391,7 @@
       </c>
       <c r="F366" s="7"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
         <v>1211</v>
       </c>
@@ -14412,7 +14409,7 @@
       </c>
       <c r="F367" s="7"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
         <v>1214</v>
       </c>
@@ -14430,7 +14427,7 @@
       </c>
       <c r="F368" s="7"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
         <v>1217</v>
       </c>
@@ -14448,7 +14445,7 @@
       </c>
       <c r="F369" s="7"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
         <v>1220</v>
       </c>
@@ -14466,7 +14463,7 @@
       </c>
       <c r="F370" s="7"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
         <v>1223</v>
       </c>
@@ -14482,7 +14479,7 @@
       <c r="E371" s="7"/>
       <c r="F371" s="7"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
         <v>1225</v>
       </c>
@@ -14500,7 +14497,7 @@
       </c>
       <c r="F372" s="7"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="7" t="s">
         <v>1228</v>
       </c>
@@ -14518,7 +14515,7 @@
       </c>
       <c r="F373" s="7"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="7" t="s">
         <v>1231</v>
       </c>
@@ -14536,7 +14533,7 @@
       </c>
       <c r="F374" s="7"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
         <v>1234</v>
       </c>
@@ -14554,7 +14551,7 @@
       </c>
       <c r="F375" s="7"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
         <v>1237</v>
       </c>
@@ -14572,7 +14569,7 @@
       </c>
       <c r="F376" s="7"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
         <v>1240</v>
       </c>
@@ -14590,7 +14587,7 @@
       </c>
       <c r="F377" s="7"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="7" t="s">
         <v>1243</v>
       </c>
@@ -14608,7 +14605,7 @@
       </c>
       <c r="F378" s="7"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="7" t="s">
         <v>1246</v>
       </c>
@@ -14626,7 +14623,7 @@
       </c>
       <c r="F379" s="7"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="7" t="s">
         <v>1249</v>
       </c>
@@ -14644,7 +14641,7 @@
       </c>
       <c r="F380" s="7"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="7" t="s">
         <v>1252</v>
       </c>
@@ -14662,7 +14659,7 @@
       </c>
       <c r="F381" s="7"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="7" t="s">
         <v>1255</v>
       </c>
@@ -14680,7 +14677,7 @@
       </c>
       <c r="F382" s="7"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="7" t="s">
         <v>1258</v>
       </c>
@@ -14698,7 +14695,7 @@
       </c>
       <c r="F383" s="7"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="7" t="s">
         <v>1261</v>
       </c>
@@ -14716,7 +14713,7 @@
       </c>
       <c r="F384" s="7"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="7" t="s">
         <v>1264</v>
       </c>
@@ -14734,7 +14731,7 @@
       </c>
       <c r="F385" s="7"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="7" t="s">
         <v>1267</v>
       </c>
@@ -14752,7 +14749,7 @@
       </c>
       <c r="F386" s="7"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="7" t="s">
         <v>1270</v>
       </c>
@@ -14770,7 +14767,7 @@
       </c>
       <c r="F387" s="7"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="7" t="s">
         <v>1273</v>
       </c>
@@ -14788,7 +14785,7 @@
       </c>
       <c r="F388" s="7"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
         <v>1276</v>
       </c>
@@ -14806,7 +14803,7 @@
       </c>
       <c r="F389" s="7"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="7" t="s">
         <v>1279</v>
       </c>
@@ -14824,7 +14821,7 @@
       </c>
       <c r="F390" s="7"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="7" t="s">
         <v>1282</v>
       </c>
@@ -14842,7 +14839,7 @@
       </c>
       <c r="F391" s="7"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="7" t="s">
         <v>1285</v>
       </c>
@@ -14860,7 +14857,7 @@
       </c>
       <c r="F392" s="7"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="7" t="s">
         <v>1288</v>
       </c>
@@ -14878,7 +14875,7 @@
       </c>
       <c r="F393" s="7"/>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="7" t="s">
         <v>1291</v>
       </c>
@@ -14896,7 +14893,7 @@
       </c>
       <c r="F394" s="7"/>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
         <v>1294</v>
       </c>
@@ -14914,7 +14911,7 @@
       </c>
       <c r="F395" s="7"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="7" t="s">
         <v>1297</v>
       </c>
@@ -14932,7 +14929,7 @@
       </c>
       <c r="F396" s="7"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="7" t="s">
         <v>1300</v>
       </c>
@@ -14950,7 +14947,7 @@
       </c>
       <c r="F397" s="7"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="7" t="s">
         <v>1303</v>
       </c>
@@ -14968,7 +14965,7 @@
       </c>
       <c r="F398" s="7"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="7" t="s">
         <v>1306</v>
       </c>
@@ -14986,7 +14983,7 @@
       </c>
       <c r="F399" s="7"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="7" t="s">
         <v>1309</v>
       </c>
@@ -15004,7 +15001,7 @@
       </c>
       <c r="F400" s="7"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="7" t="s">
         <v>1312</v>
       </c>
@@ -15022,7 +15019,7 @@
       </c>
       <c r="F401" s="7"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
         <v>1315</v>
       </c>
@@ -15040,7 +15037,7 @@
       </c>
       <c r="F402" s="7"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="7" t="s">
         <v>1318</v>
       </c>
@@ -15058,7 +15055,7 @@
       </c>
       <c r="F403" s="7"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
         <v>1321</v>
       </c>
@@ -15076,7 +15073,7 @@
       </c>
       <c r="F404" s="7"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
         <v>1324</v>
       </c>
@@ -15094,7 +15091,7 @@
       </c>
       <c r="F405" s="7"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="7" t="s">
         <v>1327</v>
       </c>
@@ -15112,7 +15109,7 @@
       </c>
       <c r="F406" s="7"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="7" t="s">
         <v>1330</v>
       </c>
@@ -15130,7 +15127,7 @@
       </c>
       <c r="F407" s="7"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="7" t="s">
         <v>1333</v>
       </c>
@@ -15148,7 +15145,7 @@
       </c>
       <c r="F408" s="7"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="7" t="s">
         <v>1336</v>
       </c>
@@ -15166,7 +15163,7 @@
       </c>
       <c r="F409" s="7"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
         <v>1339</v>
       </c>
@@ -15184,7 +15181,7 @@
       </c>
       <c r="F410" s="7"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
         <v>1342</v>
       </c>
@@ -15202,7 +15199,7 @@
       </c>
       <c r="F411" s="7"/>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
         <v>1345</v>
       </c>
@@ -15220,7 +15217,7 @@
       </c>
       <c r="F412" s="7"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="7" t="s">
         <v>1348</v>
       </c>
@@ -15238,7 +15235,7 @@
       </c>
       <c r="F413" s="7"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="7" t="s">
         <v>1351</v>
       </c>
@@ -15256,7 +15253,7 @@
       </c>
       <c r="F414" s="7"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="7" t="s">
         <v>1354</v>
       </c>
@@ -15274,7 +15271,7 @@
       </c>
       <c r="F415" s="7"/>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="7" t="s">
         <v>1357</v>
       </c>
@@ -15292,7 +15289,7 @@
       </c>
       <c r="F416" s="7"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
         <v>1359</v>
       </c>
@@ -15310,7 +15307,7 @@
       </c>
       <c r="F417" s="7"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="7" t="s">
         <v>1362</v>
       </c>
@@ -15328,7 +15325,7 @@
       </c>
       <c r="F418" s="7"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="7" t="s">
         <v>1365</v>
       </c>
@@ -15346,7 +15343,7 @@
       </c>
       <c r="F419" s="7"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="7" t="s">
         <v>1368</v>
       </c>
@@ -15364,7 +15361,7 @@
       </c>
       <c r="F420" s="7"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="7" t="s">
         <v>1371</v>
       </c>
@@ -15382,7 +15379,7 @@
       </c>
       <c r="F421" s="7"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="7" t="s">
         <v>1374</v>
       </c>
@@ -15400,7 +15397,7 @@
       </c>
       <c r="F422" s="7"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="7" t="s">
         <v>1377</v>
       </c>
@@ -15418,7 +15415,7 @@
       </c>
       <c r="F423" s="7"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="7" t="s">
         <v>1380</v>
       </c>
@@ -15436,7 +15433,7 @@
       </c>
       <c r="F424" s="7"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="7" t="s">
         <v>1383</v>
       </c>
@@ -15454,7 +15451,7 @@
       </c>
       <c r="F425" s="7"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="7" t="s">
         <v>1386</v>
       </c>
@@ -15472,7 +15469,7 @@
       </c>
       <c r="F426" s="7"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="7" t="s">
         <v>1389</v>
       </c>
@@ -15490,7 +15487,7 @@
       </c>
       <c r="F427" s="7"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="7" t="s">
         <v>1392</v>
       </c>
@@ -15508,7 +15505,7 @@
       </c>
       <c r="F428" s="7"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="7" t="s">
         <v>1395</v>
       </c>
@@ -15526,7 +15523,7 @@
       </c>
       <c r="F429" s="7"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="7" t="s">
         <v>1398</v>
       </c>
@@ -15544,7 +15541,7 @@
       </c>
       <c r="F430" s="7"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="7" t="s">
         <v>1401</v>
       </c>
@@ -15562,7 +15559,7 @@
       </c>
       <c r="F431" s="7"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="7" t="s">
         <v>1404</v>
       </c>
@@ -15580,7 +15577,7 @@
       </c>
       <c r="F432" s="7"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="7" t="s">
         <v>1407</v>
       </c>
@@ -15598,7 +15595,7 @@
       </c>
       <c r="F433" s="7"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="7" t="s">
         <v>1410</v>
       </c>
@@ -15616,7 +15613,7 @@
       </c>
       <c r="F434" s="7"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="7" t="s">
         <v>1413</v>
       </c>
@@ -15634,7 +15631,7 @@
       </c>
       <c r="F435" s="7"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="7" t="s">
         <v>1416</v>
       </c>
@@ -15652,7 +15649,7 @@
       </c>
       <c r="F436" s="7"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="7" t="s">
         <v>1419</v>
       </c>
@@ -15670,7 +15667,7 @@
       </c>
       <c r="F437" s="7"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="7" t="s">
         <v>1422</v>
       </c>
@@ -15688,7 +15685,7 @@
       </c>
       <c r="F438" s="7"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="7" t="s">
         <v>1425</v>
       </c>
@@ -15706,7 +15703,7 @@
       </c>
       <c r="F439" s="7"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="7" t="s">
         <v>1428</v>
       </c>
@@ -15724,7 +15721,7 @@
       </c>
       <c r="F440" s="7"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="7" t="s">
         <v>1431</v>
       </c>
@@ -15742,7 +15739,7 @@
       </c>
       <c r="F441" s="7"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="7" t="s">
         <v>1434</v>
       </c>
@@ -15760,7 +15757,7 @@
       </c>
       <c r="F442" s="7"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="7" t="s">
         <v>1437</v>
       </c>
@@ -15778,7 +15775,7 @@
       </c>
       <c r="F443" s="7"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="7" t="s">
         <v>1440</v>
       </c>
@@ -15796,7 +15793,7 @@
       </c>
       <c r="F444" s="7"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="7" t="s">
         <v>1443</v>
       </c>
@@ -15814,7 +15811,7 @@
       </c>
       <c r="F445" s="7"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="7" t="s">
         <v>1446</v>
       </c>
@@ -15832,7 +15829,7 @@
       </c>
       <c r="F446" s="7"/>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="7" t="s">
         <v>1449</v>
       </c>
@@ -15850,7 +15847,7 @@
       </c>
       <c r="F447" s="7"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="7" t="s">
         <v>1452</v>
       </c>
@@ -15868,7 +15865,7 @@
       </c>
       <c r="F448" s="7"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="7" t="s">
         <v>1455</v>
       </c>
@@ -15886,7 +15883,7 @@
       </c>
       <c r="F449" s="7"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="7" t="s">
         <v>1458</v>
       </c>
@@ -15904,7 +15901,7 @@
       </c>
       <c r="F450" s="7"/>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="7" t="s">
         <v>1461</v>
       </c>
@@ -15922,7 +15919,7 @@
       </c>
       <c r="F451" s="7"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="7" t="s">
         <v>1464</v>
       </c>
@@ -15940,7 +15937,7 @@
       </c>
       <c r="F452" s="7"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="7" t="s">
         <v>1467</v>
       </c>
@@ -15958,7 +15955,7 @@
       </c>
       <c r="F453" s="7"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="7" t="s">
         <v>1470</v>
       </c>
@@ -15976,7 +15973,7 @@
       </c>
       <c r="F454" s="7"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="7" t="s">
         <v>1473</v>
       </c>
@@ -15994,7 +15991,7 @@
       </c>
       <c r="F455" s="7"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="7" t="s">
         <v>1476</v>
       </c>
@@ -16012,7 +16009,7 @@
       </c>
       <c r="F456" s="7"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="7" t="s">
         <v>1478</v>
       </c>
@@ -16030,7 +16027,7 @@
       </c>
       <c r="F457" s="7"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="7" t="s">
         <v>1481</v>
       </c>
@@ -16048,7 +16045,7 @@
       </c>
       <c r="F458" s="7"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="7" t="s">
         <v>1483</v>
       </c>
@@ -16066,7 +16063,7 @@
       </c>
       <c r="F459" s="7"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="7" t="s">
         <v>1486</v>
       </c>
@@ -16084,7 +16081,7 @@
       </c>
       <c r="F460" s="7"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="7" t="s">
         <v>1489</v>
       </c>
@@ -16102,7 +16099,7 @@
       </c>
       <c r="F461" s="7"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="7" t="s">
         <v>1492</v>
       </c>
@@ -16120,7 +16117,7 @@
       </c>
       <c r="F462" s="7"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="7" t="s">
         <v>1495</v>
       </c>
@@ -16138,7 +16135,7 @@
       </c>
       <c r="F463" s="7"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="7" t="s">
         <v>1498</v>
       </c>
@@ -16156,7 +16153,7 @@
       </c>
       <c r="F464" s="7"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="7" t="s">
         <v>1501</v>
       </c>
@@ -16174,7 +16171,7 @@
       </c>
       <c r="F465" s="7"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="7" t="s">
         <v>1504</v>
       </c>
@@ -16192,7 +16189,7 @@
       </c>
       <c r="F466" s="7"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="7" t="s">
         <v>1507</v>
       </c>
@@ -16210,7 +16207,7 @@
       </c>
       <c r="F467" s="7"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="7" t="s">
         <v>1510</v>
       </c>
@@ -16228,7 +16225,7 @@
       </c>
       <c r="F468" s="7"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="7" t="s">
         <v>1513</v>
       </c>
@@ -16246,7 +16243,7 @@
       </c>
       <c r="F469" s="7"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="7" t="s">
         <v>1516</v>
       </c>
@@ -16264,7 +16261,7 @@
       </c>
       <c r="F470" s="7"/>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="7" t="s">
         <v>1519</v>
       </c>
@@ -16282,7 +16279,7 @@
       </c>
       <c r="F471" s="7"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="7" t="s">
         <v>1522</v>
       </c>
@@ -16300,7 +16297,7 @@
       </c>
       <c r="F472" s="7"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="7" t="s">
         <v>1525</v>
       </c>
@@ -16318,7 +16315,7 @@
       </c>
       <c r="F473" s="7"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="7" t="s">
         <v>1528</v>
       </c>
@@ -16336,7 +16333,7 @@
       </c>
       <c r="F474" s="7"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="7" t="s">
         <v>1531</v>
       </c>
@@ -16354,7 +16351,7 @@
       </c>
       <c r="F475" s="7"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="7" t="s">
         <v>1533</v>
       </c>
@@ -16372,7 +16369,7 @@
       </c>
       <c r="F476" s="7"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="7" t="s">
         <v>1536</v>
       </c>
@@ -16390,7 +16387,7 @@
       </c>
       <c r="F477" s="7"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="7" t="s">
         <v>1539</v>
       </c>
@@ -16408,7 +16405,7 @@
       </c>
       <c r="F478" s="7"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="7" t="s">
         <v>1542</v>
       </c>
@@ -16426,7 +16423,7 @@
       </c>
       <c r="F479" s="7"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="7" t="s">
         <v>1545</v>
       </c>
@@ -16444,7 +16441,7 @@
       </c>
       <c r="F480" s="7"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="7" t="s">
         <v>1547</v>
       </c>
@@ -16462,7 +16459,7 @@
       </c>
       <c r="F481" s="7"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="7" t="s">
         <v>1550</v>
       </c>
@@ -16480,7 +16477,7 @@
       </c>
       <c r="F482" s="7"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="7" t="s">
         <v>1553</v>
       </c>
@@ -16498,7 +16495,7 @@
       </c>
       <c r="F483" s="7"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="7" t="s">
         <v>1556</v>
       </c>
@@ -16516,7 +16513,7 @@
       </c>
       <c r="F484" s="7"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="7" t="s">
         <v>1559</v>
       </c>
@@ -16534,7 +16531,7 @@
       </c>
       <c r="F485" s="7"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="7" t="s">
         <v>1562</v>
       </c>
@@ -16552,7 +16549,7 @@
       </c>
       <c r="F486" s="7"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="7" t="s">
         <v>1565</v>
       </c>
@@ -16570,7 +16567,7 @@
       </c>
       <c r="F487" s="7"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="7" t="s">
         <v>1568</v>
       </c>
@@ -16588,7 +16585,7 @@
       </c>
       <c r="F488" s="7"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="7" t="s">
         <v>1571</v>
       </c>
@@ -16606,7 +16603,7 @@
       </c>
       <c r="F489" s="7"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="7" t="s">
         <v>1574</v>
       </c>
@@ -16624,7 +16621,7 @@
       </c>
       <c r="F490" s="7"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="7" t="s">
         <v>1577</v>
       </c>
@@ -16642,7 +16639,7 @@
       </c>
       <c r="F491" s="7"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="7" t="s">
         <v>1580</v>
       </c>
@@ -16660,7 +16657,7 @@
       </c>
       <c r="F492" s="7"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="7" t="s">
         <v>1583</v>
       </c>
@@ -16678,7 +16675,7 @@
       </c>
       <c r="F493" s="7"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="7" t="s">
         <v>1586</v>
       </c>
@@ -16696,7 +16693,7 @@
       </c>
       <c r="F494" s="7"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="7" t="s">
         <v>1589</v>
       </c>
@@ -16714,7 +16711,7 @@
       </c>
       <c r="F495" s="7"/>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="7" t="s">
         <v>1592</v>
       </c>
@@ -16732,7 +16729,7 @@
       </c>
       <c r="F496" s="7"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="7" t="s">
         <v>1595</v>
       </c>
@@ -16750,7 +16747,7 @@
       </c>
       <c r="F497" s="7"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="7" t="s">
         <v>1598</v>
       </c>
@@ -16768,7 +16765,7 @@
       </c>
       <c r="F498" s="7"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="7" t="s">
         <v>1601</v>
       </c>
@@ -16786,7 +16783,7 @@
       </c>
       <c r="F499" s="7"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="7" t="s">
         <v>1604</v>
       </c>
@@ -16804,7 +16801,7 @@
       </c>
       <c r="F500" s="7"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="7" t="s">
         <v>1607</v>
       </c>
@@ -16822,7 +16819,7 @@
       </c>
       <c r="F501" s="7"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="7" t="s">
         <v>1610</v>
       </c>
@@ -16840,7 +16837,7 @@
       </c>
       <c r="F502" s="7"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="7" t="s">
         <v>1613</v>
       </c>
@@ -16858,7 +16855,7 @@
       </c>
       <c r="F503" s="7"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="7" t="s">
         <v>1616</v>
       </c>
@@ -16876,7 +16873,7 @@
       </c>
       <c r="F504" s="7"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="7" t="s">
         <v>1619</v>
       </c>
@@ -16894,7 +16891,7 @@
       </c>
       <c r="F505" s="7"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="7" t="s">
         <v>1622</v>
       </c>
@@ -16912,7 +16909,7 @@
       </c>
       <c r="F506" s="7"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="7" t="s">
         <v>1625</v>
       </c>
@@ -16930,7 +16927,7 @@
       </c>
       <c r="F507" s="7"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="7" t="s">
         <v>1628</v>
       </c>
@@ -16948,7 +16945,7 @@
       </c>
       <c r="F508" s="7"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="7" t="s">
         <v>1631</v>
       </c>
@@ -16966,7 +16963,7 @@
       </c>
       <c r="F509" s="7"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="7" t="s">
         <v>1634</v>
       </c>
@@ -16984,7 +16981,7 @@
       </c>
       <c r="F510" s="7"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="7" t="s">
         <v>1637</v>
       </c>
@@ -17002,7 +16999,7 @@
       </c>
       <c r="F511" s="7"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="7" t="s">
         <v>1640</v>
       </c>
@@ -17020,7 +17017,7 @@
       </c>
       <c r="F512" s="7"/>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="7" t="s">
         <v>1643</v>
       </c>
@@ -17038,7 +17035,7 @@
       </c>
       <c r="F513" s="7"/>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="7" t="s">
         <v>1646</v>
       </c>
@@ -17056,7 +17053,7 @@
       </c>
       <c r="F514" s="7"/>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="7" t="s">
         <v>1649</v>
       </c>
@@ -17074,7 +17071,7 @@
       </c>
       <c r="F515" s="7"/>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="7" t="s">
         <v>1652</v>
       </c>
@@ -17092,7 +17089,7 @@
       </c>
       <c r="F516" s="7"/>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="7" t="s">
         <v>1655</v>
       </c>
@@ -17110,7 +17107,7 @@
       </c>
       <c r="F517" s="7"/>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="7" t="s">
         <v>1658</v>
       </c>
@@ -17128,7 +17125,7 @@
       </c>
       <c r="F518" s="7"/>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="7" t="s">
         <v>1661</v>
       </c>
@@ -17146,7 +17143,7 @@
       </c>
       <c r="F519" s="7"/>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="7" t="s">
         <v>1664</v>
       </c>
@@ -17164,7 +17161,7 @@
       </c>
       <c r="F520" s="7"/>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="7" t="s">
         <v>1667</v>
       </c>
@@ -17182,7 +17179,7 @@
       </c>
       <c r="F521" s="7"/>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="7" t="s">
         <v>1670</v>
       </c>
@@ -17200,7 +17197,7 @@
       </c>
       <c r="F522" s="7"/>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="7" t="s">
         <v>1673</v>
       </c>
@@ -17218,7 +17215,7 @@
       </c>
       <c r="F523" s="7"/>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="7" t="s">
         <v>1676</v>
       </c>
@@ -17236,7 +17233,7 @@
       </c>
       <c r="F524" s="7"/>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="7" t="s">
         <v>1679</v>
       </c>
@@ -17254,7 +17251,7 @@
       </c>
       <c r="F525" s="7"/>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="7" t="s">
         <v>1682</v>
       </c>
@@ -17272,7 +17269,7 @@
       </c>
       <c r="F526" s="7"/>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="7" t="s">
         <v>1685</v>
       </c>
@@ -17290,7 +17287,7 @@
       </c>
       <c r="F527" s="7"/>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="7" t="s">
         <v>1688</v>
       </c>
@@ -17308,7 +17305,7 @@
       </c>
       <c r="F528" s="7"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="7" t="s">
         <v>1691</v>
       </c>
@@ -17326,7 +17323,7 @@
       </c>
       <c r="F529" s="7"/>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="7" t="s">
         <v>1694</v>
       </c>
@@ -17344,7 +17341,7 @@
       </c>
       <c r="F530" s="7"/>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="7" t="s">
         <v>1697</v>
       </c>
@@ -17362,7 +17359,7 @@
       </c>
       <c r="F531" s="7"/>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="7" t="s">
         <v>1700</v>
       </c>
@@ -17380,7 +17377,7 @@
       </c>
       <c r="F532" s="7"/>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="7" t="s">
         <v>1703</v>
       </c>
@@ -17398,7 +17395,7 @@
       </c>
       <c r="F533" s="7"/>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="7" t="s">
         <v>1706</v>
       </c>
@@ -17416,7 +17413,7 @@
       </c>
       <c r="F534" s="7"/>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="7" t="s">
         <v>1709</v>
       </c>
@@ -17434,7 +17431,7 @@
       </c>
       <c r="F535" s="7"/>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="7" t="s">
         <v>1712</v>
       </c>
@@ -17452,7 +17449,7 @@
       </c>
       <c r="F536" s="7"/>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="7" t="s">
         <v>1715</v>
       </c>
@@ -17470,7 +17467,7 @@
       </c>
       <c r="F537" s="7"/>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="7" t="s">
         <v>1718</v>
       </c>
@@ -17488,7 +17485,7 @@
       </c>
       <c r="F538" s="7"/>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="7" t="s">
         <v>1721</v>
       </c>
@@ -17506,7 +17503,7 @@
       </c>
       <c r="F539" s="7"/>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" s="7" t="s">
         <v>1724</v>
       </c>
@@ -17524,7 +17521,7 @@
       </c>
       <c r="F540" s="7"/>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="7" t="s">
         <v>1727</v>
       </c>
@@ -17542,7 +17539,7 @@
       </c>
       <c r="F541" s="7"/>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" s="7" t="s">
         <v>1730</v>
       </c>
@@ -17560,7 +17557,7 @@
       </c>
       <c r="F542" s="7"/>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="7" t="s">
         <v>1733</v>
       </c>
@@ -17578,7 +17575,7 @@
       </c>
       <c r="F543" s="7"/>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="7" t="s">
         <v>1736</v>
       </c>
@@ -17596,7 +17593,7 @@
       </c>
       <c r="F544" s="7"/>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="7" t="s">
         <v>1739</v>
       </c>
@@ -17614,7 +17611,7 @@
       </c>
       <c r="F545" s="7"/>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="7" t="s">
         <v>1742</v>
       </c>
@@ -17632,7 +17629,7 @@
       </c>
       <c r="F546" s="7"/>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="7" t="s">
         <v>1745</v>
       </c>
@@ -17650,7 +17647,7 @@
       </c>
       <c r="F547" s="7"/>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="7" t="s">
         <v>1748</v>
       </c>
@@ -17668,7 +17665,7 @@
       </c>
       <c r="F548" s="7"/>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="7" t="s">
         <v>1751</v>
       </c>
@@ -17686,7 +17683,7 @@
       </c>
       <c r="F549" s="7"/>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="7" t="s">
         <v>1754</v>
       </c>
@@ -17704,7 +17701,7 @@
       </c>
       <c r="F550" s="7"/>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="7" t="s">
         <v>1757</v>
       </c>
@@ -17722,7 +17719,7 @@
       </c>
       <c r="F551" s="7"/>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="7" t="s">
         <v>1760</v>
       </c>
@@ -17740,7 +17737,7 @@
       </c>
       <c r="F552" s="7"/>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="7" t="s">
         <v>1763</v>
       </c>
@@ -17758,7 +17755,7 @@
       </c>
       <c r="F553" s="7"/>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="7" t="s">
         <v>1765</v>
       </c>
@@ -17776,7 +17773,7 @@
       </c>
       <c r="F554" s="7"/>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="7" t="s">
         <v>1768</v>
       </c>
@@ -17794,7 +17791,7 @@
       </c>
       <c r="F555" s="7"/>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="7" t="s">
         <v>1771</v>
       </c>
@@ -17812,7 +17809,7 @@
       </c>
       <c r="F556" s="7"/>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="7" t="s">
         <v>1774</v>
       </c>
@@ -17830,7 +17827,7 @@
       </c>
       <c r="F557" s="7"/>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" s="7" t="s">
         <v>1777</v>
       </c>
@@ -17848,7 +17845,7 @@
       </c>
       <c r="F558" s="7"/>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="7" t="s">
         <v>1780</v>
       </c>
@@ -17866,7 +17863,7 @@
       </c>
       <c r="F559" s="7"/>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" s="7" t="s">
         <v>1783</v>
       </c>
@@ -17884,7 +17881,7 @@
       </c>
       <c r="F560" s="7"/>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="7" t="s">
         <v>1786</v>
       </c>
@@ -17902,7 +17899,7 @@
       </c>
       <c r="F561" s="7"/>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="7" t="s">
         <v>1789</v>
       </c>
@@ -17920,7 +17917,7 @@
       </c>
       <c r="F562" s="7"/>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" s="7" t="s">
         <v>1792</v>
       </c>
@@ -17938,7 +17935,7 @@
       </c>
       <c r="F563" s="7"/>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="7" t="s">
         <v>1795</v>
       </c>
@@ -17956,7 +17953,7 @@
       </c>
       <c r="F564" s="7"/>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="7" t="s">
         <v>1798</v>
       </c>
@@ -17974,7 +17971,7 @@
       </c>
       <c r="F565" s="7"/>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="7" t="s">
         <v>1801</v>
       </c>
@@ -17992,7 +17989,7 @@
       </c>
       <c r="F566" s="7"/>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" s="7" t="s">
         <v>1804</v>
       </c>
@@ -18010,7 +18007,7 @@
       </c>
       <c r="F567" s="7"/>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="7" t="s">
         <v>1807</v>
       </c>
@@ -18028,7 +18025,7 @@
       </c>
       <c r="F568" s="7"/>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="7" t="s">
         <v>1810</v>
       </c>
@@ -18046,7 +18043,7 @@
       </c>
       <c r="F569" s="7"/>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="7" t="s">
         <v>1813</v>
       </c>
@@ -18064,7 +18061,7 @@
       </c>
       <c r="F570" s="7"/>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="7" t="s">
         <v>1816</v>
       </c>
@@ -18082,7 +18079,7 @@
       </c>
       <c r="F571" s="7"/>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" s="7" t="s">
         <v>1819</v>
       </c>
@@ -18100,7 +18097,7 @@
       </c>
       <c r="F572" s="7"/>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" s="7" t="s">
         <v>1821</v>
       </c>
@@ -18118,7 +18115,7 @@
       </c>
       <c r="F573" s="7"/>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" s="7" t="s">
         <v>1824</v>
       </c>
@@ -18136,7 +18133,7 @@
       </c>
       <c r="F574" s="7"/>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" s="7" t="s">
         <v>1827</v>
       </c>
@@ -18154,7 +18151,7 @@
       </c>
       <c r="F575" s="7"/>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" s="7" t="s">
         <v>1830</v>
       </c>
@@ -18172,7 +18169,7 @@
       </c>
       <c r="F576" s="7"/>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" s="7" t="s">
         <v>1833</v>
       </c>
@@ -18190,7 +18187,7 @@
       </c>
       <c r="F577" s="7"/>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" s="7" t="s">
         <v>1836</v>
       </c>
@@ -18208,7 +18205,7 @@
       </c>
       <c r="F578" s="7"/>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="7" t="s">
         <v>1839</v>
       </c>
@@ -18226,7 +18223,7 @@
       </c>
       <c r="F579" s="7"/>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="7" t="s">
         <v>1842</v>
       </c>
@@ -18244,7 +18241,7 @@
       </c>
       <c r="F580" s="7"/>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="7" t="s">
         <v>1845</v>
       </c>
@@ -18262,7 +18259,7 @@
       </c>
       <c r="F581" s="7"/>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="7" t="s">
         <v>1848</v>
       </c>
@@ -18280,7 +18277,7 @@
       </c>
       <c r="F582" s="7"/>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="7" t="s">
         <v>1851</v>
       </c>
@@ -18298,7 +18295,7 @@
       </c>
       <c r="F583" s="7"/>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="7" t="s">
         <v>1854</v>
       </c>
@@ -18316,7 +18313,7 @@
       </c>
       <c r="F584" s="7"/>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="7" t="s">
         <v>1857</v>
       </c>
@@ -18334,7 +18331,7 @@
       </c>
       <c r="F585" s="7"/>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="7" t="s">
         <v>1860</v>
       </c>
@@ -18352,7 +18349,7 @@
       </c>
       <c r="F586" s="7"/>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="7" t="s">
         <v>1863</v>
       </c>
@@ -18370,7 +18367,7 @@
       </c>
       <c r="F587" s="7"/>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" s="7" t="s">
         <v>1865</v>
       </c>
@@ -18388,7 +18385,7 @@
       </c>
       <c r="F588" s="7"/>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="7" t="s">
         <v>1868</v>
       </c>
@@ -18406,7 +18403,7 @@
       </c>
       <c r="F589" s="7"/>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" s="7" t="s">
         <v>1871</v>
       </c>
@@ -18422,7 +18419,7 @@
       </c>
       <c r="F590" s="7"/>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" s="7" t="s">
         <v>1874</v>
       </c>
@@ -18438,7 +18435,7 @@
       </c>
       <c r="F591" s="7"/>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" s="7" t="s">
         <v>1877</v>
       </c>
@@ -18454,7 +18451,7 @@
       </c>
       <c r="F592" s="7"/>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" s="7" t="s">
         <v>1880</v>
       </c>
@@ -18470,7 +18467,7 @@
       </c>
       <c r="F593" s="7"/>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" s="7" t="s">
         <v>1883</v>
       </c>
@@ -18486,7 +18483,7 @@
       </c>
       <c r="F594" s="7"/>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" s="7" t="s">
         <v>1886</v>
       </c>
@@ -18502,7 +18499,7 @@
       </c>
       <c r="F595" s="7"/>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" s="7" t="s">
         <v>1889</v>
       </c>
@@ -18518,7 +18515,7 @@
       </c>
       <c r="F596" s="7"/>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" s="7" t="s">
         <v>1892</v>
       </c>
@@ -18534,7 +18531,7 @@
       </c>
       <c r="F597" s="7"/>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" s="7" t="s">
         <v>1895</v>
       </c>
@@ -18550,7 +18547,7 @@
       </c>
       <c r="F598" s="7"/>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" s="7" t="s">
         <v>1898</v>
       </c>
@@ -18566,7 +18563,7 @@
       </c>
       <c r="F599" s="7"/>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" s="7" t="s">
         <v>1901</v>
       </c>
@@ -18582,7 +18579,7 @@
       </c>
       <c r="F600" s="7"/>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" s="7" t="s">
         <v>1904</v>
       </c>
@@ -18598,7 +18595,7 @@
       </c>
       <c r="F601" s="7"/>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" s="7" t="s">
         <v>1906</v>
       </c>
@@ -18614,7 +18611,7 @@
       </c>
       <c r="F602" s="7"/>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" s="7" t="s">
         <v>1909</v>
       </c>
@@ -18630,7 +18627,7 @@
       </c>
       <c r="F603" s="7"/>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" s="7" t="s">
         <v>1912</v>
       </c>
@@ -18646,7 +18643,7 @@
       </c>
       <c r="F604" s="7"/>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" s="7" t="s">
         <v>1915</v>
       </c>
@@ -18662,7 +18659,7 @@
       </c>
       <c r="F605" s="7"/>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" s="7" t="s">
         <v>1918</v>
       </c>
@@ -18678,7 +18675,7 @@
       </c>
       <c r="F606" s="7"/>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" s="7" t="s">
         <v>1921</v>
       </c>
@@ -18694,7 +18691,7 @@
       </c>
       <c r="F607" s="7"/>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" s="7" t="s">
         <v>1924</v>
       </c>
@@ -18710,7 +18707,7 @@
       </c>
       <c r="F608" s="7"/>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="7" t="s">
         <v>1927</v>
       </c>
@@ -18726,7 +18723,7 @@
       </c>
       <c r="F609" s="7"/>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="7" t="s">
         <v>1930</v>
       </c>
@@ -18760,15 +18757,15 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="59.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18776,7 +18773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -18784,7 +18781,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -18792,7 +18789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -18800,7 +18797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -18808,13 +18805,13 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -18822,13 +18819,13 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -18842,7 +18839,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18854,7 +18851,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18866,7 +18863,7 @@
       </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18878,7 +18875,7 @@
       </c>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18890,7 +18887,7 @@
       </c>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18902,7 +18899,7 @@
       </c>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18914,7 +18911,7 @@
       </c>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18926,7 +18923,7 @@
       </c>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18938,7 +18935,7 @@
       </c>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18950,7 +18947,7 @@
       </c>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18962,7 +18959,7 @@
       </c>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18974,7 +18971,7 @@
       </c>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18986,7 +18983,7 @@
       </c>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18998,7 +18995,7 @@
       </c>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>1935</v>
       </c>
@@ -19010,7 +19007,7 @@
       </c>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>1935</v>
       </c>
@@ -19022,7 +19019,7 @@
       </c>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>1935</v>
       </c>
@@ -19043,6 +19040,67 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="5a233c5be867259e7f523794110a7773">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71fc54e2a62b1985aea6da9d2195ce0c" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19456,83 +19514,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f8b6baa267c0456bbf6a8d18c49a130b>
-    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
-    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p671c8df16a44846939d278d4958f62c>
-    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b2804ef99be44b9e8166e80a6c2eb9f1>
-    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mc4aa6e782e045f6bb87dab01c971b56>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m312bc62cb0243b6a873cbbf4dace6b2>
-    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b084a4cb34a444d7969136255594d2f3>
-    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g30fb2d8061a4d40b63138f91c1a832e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m9a76db3058146ae844db6599c9d7036>
-    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l0a6b4600f484920bbceae0813174244>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE15430E-EDEB-4525-8A05-D19415B9D64D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98F885D4-EF3D-4686-B5F6-1FDD2BF41E71}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19540,25 +19525,21 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A3BBB1E-C9DF-4117-9187-A8DD65EB643C}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98F885D4-EF3D-4686-B5F6-1FDD2BF41E71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE15430E-EDEB-4525-8A05-D19415B9D64D}"/>
 </file>
--- a/nomenclature_parser/in/Nomenclatures EMSI RESOURCE.xlsx
+++ b/nomenclature_parser/in/Nomenclatures EMSI RESOURCE.xlsx
@@ -19043,8 +19043,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="5a233c5be867259e7f523794110a7773">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71fc54e2a62b1985aea6da9d2195ce0c" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="a24e46c8e369b0d0dbf292fc067594e6">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b005a03a4b86eaa0f9218a8d7ff13ee" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
     <xsd:import namespace="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
@@ -19107,12 +19107,12 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="49" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="49" nillable="true" ma:displayName="Propriétés de la stratégie de conformité unifiée" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="50" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="50" nillable="true" ma:displayName="Action d’interface utilisateur de la stratégie de conformité unifiée" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -19225,7 +19225,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="35" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="35" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -19244,7 +19244,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="36" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="36" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -19317,7 +19317,7 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="44" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c4480557-28ee-4200-b705-f4b4ceb9c11a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="44" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c4480557-28ee-4200-b705-f4b4ceb9c11a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -19366,8 +19366,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="7" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="7" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Titre"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -19518,23 +19518,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE15430E-EDEB-4525-8A05-D19415B9D64D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E42D721B-EA13-4047-B0F8-FA2BB2595BF7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/nomenclature_parser/in/Nomenclatures EMSI RESOURCE.xlsx
+++ b/nomenclature_parser/in/Nomenclatures EMSI RESOURCE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1199" documentId="8_{4FA08952-AD8A-4EC5-BA39-9F1D18567017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC0C16AC-E0BE-2D44-9F16-A840D6875D8C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E3A59C1D-DF4F-40E3-A908-700669E2F1F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E3A59C1D-DF4F-40E3-A908-700669E2F1F4}"/>
   </bookViews>
   <sheets>
     <sheet name="RESOURCE.UM" sheetId="6" r:id="rId1"/>
@@ -45,9 +45,9 @@
   <commentList>
     <comment ref="A520" authorId="0" shapeId="0" xr:uid="{A1A63B83-8E84-4021-B9EA-CDD31A45BF58}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
     VSAV</t>
       </text>
     </comment>
@@ -6082,7 +6082,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="60% - Accent5" xfId="1" builtinId="48"/>
+    <cellStyle name="60 % - Accent5" xfId="1" builtinId="48"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
@@ -6742,7 +6742,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -7052,16 +7052,16 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7070,7 +7070,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -7088,7 +7088,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -7097,7 +7097,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -7106,14 +7106,14 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -7122,14 +7122,14 @@
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -7159,7 +7159,7 @@
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
@@ -7172,7 +7172,7 @@
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -7198,7 +7198,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
@@ -7211,7 +7211,7 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
@@ -7226,7 +7226,7 @@
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
@@ -7256,7 +7256,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>39</v>
       </c>
@@ -7286,7 +7286,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>41</v>
       </c>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>44</v>
       </c>
@@ -7316,7 +7316,7 @@
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>47</v>
       </c>
@@ -7331,7 +7331,7 @@
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
@@ -7346,7 +7346,7 @@
       </c>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
@@ -7361,7 +7361,7 @@
       </c>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>55</v>
       </c>
@@ -7376,7 +7376,7 @@
       </c>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>58</v>
       </c>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>61</v>
       </c>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>63</v>
       </c>
@@ -7421,7 +7421,7 @@
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>65</v>
       </c>
@@ -7436,7 +7436,7 @@
       </c>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>68</v>
       </c>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>70</v>
       </c>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>73</v>
       </c>
@@ -7481,7 +7481,7 @@
       </c>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>76</v>
       </c>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>79</v>
       </c>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>82</v>
       </c>
@@ -7526,7 +7526,7 @@
       </c>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>85</v>
       </c>
@@ -7541,7 +7541,7 @@
       </c>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>88</v>
       </c>
@@ -7556,7 +7556,7 @@
       </c>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>91</v>
       </c>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>94</v>
       </c>
@@ -7586,7 +7586,7 @@
       </c>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>97</v>
       </c>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>100</v>
       </c>
@@ -7616,7 +7616,7 @@
       </c>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>103</v>
       </c>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>106</v>
       </c>
@@ -7646,7 +7646,7 @@
       </c>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>108</v>
       </c>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>111</v>
       </c>
@@ -7676,7 +7676,7 @@
       </c>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>114</v>
       </c>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>117</v>
       </c>
@@ -7706,7 +7706,7 @@
       </c>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>120</v>
       </c>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>123</v>
       </c>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>126</v>
       </c>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>129</v>
       </c>
@@ -7766,7 +7766,7 @@
       </c>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>132</v>
       </c>
@@ -7781,7 +7781,7 @@
       </c>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>135</v>
       </c>
@@ -7796,7 +7796,7 @@
       </c>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>137</v>
       </c>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>140</v>
       </c>
@@ -7826,7 +7826,7 @@
       </c>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>143</v>
       </c>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="E56" s="7"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>145</v>
       </c>
@@ -7856,7 +7856,7 @@
       </c>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>148</v>
       </c>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>151</v>
       </c>
@@ -7898,21 +7898,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CB9E0D-B8DC-4CCE-8710-BDDD2261629F}">
   <dimension ref="A1:F610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
+      <selection activeCell="A533" sqref="A533"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="90.83203125" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="90.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7922,7 +7922,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -7932,7 +7932,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -7942,7 +7942,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -7952,7 +7952,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -7962,7 +7962,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -7970,7 +7970,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -7980,7 +7980,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -7988,7 +7988,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>157</v>
       </c>
@@ -8022,7 +8022,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>160</v>
       </c>
@@ -8036,7 +8036,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>163</v>
       </c>
@@ -8050,7 +8050,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>166</v>
       </c>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>169</v>
       </c>
@@ -8080,7 +8080,7 @@
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>172</v>
       </c>
@@ -8096,7 +8096,7 @@
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>175</v>
       </c>
@@ -8112,7 +8112,7 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>178</v>
       </c>
@@ -8128,7 +8128,7 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>181</v>
       </c>
@@ -8144,7 +8144,7 @@
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>184</v>
       </c>
@@ -8160,7 +8160,7 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>187</v>
       </c>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>190</v>
       </c>
@@ -8194,7 +8194,7 @@
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>193</v>
       </c>
@@ -8212,7 +8212,7 @@
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>196</v>
       </c>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>199</v>
       </c>
@@ -8248,7 +8248,7 @@
       </c>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>202</v>
       </c>
@@ -8266,7 +8266,7 @@
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>205</v>
       </c>
@@ -8284,7 +8284,7 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>208</v>
       </c>
@@ -8302,7 +8302,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>211</v>
       </c>
@@ -8320,7 +8320,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>214</v>
       </c>
@@ -8338,7 +8338,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>217</v>
       </c>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>220</v>
       </c>
@@ -8374,7 +8374,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>223</v>
       </c>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>226</v>
       </c>
@@ -8410,7 +8410,7 @@
       </c>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>229</v>
       </c>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>231</v>
       </c>
@@ -8446,7 +8446,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>234</v>
       </c>
@@ -8464,7 +8464,7 @@
       </c>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>237</v>
       </c>
@@ -8482,7 +8482,7 @@
       </c>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>240</v>
       </c>
@@ -8500,7 +8500,7 @@
       </c>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>243</v>
       </c>
@@ -8518,7 +8518,7 @@
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>246</v>
       </c>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>249</v>
       </c>
@@ -8554,7 +8554,7 @@
       </c>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>252</v>
       </c>
@@ -8572,7 +8572,7 @@
       </c>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>255</v>
       </c>
@@ -8590,7 +8590,7 @@
       </c>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>258</v>
       </c>
@@ -8608,7 +8608,7 @@
       </c>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>261</v>
       </c>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>264</v>
       </c>
@@ -8644,7 +8644,7 @@
       </c>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>267</v>
       </c>
@@ -8662,7 +8662,7 @@
       </c>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>270</v>
       </c>
@@ -8680,7 +8680,7 @@
       </c>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>273</v>
       </c>
@@ -8698,7 +8698,7 @@
       </c>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>276</v>
       </c>
@@ -8716,7 +8716,7 @@
       </c>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>279</v>
       </c>
@@ -8734,7 +8734,7 @@
       </c>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>282</v>
       </c>
@@ -8752,7 +8752,7 @@
       </c>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>285</v>
       </c>
@@ -8770,7 +8770,7 @@
       </c>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>288</v>
       </c>
@@ -8788,7 +8788,7 @@
       </c>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>291</v>
       </c>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>294</v>
       </c>
@@ -8824,7 +8824,7 @@
       </c>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>296</v>
       </c>
@@ -8842,7 +8842,7 @@
       </c>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>299</v>
       </c>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>301</v>
       </c>
@@ -8878,7 +8878,7 @@
       </c>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>304</v>
       </c>
@@ -8896,7 +8896,7 @@
       </c>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>307</v>
       </c>
@@ -8914,7 +8914,7 @@
       </c>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>310</v>
       </c>
@@ -8932,7 +8932,7 @@
       </c>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>313</v>
       </c>
@@ -8950,7 +8950,7 @@
       </c>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>316</v>
       </c>
@@ -8968,7 +8968,7 @@
       </c>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>319</v>
       </c>
@@ -8986,7 +8986,7 @@
       </c>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>322</v>
       </c>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>325</v>
       </c>
@@ -9022,7 +9022,7 @@
       </c>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>328</v>
       </c>
@@ -9040,7 +9040,7 @@
       </c>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>330</v>
       </c>
@@ -9058,7 +9058,7 @@
       </c>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>333</v>
       </c>
@@ -9076,7 +9076,7 @@
       </c>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>335</v>
       </c>
@@ -9094,7 +9094,7 @@
       </c>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>338</v>
       </c>
@@ -9112,7 +9112,7 @@
       </c>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>341</v>
       </c>
@@ -9130,7 +9130,7 @@
       </c>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>344</v>
       </c>
@@ -9148,7 +9148,7 @@
       </c>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>347</v>
       </c>
@@ -9166,7 +9166,7 @@
       </c>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>350</v>
       </c>
@@ -9184,7 +9184,7 @@
       </c>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>353</v>
       </c>
@@ -9202,7 +9202,7 @@
       </c>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>356</v>
       </c>
@@ -9220,7 +9220,7 @@
       </c>
       <c r="F78" s="7"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>358</v>
       </c>
@@ -9238,7 +9238,7 @@
       </c>
       <c r="F79" s="7"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>361</v>
       </c>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>363</v>
       </c>
@@ -9274,7 +9274,7 @@
       </c>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>366</v>
       </c>
@@ -9292,7 +9292,7 @@
       </c>
       <c r="F82" s="7"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>369</v>
       </c>
@@ -9310,7 +9310,7 @@
       </c>
       <c r="F83" s="7"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>372</v>
       </c>
@@ -9328,7 +9328,7 @@
       </c>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>375</v>
       </c>
@@ -9346,7 +9346,7 @@
       </c>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>378</v>
       </c>
@@ -9364,7 +9364,7 @@
       </c>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>381</v>
       </c>
@@ -9382,7 +9382,7 @@
       </c>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>384</v>
       </c>
@@ -9400,7 +9400,7 @@
       </c>
       <c r="F88" s="7"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>386</v>
       </c>
@@ -9418,7 +9418,7 @@
       </c>
       <c r="F89" s="7"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>389</v>
       </c>
@@ -9436,7 +9436,7 @@
       </c>
       <c r="F90" s="7"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>392</v>
       </c>
@@ -9454,7 +9454,7 @@
       </c>
       <c r="F91" s="7"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>395</v>
       </c>
@@ -9472,7 +9472,7 @@
       </c>
       <c r="F92" s="7"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>398</v>
       </c>
@@ -9490,7 +9490,7 @@
       </c>
       <c r="F93" s="7"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>401</v>
       </c>
@@ -9508,7 +9508,7 @@
       </c>
       <c r="F94" s="7"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>404</v>
       </c>
@@ -9526,7 +9526,7 @@
       </c>
       <c r="F95" s="7"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>407</v>
       </c>
@@ -9544,7 +9544,7 @@
       </c>
       <c r="F96" s="7"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>410</v>
       </c>
@@ -9562,7 +9562,7 @@
       </c>
       <c r="F97" s="7"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>413</v>
       </c>
@@ -9580,7 +9580,7 @@
       </c>
       <c r="F98" s="7"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>416</v>
       </c>
@@ -9598,7 +9598,7 @@
       </c>
       <c r="F99" s="7"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>419</v>
       </c>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="F100" s="7"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>422</v>
       </c>
@@ -9634,7 +9634,7 @@
       </c>
       <c r="F101" s="7"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>425</v>
       </c>
@@ -9652,7 +9652,7 @@
       </c>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>428</v>
       </c>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>431</v>
       </c>
@@ -9688,7 +9688,7 @@
       </c>
       <c r="F104" s="7"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>434</v>
       </c>
@@ -9706,7 +9706,7 @@
       </c>
       <c r="F105" s="7"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>437</v>
       </c>
@@ -9724,7 +9724,7 @@
       </c>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>439</v>
       </c>
@@ -9742,7 +9742,7 @@
       </c>
       <c r="F107" s="7"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>442</v>
       </c>
@@ -9760,7 +9760,7 @@
       </c>
       <c r="F108" s="7"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>1968</v>
       </c>
@@ -9778,7 +9778,7 @@
       </c>
       <c r="F109" s="7"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>447</v>
       </c>
@@ -9796,7 +9796,7 @@
       </c>
       <c r="F110" s="7"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>450</v>
       </c>
@@ -9814,7 +9814,7 @@
       </c>
       <c r="F111" s="7"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>453</v>
       </c>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="F112" s="7"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>456</v>
       </c>
@@ -9850,7 +9850,7 @@
       </c>
       <c r="F113" s="7"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>459</v>
       </c>
@@ -9868,7 +9868,7 @@
       </c>
       <c r="F114" s="7"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>462</v>
       </c>
@@ -9886,7 +9886,7 @@
       </c>
       <c r="F115" s="7"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>465</v>
       </c>
@@ -9904,7 +9904,7 @@
       </c>
       <c r="F116" s="7"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>468</v>
       </c>
@@ -9922,7 +9922,7 @@
       </c>
       <c r="F117" s="7"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>471</v>
       </c>
@@ -9940,7 +9940,7 @@
       </c>
       <c r="F118" s="7"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>474</v>
       </c>
@@ -9958,7 +9958,7 @@
       </c>
       <c r="F119" s="7"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>477</v>
       </c>
@@ -9976,7 +9976,7 @@
       </c>
       <c r="F120" s="7"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>480</v>
       </c>
@@ -9994,7 +9994,7 @@
       </c>
       <c r="F121" s="7"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>483</v>
       </c>
@@ -10012,7 +10012,7 @@
       </c>
       <c r="F122" s="7"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>486</v>
       </c>
@@ -10030,7 +10030,7 @@
       </c>
       <c r="F123" s="7"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>489</v>
       </c>
@@ -10048,7 +10048,7 @@
       </c>
       <c r="F124" s="7"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>492</v>
       </c>
@@ -10066,7 +10066,7 @@
       </c>
       <c r="F125" s="7"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>495</v>
       </c>
@@ -10084,7 +10084,7 @@
       </c>
       <c r="F126" s="7"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>498</v>
       </c>
@@ -10102,7 +10102,7 @@
       </c>
       <c r="F127" s="7"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>501</v>
       </c>
@@ -10120,7 +10120,7 @@
       </c>
       <c r="F128" s="7"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>504</v>
       </c>
@@ -10138,7 +10138,7 @@
       </c>
       <c r="F129" s="7"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>507</v>
       </c>
@@ -10156,7 +10156,7 @@
       </c>
       <c r="F130" s="7"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>510</v>
       </c>
@@ -10174,7 +10174,7 @@
       </c>
       <c r="F131" s="7"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>513</v>
       </c>
@@ -10192,7 +10192,7 @@
       </c>
       <c r="F132" s="7"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>516</v>
       </c>
@@ -10210,7 +10210,7 @@
       </c>
       <c r="F133" s="7"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>519</v>
       </c>
@@ -10228,7 +10228,7 @@
       </c>
       <c r="F134" s="7"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>522</v>
       </c>
@@ -10246,7 +10246,7 @@
       </c>
       <c r="F135" s="7"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>525</v>
       </c>
@@ -10264,7 +10264,7 @@
       </c>
       <c r="F136" s="7"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>528</v>
       </c>
@@ -10282,7 +10282,7 @@
       </c>
       <c r="F137" s="7"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>531</v>
       </c>
@@ -10300,7 +10300,7 @@
       </c>
       <c r="F138" s="7"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>534</v>
       </c>
@@ -10318,7 +10318,7 @@
       </c>
       <c r="F139" s="7"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>537</v>
       </c>
@@ -10336,7 +10336,7 @@
       </c>
       <c r="F140" s="7"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>540</v>
       </c>
@@ -10354,7 +10354,7 @@
       </c>
       <c r="F141" s="7"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>543</v>
       </c>
@@ -10372,7 +10372,7 @@
       </c>
       <c r="F142" s="7"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>546</v>
       </c>
@@ -10390,7 +10390,7 @@
       </c>
       <c r="F143" s="7"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>549</v>
       </c>
@@ -10408,7 +10408,7 @@
       </c>
       <c r="F144" s="7"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>552</v>
       </c>
@@ -10426,7 +10426,7 @@
       </c>
       <c r="F145" s="7"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>555</v>
       </c>
@@ -10444,7 +10444,7 @@
       </c>
       <c r="F146" s="7"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>558</v>
       </c>
@@ -10462,7 +10462,7 @@
       </c>
       <c r="F147" s="7"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>561</v>
       </c>
@@ -10480,7 +10480,7 @@
       </c>
       <c r="F148" s="7"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>564</v>
       </c>
@@ -10498,7 +10498,7 @@
       </c>
       <c r="F149" s="7"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>567</v>
       </c>
@@ -10516,7 +10516,7 @@
       </c>
       <c r="F150" s="7"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>570</v>
       </c>
@@ -10534,7 +10534,7 @@
       </c>
       <c r="F151" s="7"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>573</v>
       </c>
@@ -10552,7 +10552,7 @@
       </c>
       <c r="F152" s="7"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>576</v>
       </c>
@@ -10570,7 +10570,7 @@
       </c>
       <c r="F153" s="7"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>579</v>
       </c>
@@ -10588,7 +10588,7 @@
       </c>
       <c r="F154" s="7"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>582</v>
       </c>
@@ -10606,7 +10606,7 @@
       </c>
       <c r="F155" s="7"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>585</v>
       </c>
@@ -10622,7 +10622,7 @@
       </c>
       <c r="F156" s="7"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>588</v>
       </c>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="F157" s="7"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>591</v>
       </c>
@@ -10654,7 +10654,7 @@
       </c>
       <c r="F158" s="7"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>594</v>
       </c>
@@ -10672,7 +10672,7 @@
       </c>
       <c r="F159" s="7"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>597</v>
       </c>
@@ -10690,7 +10690,7 @@
       </c>
       <c r="F160" s="7"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>600</v>
       </c>
@@ -10708,7 +10708,7 @@
       </c>
       <c r="F161" s="7"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>603</v>
       </c>
@@ -10726,7 +10726,7 @@
       </c>
       <c r="F162" s="7"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>606</v>
       </c>
@@ -10744,7 +10744,7 @@
       </c>
       <c r="F163" s="7"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>609</v>
       </c>
@@ -10762,7 +10762,7 @@
       </c>
       <c r="F164" s="7"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>612</v>
       </c>
@@ -10780,7 +10780,7 @@
       </c>
       <c r="F165" s="7"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>615</v>
       </c>
@@ -10798,7 +10798,7 @@
       </c>
       <c r="F166" s="7"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>618</v>
       </c>
@@ -10816,7 +10816,7 @@
       </c>
       <c r="F167" s="7"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>621</v>
       </c>
@@ -10834,7 +10834,7 @@
       </c>
       <c r="F168" s="7"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>624</v>
       </c>
@@ -10852,7 +10852,7 @@
       </c>
       <c r="F169" s="7"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>627</v>
       </c>
@@ -10870,7 +10870,7 @@
       </c>
       <c r="F170" s="7"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>630</v>
       </c>
@@ -10888,7 +10888,7 @@
       </c>
       <c r="F171" s="7"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>633</v>
       </c>
@@ -10906,7 +10906,7 @@
       </c>
       <c r="F172" s="7"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>636</v>
       </c>
@@ -10924,7 +10924,7 @@
       </c>
       <c r="F173" s="7"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>639</v>
       </c>
@@ -10942,7 +10942,7 @@
       </c>
       <c r="F174" s="7"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>642</v>
       </c>
@@ -10960,7 +10960,7 @@
       </c>
       <c r="F175" s="7"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>645</v>
       </c>
@@ -10978,7 +10978,7 @@
       </c>
       <c r="F176" s="7"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>648</v>
       </c>
@@ -10996,7 +10996,7 @@
       </c>
       <c r="F177" s="7"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>651</v>
       </c>
@@ -11014,7 +11014,7 @@
       </c>
       <c r="F178" s="7"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>654</v>
       </c>
@@ -11032,7 +11032,7 @@
       </c>
       <c r="F179" s="7"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>657</v>
       </c>
@@ -11050,7 +11050,7 @@
       </c>
       <c r="F180" s="7"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>660</v>
       </c>
@@ -11068,7 +11068,7 @@
       </c>
       <c r="F181" s="7"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>663</v>
       </c>
@@ -11086,7 +11086,7 @@
       </c>
       <c r="F182" s="7"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>666</v>
       </c>
@@ -11104,7 +11104,7 @@
       </c>
       <c r="F183" s="7"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>669</v>
       </c>
@@ -11122,7 +11122,7 @@
       </c>
       <c r="F184" s="7"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>672</v>
       </c>
@@ -11140,7 +11140,7 @@
       </c>
       <c r="F185" s="7"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>675</v>
       </c>
@@ -11158,7 +11158,7 @@
       </c>
       <c r="F186" s="7"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>678</v>
       </c>
@@ -11176,7 +11176,7 @@
       </c>
       <c r="F187" s="7"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>681</v>
       </c>
@@ -11194,7 +11194,7 @@
       </c>
       <c r="F188" s="7"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>684</v>
       </c>
@@ -11212,7 +11212,7 @@
       </c>
       <c r="F189" s="7"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>687</v>
       </c>
@@ -11230,7 +11230,7 @@
       </c>
       <c r="F190" s="7"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>690</v>
       </c>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="F191" s="7"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>693</v>
       </c>
@@ -11266,7 +11266,7 @@
       </c>
       <c r="F192" s="7"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>696</v>
       </c>
@@ -11284,7 +11284,7 @@
       </c>
       <c r="F193" s="7"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>699</v>
       </c>
@@ -11302,7 +11302,7 @@
       </c>
       <c r="F194" s="7"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>702</v>
       </c>
@@ -11320,7 +11320,7 @@
       </c>
       <c r="F195" s="7"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>705</v>
       </c>
@@ -11338,7 +11338,7 @@
       </c>
       <c r="F196" s="7"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>708</v>
       </c>
@@ -11356,7 +11356,7 @@
       </c>
       <c r="F197" s="7"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>711</v>
       </c>
@@ -11374,7 +11374,7 @@
       </c>
       <c r="F198" s="7"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>714</v>
       </c>
@@ -11392,7 +11392,7 @@
       </c>
       <c r="F199" s="7"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>717</v>
       </c>
@@ -11410,7 +11410,7 @@
       </c>
       <c r="F200" s="7"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>720</v>
       </c>
@@ -11428,7 +11428,7 @@
       </c>
       <c r="F201" s="7"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>723</v>
       </c>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="F202" s="7"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>726</v>
       </c>
@@ -11464,7 +11464,7 @@
       </c>
       <c r="F203" s="7"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>729</v>
       </c>
@@ -11482,7 +11482,7 @@
       </c>
       <c r="F204" s="7"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>732</v>
       </c>
@@ -11500,7 +11500,7 @@
       </c>
       <c r="F205" s="7"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>735</v>
       </c>
@@ -11518,7 +11518,7 @@
       </c>
       <c r="F206" s="7"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>737</v>
       </c>
@@ -11536,7 +11536,7 @@
       </c>
       <c r="F207" s="7"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>740</v>
       </c>
@@ -11554,7 +11554,7 @@
       </c>
       <c r="F208" s="7"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>743</v>
       </c>
@@ -11572,7 +11572,7 @@
       </c>
       <c r="F209" s="7"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>746</v>
       </c>
@@ -11590,7 +11590,7 @@
       </c>
       <c r="F210" s="7"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>749</v>
       </c>
@@ -11608,7 +11608,7 @@
       </c>
       <c r="F211" s="7"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>752</v>
       </c>
@@ -11626,7 +11626,7 @@
       </c>
       <c r="F212" s="7"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>755</v>
       </c>
@@ -11644,7 +11644,7 @@
       </c>
       <c r="F213" s="7"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>758</v>
       </c>
@@ -11662,7 +11662,7 @@
       </c>
       <c r="F214" s="7"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>761</v>
       </c>
@@ -11680,7 +11680,7 @@
       </c>
       <c r="F215" s="7"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>764</v>
       </c>
@@ -11698,7 +11698,7 @@
       </c>
       <c r="F216" s="7"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>767</v>
       </c>
@@ -11716,7 +11716,7 @@
       </c>
       <c r="F217" s="7"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>770</v>
       </c>
@@ -11734,7 +11734,7 @@
       </c>
       <c r="F218" s="7"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>773</v>
       </c>
@@ -11752,7 +11752,7 @@
       </c>
       <c r="F219" s="7"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>776</v>
       </c>
@@ -11770,7 +11770,7 @@
       </c>
       <c r="F220" s="7"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>779</v>
       </c>
@@ -11788,7 +11788,7 @@
       </c>
       <c r="F221" s="7"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>782</v>
       </c>
@@ -11806,7 +11806,7 @@
       </c>
       <c r="F222" s="7"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>785</v>
       </c>
@@ -11824,7 +11824,7 @@
       </c>
       <c r="F223" s="7"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>788</v>
       </c>
@@ -11842,7 +11842,7 @@
       </c>
       <c r="F224" s="7"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>791</v>
       </c>
@@ -11860,7 +11860,7 @@
       </c>
       <c r="F225" s="7"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>794</v>
       </c>
@@ -11878,7 +11878,7 @@
       </c>
       <c r="F226" s="7"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>797</v>
       </c>
@@ -11896,7 +11896,7 @@
       </c>
       <c r="F227" s="7"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>800</v>
       </c>
@@ -11914,7 +11914,7 @@
       </c>
       <c r="F228" s="7"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>803</v>
       </c>
@@ -11932,7 +11932,7 @@
       </c>
       <c r="F229" s="7"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>806</v>
       </c>
@@ -11950,7 +11950,7 @@
       </c>
       <c r="F230" s="7"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>809</v>
       </c>
@@ -11968,7 +11968,7 @@
       </c>
       <c r="F231" s="7"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>812</v>
       </c>
@@ -11986,7 +11986,7 @@
       </c>
       <c r="F232" s="7"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>815</v>
       </c>
@@ -12004,7 +12004,7 @@
       </c>
       <c r="F233" s="7"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>818</v>
       </c>
@@ -12022,7 +12022,7 @@
       </c>
       <c r="F234" s="7"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>821</v>
       </c>
@@ -12040,7 +12040,7 @@
       </c>
       <c r="F235" s="7"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>824</v>
       </c>
@@ -12058,7 +12058,7 @@
       </c>
       <c r="F236" s="7"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>827</v>
       </c>
@@ -12076,7 +12076,7 @@
       </c>
       <c r="F237" s="7"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>830</v>
       </c>
@@ -12094,7 +12094,7 @@
       </c>
       <c r="F238" s="7"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>833</v>
       </c>
@@ -12112,7 +12112,7 @@
       </c>
       <c r="F239" s="7"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>836</v>
       </c>
@@ -12130,7 +12130,7 @@
       </c>
       <c r="F240" s="7"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>839</v>
       </c>
@@ -12148,7 +12148,7 @@
       </c>
       <c r="F241" s="7"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>842</v>
       </c>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="F242" s="7"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>845</v>
       </c>
@@ -12184,7 +12184,7 @@
       </c>
       <c r="F243" s="7"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>848</v>
       </c>
@@ -12202,7 +12202,7 @@
       </c>
       <c r="F244" s="7"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>851</v>
       </c>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="F245" s="7"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>854</v>
       </c>
@@ -12238,7 +12238,7 @@
       </c>
       <c r="F246" s="7"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>857</v>
       </c>
@@ -12256,7 +12256,7 @@
       </c>
       <c r="F247" s="7"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>860</v>
       </c>
@@ -12274,7 +12274,7 @@
       </c>
       <c r="F248" s="7"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>863</v>
       </c>
@@ -12292,7 +12292,7 @@
       </c>
       <c r="F249" s="7"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>866</v>
       </c>
@@ -12310,7 +12310,7 @@
       </c>
       <c r="F250" s="7"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>869</v>
       </c>
@@ -12328,7 +12328,7 @@
       </c>
       <c r="F251" s="7"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>872</v>
       </c>
@@ -12346,7 +12346,7 @@
       </c>
       <c r="F252" s="7"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>875</v>
       </c>
@@ -12364,7 +12364,7 @@
       </c>
       <c r="F253" s="7"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>878</v>
       </c>
@@ -12382,7 +12382,7 @@
       </c>
       <c r="F254" s="7"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>881</v>
       </c>
@@ -12400,7 +12400,7 @@
       </c>
       <c r="F255" s="7"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>884</v>
       </c>
@@ -12418,7 +12418,7 @@
       </c>
       <c r="F256" s="7"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>887</v>
       </c>
@@ -12436,7 +12436,7 @@
       </c>
       <c r="F257" s="7"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>890</v>
       </c>
@@ -12454,7 +12454,7 @@
       </c>
       <c r="F258" s="7"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>893</v>
       </c>
@@ -12472,7 +12472,7 @@
       </c>
       <c r="F259" s="7"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>896</v>
       </c>
@@ -12490,7 +12490,7 @@
       </c>
       <c r="F260" s="7"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
         <v>899</v>
       </c>
@@ -12508,7 +12508,7 @@
       </c>
       <c r="F261" s="7"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
         <v>902</v>
       </c>
@@ -12526,7 +12526,7 @@
       </c>
       <c r="F262" s="7"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>905</v>
       </c>
@@ -12544,7 +12544,7 @@
       </c>
       <c r="F263" s="7"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
         <v>908</v>
       </c>
@@ -12562,7 +12562,7 @@
       </c>
       <c r="F264" s="7"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>911</v>
       </c>
@@ -12580,7 +12580,7 @@
       </c>
       <c r="F265" s="7"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
         <v>914</v>
       </c>
@@ -12598,7 +12598,7 @@
       </c>
       <c r="F266" s="7"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>917</v>
       </c>
@@ -12616,7 +12616,7 @@
       </c>
       <c r="F267" s="7"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>920</v>
       </c>
@@ -12634,7 +12634,7 @@
       </c>
       <c r="F268" s="7"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>923</v>
       </c>
@@ -12652,7 +12652,7 @@
       </c>
       <c r="F269" s="7"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>926</v>
       </c>
@@ -12670,7 +12670,7 @@
       </c>
       <c r="F270" s="7"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>929</v>
       </c>
@@ -12688,7 +12688,7 @@
       </c>
       <c r="F271" s="7"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>932</v>
       </c>
@@ -12706,7 +12706,7 @@
       </c>
       <c r="F272" s="7"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>935</v>
       </c>
@@ -12724,7 +12724,7 @@
       </c>
       <c r="F273" s="7"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>938</v>
       </c>
@@ -12742,7 +12742,7 @@
       </c>
       <c r="F274" s="7"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>941</v>
       </c>
@@ -12760,7 +12760,7 @@
       </c>
       <c r="F275" s="7"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>944</v>
       </c>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="F276" s="7"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>947</v>
       </c>
@@ -12796,7 +12796,7 @@
       </c>
       <c r="F277" s="7"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>950</v>
       </c>
@@ -12814,7 +12814,7 @@
       </c>
       <c r="F278" s="7"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>953</v>
       </c>
@@ -12832,7 +12832,7 @@
       </c>
       <c r="F279" s="7"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>954</v>
       </c>
@@ -12850,7 +12850,7 @@
       </c>
       <c r="F280" s="7"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>957</v>
       </c>
@@ -12868,7 +12868,7 @@
       </c>
       <c r="F281" s="7"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>960</v>
       </c>
@@ -12886,7 +12886,7 @@
       </c>
       <c r="F282" s="7"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>963</v>
       </c>
@@ -12904,7 +12904,7 @@
       </c>
       <c r="F283" s="7"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>966</v>
       </c>
@@ -12922,7 +12922,7 @@
       </c>
       <c r="F284" s="7"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>969</v>
       </c>
@@ -12940,7 +12940,7 @@
       </c>
       <c r="F285" s="7"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>972</v>
       </c>
@@ -12958,7 +12958,7 @@
       </c>
       <c r="F286" s="7"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>975</v>
       </c>
@@ -12976,7 +12976,7 @@
       </c>
       <c r="F287" s="7"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>978</v>
       </c>
@@ -12994,7 +12994,7 @@
       </c>
       <c r="F288" s="7"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>981</v>
       </c>
@@ -13012,7 +13012,7 @@
       </c>
       <c r="F289" s="7"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
         <v>984</v>
       </c>
@@ -13030,7 +13030,7 @@
       </c>
       <c r="F290" s="7"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>987</v>
       </c>
@@ -13048,7 +13048,7 @@
       </c>
       <c r="F291" s="7"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>990</v>
       </c>
@@ -13066,7 +13066,7 @@
       </c>
       <c r="F292" s="7"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
         <v>993</v>
       </c>
@@ -13084,7 +13084,7 @@
       </c>
       <c r="F293" s="7"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>996</v>
       </c>
@@ -13102,7 +13102,7 @@
       </c>
       <c r="F294" s="7"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>999</v>
       </c>
@@ -13120,7 +13120,7 @@
       </c>
       <c r="F295" s="7"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>1002</v>
       </c>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="F296" s="7"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>1005</v>
       </c>
@@ -13156,7 +13156,7 @@
       </c>
       <c r="F297" s="7"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
         <v>1008</v>
       </c>
@@ -13174,7 +13174,7 @@
       </c>
       <c r="F298" s="7"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
         <v>1011</v>
       </c>
@@ -13192,7 +13192,7 @@
       </c>
       <c r="F299" s="7"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
         <v>1014</v>
       </c>
@@ -13210,7 +13210,7 @@
       </c>
       <c r="F300" s="7"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
         <v>1017</v>
       </c>
@@ -13228,7 +13228,7 @@
       </c>
       <c r="F301" s="7"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
         <v>1020</v>
       </c>
@@ -13246,7 +13246,7 @@
       </c>
       <c r="F302" s="7"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
         <v>1023</v>
       </c>
@@ -13262,7 +13262,7 @@
       <c r="E303" s="7"/>
       <c r="F303" s="7"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>1025</v>
       </c>
@@ -13280,7 +13280,7 @@
       </c>
       <c r="F304" s="7"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>1028</v>
       </c>
@@ -13298,7 +13298,7 @@
       </c>
       <c r="F305" s="7"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
         <v>1031</v>
       </c>
@@ -13316,7 +13316,7 @@
       </c>
       <c r="F306" s="7"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
         <v>1034</v>
       </c>
@@ -13334,7 +13334,7 @@
       </c>
       <c r="F307" s="7"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
         <v>1037</v>
       </c>
@@ -13352,7 +13352,7 @@
       </c>
       <c r="F308" s="7"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>1040</v>
       </c>
@@ -13370,7 +13370,7 @@
       </c>
       <c r="F309" s="7"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
         <v>1043</v>
       </c>
@@ -13388,7 +13388,7 @@
       </c>
       <c r="F310" s="7"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
         <v>1046</v>
       </c>
@@ -13406,7 +13406,7 @@
       </c>
       <c r="F311" s="7"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
         <v>1049</v>
       </c>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="F312" s="7"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
         <v>1052</v>
       </c>
@@ -13442,7 +13442,7 @@
       </c>
       <c r="F313" s="7"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
         <v>1055</v>
       </c>
@@ -13460,7 +13460,7 @@
       </c>
       <c r="F314" s="7"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
         <v>1058</v>
       </c>
@@ -13478,7 +13478,7 @@
       </c>
       <c r="F315" s="7"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
         <v>1061</v>
       </c>
@@ -13496,7 +13496,7 @@
       </c>
       <c r="F316" s="7"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
         <v>1064</v>
       </c>
@@ -13514,7 +13514,7 @@
       </c>
       <c r="F317" s="7"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
         <v>1067</v>
       </c>
@@ -13532,7 +13532,7 @@
       </c>
       <c r="F318" s="7"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
         <v>1070</v>
       </c>
@@ -13550,7 +13550,7 @@
       </c>
       <c r="F319" s="7"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
         <v>1073</v>
       </c>
@@ -13568,7 +13568,7 @@
       </c>
       <c r="F320" s="7"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
         <v>1076</v>
       </c>
@@ -13586,7 +13586,7 @@
       </c>
       <c r="F321" s="7"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
         <v>1079</v>
       </c>
@@ -13604,7 +13604,7 @@
       </c>
       <c r="F322" s="7"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
         <v>1082</v>
       </c>
@@ -13622,7 +13622,7 @@
       </c>
       <c r="F323" s="7"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
         <v>1085</v>
       </c>
@@ -13640,7 +13640,7 @@
       </c>
       <c r="F324" s="7"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
         <v>1088</v>
       </c>
@@ -13658,7 +13658,7 @@
       </c>
       <c r="F325" s="7"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
         <v>1091</v>
       </c>
@@ -13676,7 +13676,7 @@
       </c>
       <c r="F326" s="7"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
         <v>1094</v>
       </c>
@@ -13694,7 +13694,7 @@
       </c>
       <c r="F327" s="7"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
         <v>1097</v>
       </c>
@@ -13712,7 +13712,7 @@
       </c>
       <c r="F328" s="7"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
         <v>1100</v>
       </c>
@@ -13730,7 +13730,7 @@
       </c>
       <c r="F329" s="7"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="7" t="s">
         <v>1103</v>
       </c>
@@ -13748,7 +13748,7 @@
       </c>
       <c r="F330" s="7"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
         <v>1106</v>
       </c>
@@ -13766,7 +13766,7 @@
       </c>
       <c r="F331" s="7"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
         <v>1109</v>
       </c>
@@ -13784,7 +13784,7 @@
       </c>
       <c r="F332" s="7"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
         <v>1112</v>
       </c>
@@ -13802,7 +13802,7 @@
       </c>
       <c r="F333" s="7"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
         <v>1115</v>
       </c>
@@ -13820,7 +13820,7 @@
       </c>
       <c r="F334" s="7"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
         <v>1118</v>
       </c>
@@ -13838,7 +13838,7 @@
       </c>
       <c r="F335" s="7"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="7" t="s">
         <v>1121</v>
       </c>
@@ -13856,7 +13856,7 @@
       </c>
       <c r="F336" s="7"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
         <v>1124</v>
       </c>
@@ -13874,7 +13874,7 @@
       </c>
       <c r="F337" s="7"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="7" t="s">
         <v>1127</v>
       </c>
@@ -13892,7 +13892,7 @@
       </c>
       <c r="F338" s="7"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
         <v>1130</v>
       </c>
@@ -13910,7 +13910,7 @@
       </c>
       <c r="F339" s="7"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
         <v>1133</v>
       </c>
@@ -13928,7 +13928,7 @@
       </c>
       <c r="F340" s="7"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
         <v>1136</v>
       </c>
@@ -13946,7 +13946,7 @@
       </c>
       <c r="F341" s="7"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
         <v>1139</v>
       </c>
@@ -13964,7 +13964,7 @@
       </c>
       <c r="F342" s="7"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
         <v>1142</v>
       </c>
@@ -13982,7 +13982,7 @@
       </c>
       <c r="F343" s="7"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
         <v>1145</v>
       </c>
@@ -14000,7 +14000,7 @@
       </c>
       <c r="F344" s="7"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
         <v>1148</v>
       </c>
@@ -14018,7 +14018,7 @@
       </c>
       <c r="F345" s="7"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="7" t="s">
         <v>1151</v>
       </c>
@@ -14036,7 +14036,7 @@
       </c>
       <c r="F346" s="7"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
         <v>1154</v>
       </c>
@@ -14054,7 +14054,7 @@
       </c>
       <c r="F347" s="7"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
         <v>1157</v>
       </c>
@@ -14072,7 +14072,7 @@
       </c>
       <c r="F348" s="7"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
         <v>1160</v>
       </c>
@@ -14090,7 +14090,7 @@
       </c>
       <c r="F349" s="7"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
         <v>1162</v>
       </c>
@@ -14108,7 +14108,7 @@
       </c>
       <c r="F350" s="7"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
         <v>1165</v>
       </c>
@@ -14126,7 +14126,7 @@
       </c>
       <c r="F351" s="7"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="7" t="s">
         <v>1167</v>
       </c>
@@ -14142,7 +14142,7 @@
       <c r="E352" s="7"/>
       <c r="F352" s="7"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
         <v>1169</v>
       </c>
@@ -14160,7 +14160,7 @@
       </c>
       <c r="F353" s="7"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="7" t="s">
         <v>1172</v>
       </c>
@@ -14178,7 +14178,7 @@
       </c>
       <c r="F354" s="7"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
         <v>1175</v>
       </c>
@@ -14196,7 +14196,7 @@
       </c>
       <c r="F355" s="7"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="7" t="s">
         <v>1178</v>
       </c>
@@ -14214,7 +14214,7 @@
       </c>
       <c r="F356" s="7"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
         <v>1181</v>
       </c>
@@ -14232,7 +14232,7 @@
       </c>
       <c r="F357" s="7"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="7" t="s">
         <v>1184</v>
       </c>
@@ -14250,7 +14250,7 @@
       </c>
       <c r="F358" s="7"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="7" t="s">
         <v>1187</v>
       </c>
@@ -14268,7 +14268,7 @@
       </c>
       <c r="F359" s="7"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="7" t="s">
         <v>1190</v>
       </c>
@@ -14286,7 +14286,7 @@
       </c>
       <c r="F360" s="7"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
         <v>1193</v>
       </c>
@@ -14304,7 +14304,7 @@
       </c>
       <c r="F361" s="7"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="7" t="s">
         <v>1196</v>
       </c>
@@ -14322,7 +14322,7 @@
       </c>
       <c r="F362" s="7"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
         <v>1199</v>
       </c>
@@ -14340,7 +14340,7 @@
       </c>
       <c r="F363" s="7"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="7" t="s">
         <v>1202</v>
       </c>
@@ -14358,7 +14358,7 @@
       </c>
       <c r="F364" s="7"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
         <v>1205</v>
       </c>
@@ -14376,7 +14376,7 @@
       </c>
       <c r="F365" s="7"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
         <v>1208</v>
       </c>
@@ -14394,7 +14394,7 @@
       </c>
       <c r="F366" s="7"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
         <v>1211</v>
       </c>
@@ -14412,7 +14412,7 @@
       </c>
       <c r="F367" s="7"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
         <v>1214</v>
       </c>
@@ -14430,7 +14430,7 @@
       </c>
       <c r="F368" s="7"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
         <v>1217</v>
       </c>
@@ -14448,7 +14448,7 @@
       </c>
       <c r="F369" s="7"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
         <v>1220</v>
       </c>
@@ -14466,7 +14466,7 @@
       </c>
       <c r="F370" s="7"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
         <v>1223</v>
       </c>
@@ -14482,7 +14482,7 @@
       <c r="E371" s="7"/>
       <c r="F371" s="7"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
         <v>1225</v>
       </c>
@@ -14500,7 +14500,7 @@
       </c>
       <c r="F372" s="7"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="7" t="s">
         <v>1228</v>
       </c>
@@ -14518,7 +14518,7 @@
       </c>
       <c r="F373" s="7"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="7" t="s">
         <v>1231</v>
       </c>
@@ -14536,7 +14536,7 @@
       </c>
       <c r="F374" s="7"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
         <v>1234</v>
       </c>
@@ -14554,7 +14554,7 @@
       </c>
       <c r="F375" s="7"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
         <v>1237</v>
       </c>
@@ -14572,7 +14572,7 @@
       </c>
       <c r="F376" s="7"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
         <v>1240</v>
       </c>
@@ -14590,7 +14590,7 @@
       </c>
       <c r="F377" s="7"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="7" t="s">
         <v>1243</v>
       </c>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="F378" s="7"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="7" t="s">
         <v>1246</v>
       </c>
@@ -14626,7 +14626,7 @@
       </c>
       <c r="F379" s="7"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="7" t="s">
         <v>1249</v>
       </c>
@@ -14644,7 +14644,7 @@
       </c>
       <c r="F380" s="7"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="7" t="s">
         <v>1252</v>
       </c>
@@ -14662,7 +14662,7 @@
       </c>
       <c r="F381" s="7"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="7" t="s">
         <v>1255</v>
       </c>
@@ -14680,7 +14680,7 @@
       </c>
       <c r="F382" s="7"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="7" t="s">
         <v>1258</v>
       </c>
@@ -14698,7 +14698,7 @@
       </c>
       <c r="F383" s="7"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="7" t="s">
         <v>1261</v>
       </c>
@@ -14716,7 +14716,7 @@
       </c>
       <c r="F384" s="7"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="7" t="s">
         <v>1264</v>
       </c>
@@ -14734,7 +14734,7 @@
       </c>
       <c r="F385" s="7"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="7" t="s">
         <v>1267</v>
       </c>
@@ -14752,7 +14752,7 @@
       </c>
       <c r="F386" s="7"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="7" t="s">
         <v>1270</v>
       </c>
@@ -14770,7 +14770,7 @@
       </c>
       <c r="F387" s="7"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="7" t="s">
         <v>1273</v>
       </c>
@@ -14788,7 +14788,7 @@
       </c>
       <c r="F388" s="7"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
         <v>1276</v>
       </c>
@@ -14806,7 +14806,7 @@
       </c>
       <c r="F389" s="7"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="7" t="s">
         <v>1279</v>
       </c>
@@ -14824,7 +14824,7 @@
       </c>
       <c r="F390" s="7"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="7" t="s">
         <v>1282</v>
       </c>
@@ -14842,7 +14842,7 @@
       </c>
       <c r="F391" s="7"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="7" t="s">
         <v>1285</v>
       </c>
@@ -14860,7 +14860,7 @@
       </c>
       <c r="F392" s="7"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="7" t="s">
         <v>1288</v>
       </c>
@@ -14878,7 +14878,7 @@
       </c>
       <c r="F393" s="7"/>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="7" t="s">
         <v>1291</v>
       </c>
@@ -14896,7 +14896,7 @@
       </c>
       <c r="F394" s="7"/>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
         <v>1294</v>
       </c>
@@ -14914,7 +14914,7 @@
       </c>
       <c r="F395" s="7"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="7" t="s">
         <v>1297</v>
       </c>
@@ -14932,7 +14932,7 @@
       </c>
       <c r="F396" s="7"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="7" t="s">
         <v>1300</v>
       </c>
@@ -14950,7 +14950,7 @@
       </c>
       <c r="F397" s="7"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="7" t="s">
         <v>1303</v>
       </c>
@@ -14968,7 +14968,7 @@
       </c>
       <c r="F398" s="7"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="7" t="s">
         <v>1306</v>
       </c>
@@ -14986,7 +14986,7 @@
       </c>
       <c r="F399" s="7"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="7" t="s">
         <v>1309</v>
       </c>
@@ -15004,7 +15004,7 @@
       </c>
       <c r="F400" s="7"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="7" t="s">
         <v>1312</v>
       </c>
@@ -15022,7 +15022,7 @@
       </c>
       <c r="F401" s="7"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
         <v>1315</v>
       </c>
@@ -15040,7 +15040,7 @@
       </c>
       <c r="F402" s="7"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="7" t="s">
         <v>1318</v>
       </c>
@@ -15058,7 +15058,7 @@
       </c>
       <c r="F403" s="7"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
         <v>1321</v>
       </c>
@@ -15076,7 +15076,7 @@
       </c>
       <c r="F404" s="7"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
         <v>1324</v>
       </c>
@@ -15094,7 +15094,7 @@
       </c>
       <c r="F405" s="7"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="7" t="s">
         <v>1327</v>
       </c>
@@ -15112,7 +15112,7 @@
       </c>
       <c r="F406" s="7"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="7" t="s">
         <v>1330</v>
       </c>
@@ -15130,7 +15130,7 @@
       </c>
       <c r="F407" s="7"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="7" t="s">
         <v>1333</v>
       </c>
@@ -15148,7 +15148,7 @@
       </c>
       <c r="F408" s="7"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="7" t="s">
         <v>1336</v>
       </c>
@@ -15166,7 +15166,7 @@
       </c>
       <c r="F409" s="7"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
         <v>1339</v>
       </c>
@@ -15184,7 +15184,7 @@
       </c>
       <c r="F410" s="7"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
         <v>1342</v>
       </c>
@@ -15202,7 +15202,7 @@
       </c>
       <c r="F411" s="7"/>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
         <v>1345</v>
       </c>
@@ -15220,7 +15220,7 @@
       </c>
       <c r="F412" s="7"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="7" t="s">
         <v>1348</v>
       </c>
@@ -15238,7 +15238,7 @@
       </c>
       <c r="F413" s="7"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="7" t="s">
         <v>1351</v>
       </c>
@@ -15256,7 +15256,7 @@
       </c>
       <c r="F414" s="7"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="7" t="s">
         <v>1354</v>
       </c>
@@ -15274,7 +15274,7 @@
       </c>
       <c r="F415" s="7"/>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="7" t="s">
         <v>1357</v>
       </c>
@@ -15292,7 +15292,7 @@
       </c>
       <c r="F416" s="7"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
         <v>1359</v>
       </c>
@@ -15310,7 +15310,7 @@
       </c>
       <c r="F417" s="7"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="7" t="s">
         <v>1362</v>
       </c>
@@ -15328,7 +15328,7 @@
       </c>
       <c r="F418" s="7"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="7" t="s">
         <v>1365</v>
       </c>
@@ -15346,7 +15346,7 @@
       </c>
       <c r="F419" s="7"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="7" t="s">
         <v>1368</v>
       </c>
@@ -15364,7 +15364,7 @@
       </c>
       <c r="F420" s="7"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="7" t="s">
         <v>1371</v>
       </c>
@@ -15382,7 +15382,7 @@
       </c>
       <c r="F421" s="7"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="7" t="s">
         <v>1374</v>
       </c>
@@ -15400,7 +15400,7 @@
       </c>
       <c r="F422" s="7"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="7" t="s">
         <v>1377</v>
       </c>
@@ -15418,7 +15418,7 @@
       </c>
       <c r="F423" s="7"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="7" t="s">
         <v>1380</v>
       </c>
@@ -15436,7 +15436,7 @@
       </c>
       <c r="F424" s="7"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="7" t="s">
         <v>1383</v>
       </c>
@@ -15454,7 +15454,7 @@
       </c>
       <c r="F425" s="7"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="7" t="s">
         <v>1386</v>
       </c>
@@ -15472,7 +15472,7 @@
       </c>
       <c r="F426" s="7"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="7" t="s">
         <v>1389</v>
       </c>
@@ -15490,7 +15490,7 @@
       </c>
       <c r="F427" s="7"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="7" t="s">
         <v>1392</v>
       </c>
@@ -15508,7 +15508,7 @@
       </c>
       <c r="F428" s="7"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="7" t="s">
         <v>1395</v>
       </c>
@@ -15526,7 +15526,7 @@
       </c>
       <c r="F429" s="7"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="7" t="s">
         <v>1398</v>
       </c>
@@ -15544,7 +15544,7 @@
       </c>
       <c r="F430" s="7"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="7" t="s">
         <v>1401</v>
       </c>
@@ -15562,7 +15562,7 @@
       </c>
       <c r="F431" s="7"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="7" t="s">
         <v>1404</v>
       </c>
@@ -15580,7 +15580,7 @@
       </c>
       <c r="F432" s="7"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="7" t="s">
         <v>1407</v>
       </c>
@@ -15598,7 +15598,7 @@
       </c>
       <c r="F433" s="7"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="7" t="s">
         <v>1410</v>
       </c>
@@ -15616,7 +15616,7 @@
       </c>
       <c r="F434" s="7"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="7" t="s">
         <v>1413</v>
       </c>
@@ -15634,7 +15634,7 @@
       </c>
       <c r="F435" s="7"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="7" t="s">
         <v>1416</v>
       </c>
@@ -15652,7 +15652,7 @@
       </c>
       <c r="F436" s="7"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="7" t="s">
         <v>1419</v>
       </c>
@@ -15670,7 +15670,7 @@
       </c>
       <c r="F437" s="7"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="7" t="s">
         <v>1422</v>
       </c>
@@ -15688,7 +15688,7 @@
       </c>
       <c r="F438" s="7"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="7" t="s">
         <v>1425</v>
       </c>
@@ -15706,7 +15706,7 @@
       </c>
       <c r="F439" s="7"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="7" t="s">
         <v>1428</v>
       </c>
@@ -15724,7 +15724,7 @@
       </c>
       <c r="F440" s="7"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="7" t="s">
         <v>1431</v>
       </c>
@@ -15742,7 +15742,7 @@
       </c>
       <c r="F441" s="7"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="7" t="s">
         <v>1434</v>
       </c>
@@ -15760,7 +15760,7 @@
       </c>
       <c r="F442" s="7"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="7" t="s">
         <v>1437</v>
       </c>
@@ -15778,7 +15778,7 @@
       </c>
       <c r="F443" s="7"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="7" t="s">
         <v>1440</v>
       </c>
@@ -15796,7 +15796,7 @@
       </c>
       <c r="F444" s="7"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="7" t="s">
         <v>1443</v>
       </c>
@@ -15814,7 +15814,7 @@
       </c>
       <c r="F445" s="7"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="7" t="s">
         <v>1446</v>
       </c>
@@ -15832,7 +15832,7 @@
       </c>
       <c r="F446" s="7"/>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="7" t="s">
         <v>1449</v>
       </c>
@@ -15850,7 +15850,7 @@
       </c>
       <c r="F447" s="7"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="7" t="s">
         <v>1452</v>
       </c>
@@ -15868,7 +15868,7 @@
       </c>
       <c r="F448" s="7"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="7" t="s">
         <v>1455</v>
       </c>
@@ -15886,7 +15886,7 @@
       </c>
       <c r="F449" s="7"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="7" t="s">
         <v>1458</v>
       </c>
@@ -15904,7 +15904,7 @@
       </c>
       <c r="F450" s="7"/>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="7" t="s">
         <v>1461</v>
       </c>
@@ -15922,7 +15922,7 @@
       </c>
       <c r="F451" s="7"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="7" t="s">
         <v>1464</v>
       </c>
@@ -15940,7 +15940,7 @@
       </c>
       <c r="F452" s="7"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="7" t="s">
         <v>1467</v>
       </c>
@@ -15958,7 +15958,7 @@
       </c>
       <c r="F453" s="7"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="7" t="s">
         <v>1470</v>
       </c>
@@ -15976,7 +15976,7 @@
       </c>
       <c r="F454" s="7"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="7" t="s">
         <v>1473</v>
       </c>
@@ -15994,7 +15994,7 @@
       </c>
       <c r="F455" s="7"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="7" t="s">
         <v>1476</v>
       </c>
@@ -16012,7 +16012,7 @@
       </c>
       <c r="F456" s="7"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="7" t="s">
         <v>1478</v>
       </c>
@@ -16030,7 +16030,7 @@
       </c>
       <c r="F457" s="7"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="7" t="s">
         <v>1481</v>
       </c>
@@ -16048,7 +16048,7 @@
       </c>
       <c r="F458" s="7"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="7" t="s">
         <v>1483</v>
       </c>
@@ -16066,7 +16066,7 @@
       </c>
       <c r="F459" s="7"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="7" t="s">
         <v>1486</v>
       </c>
@@ -16084,7 +16084,7 @@
       </c>
       <c r="F460" s="7"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="7" t="s">
         <v>1489</v>
       </c>
@@ -16102,7 +16102,7 @@
       </c>
       <c r="F461" s="7"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="7" t="s">
         <v>1492</v>
       </c>
@@ -16120,7 +16120,7 @@
       </c>
       <c r="F462" s="7"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="7" t="s">
         <v>1495</v>
       </c>
@@ -16138,7 +16138,7 @@
       </c>
       <c r="F463" s="7"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="7" t="s">
         <v>1498</v>
       </c>
@@ -16156,7 +16156,7 @@
       </c>
       <c r="F464" s="7"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="7" t="s">
         <v>1501</v>
       </c>
@@ -16174,7 +16174,7 @@
       </c>
       <c r="F465" s="7"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="7" t="s">
         <v>1504</v>
       </c>
@@ -16192,7 +16192,7 @@
       </c>
       <c r="F466" s="7"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="7" t="s">
         <v>1507</v>
       </c>
@@ -16210,7 +16210,7 @@
       </c>
       <c r="F467" s="7"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="7" t="s">
         <v>1510</v>
       </c>
@@ -16228,7 +16228,7 @@
       </c>
       <c r="F468" s="7"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="7" t="s">
         <v>1513</v>
       </c>
@@ -16246,7 +16246,7 @@
       </c>
       <c r="F469" s="7"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="7" t="s">
         <v>1516</v>
       </c>
@@ -16264,7 +16264,7 @@
       </c>
       <c r="F470" s="7"/>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="7" t="s">
         <v>1519</v>
       </c>
@@ -16282,7 +16282,7 @@
       </c>
       <c r="F471" s="7"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="7" t="s">
         <v>1522</v>
       </c>
@@ -16300,7 +16300,7 @@
       </c>
       <c r="F472" s="7"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="7" t="s">
         <v>1525</v>
       </c>
@@ -16318,7 +16318,7 @@
       </c>
       <c r="F473" s="7"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="7" t="s">
         <v>1528</v>
       </c>
@@ -16336,7 +16336,7 @@
       </c>
       <c r="F474" s="7"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="7" t="s">
         <v>1531</v>
       </c>
@@ -16354,7 +16354,7 @@
       </c>
       <c r="F475" s="7"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="7" t="s">
         <v>1533</v>
       </c>
@@ -16372,7 +16372,7 @@
       </c>
       <c r="F476" s="7"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="7" t="s">
         <v>1536</v>
       </c>
@@ -16390,7 +16390,7 @@
       </c>
       <c r="F477" s="7"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="7" t="s">
         <v>1539</v>
       </c>
@@ -16408,7 +16408,7 @@
       </c>
       <c r="F478" s="7"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="7" t="s">
         <v>1542</v>
       </c>
@@ -16426,7 +16426,7 @@
       </c>
       <c r="F479" s="7"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="7" t="s">
         <v>1545</v>
       </c>
@@ -16444,7 +16444,7 @@
       </c>
       <c r="F480" s="7"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="7" t="s">
         <v>1547</v>
       </c>
@@ -16462,7 +16462,7 @@
       </c>
       <c r="F481" s="7"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="7" t="s">
         <v>1550</v>
       </c>
@@ -16480,7 +16480,7 @@
       </c>
       <c r="F482" s="7"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="7" t="s">
         <v>1553</v>
       </c>
@@ -16498,7 +16498,7 @@
       </c>
       <c r="F483" s="7"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="7" t="s">
         <v>1556</v>
       </c>
@@ -16516,7 +16516,7 @@
       </c>
       <c r="F484" s="7"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="7" t="s">
         <v>1559</v>
       </c>
@@ -16534,7 +16534,7 @@
       </c>
       <c r="F485" s="7"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="7" t="s">
         <v>1562</v>
       </c>
@@ -16552,7 +16552,7 @@
       </c>
       <c r="F486" s="7"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="7" t="s">
         <v>1565</v>
       </c>
@@ -16570,7 +16570,7 @@
       </c>
       <c r="F487" s="7"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="7" t="s">
         <v>1568</v>
       </c>
@@ -16588,7 +16588,7 @@
       </c>
       <c r="F488" s="7"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="7" t="s">
         <v>1571</v>
       </c>
@@ -16606,7 +16606,7 @@
       </c>
       <c r="F489" s="7"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="7" t="s">
         <v>1574</v>
       </c>
@@ -16624,7 +16624,7 @@
       </c>
       <c r="F490" s="7"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="7" t="s">
         <v>1577</v>
       </c>
@@ -16642,7 +16642,7 @@
       </c>
       <c r="F491" s="7"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="7" t="s">
         <v>1580</v>
       </c>
@@ -16660,7 +16660,7 @@
       </c>
       <c r="F492" s="7"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="7" t="s">
         <v>1583</v>
       </c>
@@ -16678,7 +16678,7 @@
       </c>
       <c r="F493" s="7"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="7" t="s">
         <v>1586</v>
       </c>
@@ -16696,7 +16696,7 @@
       </c>
       <c r="F494" s="7"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="7" t="s">
         <v>1589</v>
       </c>
@@ -16714,7 +16714,7 @@
       </c>
       <c r="F495" s="7"/>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="7" t="s">
         <v>1592</v>
       </c>
@@ -16732,7 +16732,7 @@
       </c>
       <c r="F496" s="7"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="7" t="s">
         <v>1595</v>
       </c>
@@ -16750,7 +16750,7 @@
       </c>
       <c r="F497" s="7"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="7" t="s">
         <v>1598</v>
       </c>
@@ -16768,7 +16768,7 @@
       </c>
       <c r="F498" s="7"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="7" t="s">
         <v>1601</v>
       </c>
@@ -16786,7 +16786,7 @@
       </c>
       <c r="F499" s="7"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="7" t="s">
         <v>1604</v>
       </c>
@@ -16804,7 +16804,7 @@
       </c>
       <c r="F500" s="7"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="7" t="s">
         <v>1607</v>
       </c>
@@ -16822,7 +16822,7 @@
       </c>
       <c r="F501" s="7"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="7" t="s">
         <v>1610</v>
       </c>
@@ -16840,7 +16840,7 @@
       </c>
       <c r="F502" s="7"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="7" t="s">
         <v>1613</v>
       </c>
@@ -16858,7 +16858,7 @@
       </c>
       <c r="F503" s="7"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="7" t="s">
         <v>1616</v>
       </c>
@@ -16876,7 +16876,7 @@
       </c>
       <c r="F504" s="7"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="7" t="s">
         <v>1619</v>
       </c>
@@ -16894,7 +16894,7 @@
       </c>
       <c r="F505" s="7"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="7" t="s">
         <v>1622</v>
       </c>
@@ -16912,7 +16912,7 @@
       </c>
       <c r="F506" s="7"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="7" t="s">
         <v>1625</v>
       </c>
@@ -16930,7 +16930,7 @@
       </c>
       <c r="F507" s="7"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="7" t="s">
         <v>1628</v>
       </c>
@@ -16948,7 +16948,7 @@
       </c>
       <c r="F508" s="7"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="7" t="s">
         <v>1631</v>
       </c>
@@ -16966,7 +16966,7 @@
       </c>
       <c r="F509" s="7"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="7" t="s">
         <v>1634</v>
       </c>
@@ -16984,7 +16984,7 @@
       </c>
       <c r="F510" s="7"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="7" t="s">
         <v>1637</v>
       </c>
@@ -17002,7 +17002,7 @@
       </c>
       <c r="F511" s="7"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="7" t="s">
         <v>1640</v>
       </c>
@@ -17020,7 +17020,7 @@
       </c>
       <c r="F512" s="7"/>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="7" t="s">
         <v>1643</v>
       </c>
@@ -17038,7 +17038,7 @@
       </c>
       <c r="F513" s="7"/>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="7" t="s">
         <v>1646</v>
       </c>
@@ -17056,7 +17056,7 @@
       </c>
       <c r="F514" s="7"/>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="7" t="s">
         <v>1649</v>
       </c>
@@ -17074,7 +17074,7 @@
       </c>
       <c r="F515" s="7"/>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="7" t="s">
         <v>1652</v>
       </c>
@@ -17092,7 +17092,7 @@
       </c>
       <c r="F516" s="7"/>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="7" t="s">
         <v>1655</v>
       </c>
@@ -17110,7 +17110,7 @@
       </c>
       <c r="F517" s="7"/>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="7" t="s">
         <v>1658</v>
       </c>
@@ -17128,7 +17128,7 @@
       </c>
       <c r="F518" s="7"/>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="7" t="s">
         <v>1661</v>
       </c>
@@ -17146,7 +17146,7 @@
       </c>
       <c r="F519" s="7"/>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="7" t="s">
         <v>1664</v>
       </c>
@@ -17164,7 +17164,7 @@
       </c>
       <c r="F520" s="7"/>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="7" t="s">
         <v>1667</v>
       </c>
@@ -17182,7 +17182,7 @@
       </c>
       <c r="F521" s="7"/>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="7" t="s">
         <v>1670</v>
       </c>
@@ -17200,7 +17200,7 @@
       </c>
       <c r="F522" s="7"/>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="7" t="s">
         <v>1673</v>
       </c>
@@ -17218,7 +17218,7 @@
       </c>
       <c r="F523" s="7"/>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="7" t="s">
         <v>1676</v>
       </c>
@@ -17236,7 +17236,7 @@
       </c>
       <c r="F524" s="7"/>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="7" t="s">
         <v>1679</v>
       </c>
@@ -17254,7 +17254,7 @@
       </c>
       <c r="F525" s="7"/>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="7" t="s">
         <v>1682</v>
       </c>
@@ -17272,7 +17272,7 @@
       </c>
       <c r="F526" s="7"/>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="7" t="s">
         <v>1685</v>
       </c>
@@ -17290,7 +17290,7 @@
       </c>
       <c r="F527" s="7"/>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="7" t="s">
         <v>1688</v>
       </c>
@@ -17308,7 +17308,7 @@
       </c>
       <c r="F528" s="7"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="7" t="s">
         <v>1691</v>
       </c>
@@ -17326,7 +17326,7 @@
       </c>
       <c r="F529" s="7"/>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="7" t="s">
         <v>1694</v>
       </c>
@@ -17344,7 +17344,7 @@
       </c>
       <c r="F530" s="7"/>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="7" t="s">
         <v>1697</v>
       </c>
@@ -17362,7 +17362,7 @@
       </c>
       <c r="F531" s="7"/>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="7" t="s">
         <v>1700</v>
       </c>
@@ -17380,7 +17380,7 @@
       </c>
       <c r="F532" s="7"/>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="7" t="s">
         <v>1703</v>
       </c>
@@ -17398,7 +17398,7 @@
       </c>
       <c r="F533" s="7"/>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="7" t="s">
         <v>1706</v>
       </c>
@@ -17416,7 +17416,7 @@
       </c>
       <c r="F534" s="7"/>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="7" t="s">
         <v>1709</v>
       </c>
@@ -17434,7 +17434,7 @@
       </c>
       <c r="F535" s="7"/>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="7" t="s">
         <v>1712</v>
       </c>
@@ -17452,7 +17452,7 @@
       </c>
       <c r="F536" s="7"/>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="7" t="s">
         <v>1715</v>
       </c>
@@ -17470,7 +17470,7 @@
       </c>
       <c r="F537" s="7"/>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="7" t="s">
         <v>1718</v>
       </c>
@@ -17488,7 +17488,7 @@
       </c>
       <c r="F538" s="7"/>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="7" t="s">
         <v>1721</v>
       </c>
@@ -17506,7 +17506,7 @@
       </c>
       <c r="F539" s="7"/>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" s="7" t="s">
         <v>1724</v>
       </c>
@@ -17524,7 +17524,7 @@
       </c>
       <c r="F540" s="7"/>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="7" t="s">
         <v>1727</v>
       </c>
@@ -17542,7 +17542,7 @@
       </c>
       <c r="F541" s="7"/>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" s="7" t="s">
         <v>1730</v>
       </c>
@@ -17560,7 +17560,7 @@
       </c>
       <c r="F542" s="7"/>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="7" t="s">
         <v>1733</v>
       </c>
@@ -17578,7 +17578,7 @@
       </c>
       <c r="F543" s="7"/>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="7" t="s">
         <v>1736</v>
       </c>
@@ -17596,7 +17596,7 @@
       </c>
       <c r="F544" s="7"/>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="7" t="s">
         <v>1739</v>
       </c>
@@ -17614,7 +17614,7 @@
       </c>
       <c r="F545" s="7"/>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="7" t="s">
         <v>1742</v>
       </c>
@@ -17632,7 +17632,7 @@
       </c>
       <c r="F546" s="7"/>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="7" t="s">
         <v>1745</v>
       </c>
@@ -17650,7 +17650,7 @@
       </c>
       <c r="F547" s="7"/>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="7" t="s">
         <v>1748</v>
       </c>
@@ -17668,7 +17668,7 @@
       </c>
       <c r="F548" s="7"/>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="7" t="s">
         <v>1751</v>
       </c>
@@ -17686,7 +17686,7 @@
       </c>
       <c r="F549" s="7"/>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="7" t="s">
         <v>1754</v>
       </c>
@@ -17704,7 +17704,7 @@
       </c>
       <c r="F550" s="7"/>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="7" t="s">
         <v>1757</v>
       </c>
@@ -17722,7 +17722,7 @@
       </c>
       <c r="F551" s="7"/>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="7" t="s">
         <v>1760</v>
       </c>
@@ -17740,7 +17740,7 @@
       </c>
       <c r="F552" s="7"/>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="7" t="s">
         <v>1763</v>
       </c>
@@ -17758,7 +17758,7 @@
       </c>
       <c r="F553" s="7"/>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="7" t="s">
         <v>1765</v>
       </c>
@@ -17776,7 +17776,7 @@
       </c>
       <c r="F554" s="7"/>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="7" t="s">
         <v>1768</v>
       </c>
@@ -17794,7 +17794,7 @@
       </c>
       <c r="F555" s="7"/>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="7" t="s">
         <v>1771</v>
       </c>
@@ -17812,7 +17812,7 @@
       </c>
       <c r="F556" s="7"/>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="7" t="s">
         <v>1774</v>
       </c>
@@ -17830,7 +17830,7 @@
       </c>
       <c r="F557" s="7"/>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" s="7" t="s">
         <v>1777</v>
       </c>
@@ -17848,7 +17848,7 @@
       </c>
       <c r="F558" s="7"/>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="7" t="s">
         <v>1780</v>
       </c>
@@ -17866,7 +17866,7 @@
       </c>
       <c r="F559" s="7"/>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" s="7" t="s">
         <v>1783</v>
       </c>
@@ -17884,7 +17884,7 @@
       </c>
       <c r="F560" s="7"/>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="7" t="s">
         <v>1786</v>
       </c>
@@ -17902,7 +17902,7 @@
       </c>
       <c r="F561" s="7"/>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="7" t="s">
         <v>1789</v>
       </c>
@@ -17920,7 +17920,7 @@
       </c>
       <c r="F562" s="7"/>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" s="7" t="s">
         <v>1792</v>
       </c>
@@ -17938,7 +17938,7 @@
       </c>
       <c r="F563" s="7"/>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="7" t="s">
         <v>1795</v>
       </c>
@@ -17956,7 +17956,7 @@
       </c>
       <c r="F564" s="7"/>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="7" t="s">
         <v>1798</v>
       </c>
@@ -17974,7 +17974,7 @@
       </c>
       <c r="F565" s="7"/>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="7" t="s">
         <v>1801</v>
       </c>
@@ -17992,7 +17992,7 @@
       </c>
       <c r="F566" s="7"/>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" s="7" t="s">
         <v>1804</v>
       </c>
@@ -18010,7 +18010,7 @@
       </c>
       <c r="F567" s="7"/>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="7" t="s">
         <v>1807</v>
       </c>
@@ -18028,7 +18028,7 @@
       </c>
       <c r="F568" s="7"/>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="7" t="s">
         <v>1810</v>
       </c>
@@ -18046,7 +18046,7 @@
       </c>
       <c r="F569" s="7"/>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="7" t="s">
         <v>1813</v>
       </c>
@@ -18064,7 +18064,7 @@
       </c>
       <c r="F570" s="7"/>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="7" t="s">
         <v>1816</v>
       </c>
@@ -18082,7 +18082,7 @@
       </c>
       <c r="F571" s="7"/>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" s="7" t="s">
         <v>1819</v>
       </c>
@@ -18100,7 +18100,7 @@
       </c>
       <c r="F572" s="7"/>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" s="7" t="s">
         <v>1821</v>
       </c>
@@ -18118,7 +18118,7 @@
       </c>
       <c r="F573" s="7"/>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" s="7" t="s">
         <v>1824</v>
       </c>
@@ -18136,7 +18136,7 @@
       </c>
       <c r="F574" s="7"/>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" s="7" t="s">
         <v>1827</v>
       </c>
@@ -18154,7 +18154,7 @@
       </c>
       <c r="F575" s="7"/>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" s="7" t="s">
         <v>1830</v>
       </c>
@@ -18172,7 +18172,7 @@
       </c>
       <c r="F576" s="7"/>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" s="7" t="s">
         <v>1833</v>
       </c>
@@ -18190,7 +18190,7 @@
       </c>
       <c r="F577" s="7"/>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" s="7" t="s">
         <v>1836</v>
       </c>
@@ -18208,7 +18208,7 @@
       </c>
       <c r="F578" s="7"/>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="7" t="s">
         <v>1839</v>
       </c>
@@ -18226,7 +18226,7 @@
       </c>
       <c r="F579" s="7"/>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="7" t="s">
         <v>1842</v>
       </c>
@@ -18244,7 +18244,7 @@
       </c>
       <c r="F580" s="7"/>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="7" t="s">
         <v>1845</v>
       </c>
@@ -18262,7 +18262,7 @@
       </c>
       <c r="F581" s="7"/>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="7" t="s">
         <v>1848</v>
       </c>
@@ -18280,7 +18280,7 @@
       </c>
       <c r="F582" s="7"/>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="7" t="s">
         <v>1851</v>
       </c>
@@ -18298,7 +18298,7 @@
       </c>
       <c r="F583" s="7"/>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="7" t="s">
         <v>1854</v>
       </c>
@@ -18316,7 +18316,7 @@
       </c>
       <c r="F584" s="7"/>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="7" t="s">
         <v>1857</v>
       </c>
@@ -18334,7 +18334,7 @@
       </c>
       <c r="F585" s="7"/>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="7" t="s">
         <v>1860</v>
       </c>
@@ -18352,7 +18352,7 @@
       </c>
       <c r="F586" s="7"/>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="7" t="s">
         <v>1863</v>
       </c>
@@ -18370,7 +18370,7 @@
       </c>
       <c r="F587" s="7"/>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" s="7" t="s">
         <v>1865</v>
       </c>
@@ -18388,7 +18388,7 @@
       </c>
       <c r="F588" s="7"/>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="7" t="s">
         <v>1868</v>
       </c>
@@ -18406,7 +18406,7 @@
       </c>
       <c r="F589" s="7"/>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" s="7" t="s">
         <v>1871</v>
       </c>
@@ -18422,7 +18422,7 @@
       </c>
       <c r="F590" s="7"/>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" s="7" t="s">
         <v>1874</v>
       </c>
@@ -18438,7 +18438,7 @@
       </c>
       <c r="F591" s="7"/>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" s="7" t="s">
         <v>1877</v>
       </c>
@@ -18454,7 +18454,7 @@
       </c>
       <c r="F592" s="7"/>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" s="7" t="s">
         <v>1880</v>
       </c>
@@ -18470,7 +18470,7 @@
       </c>
       <c r="F593" s="7"/>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" s="7" t="s">
         <v>1883</v>
       </c>
@@ -18486,7 +18486,7 @@
       </c>
       <c r="F594" s="7"/>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" s="7" t="s">
         <v>1886</v>
       </c>
@@ -18502,7 +18502,7 @@
       </c>
       <c r="F595" s="7"/>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" s="7" t="s">
         <v>1889</v>
       </c>
@@ -18518,7 +18518,7 @@
       </c>
       <c r="F596" s="7"/>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" s="7" t="s">
         <v>1892</v>
       </c>
@@ -18534,7 +18534,7 @@
       </c>
       <c r="F597" s="7"/>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" s="7" t="s">
         <v>1895</v>
       </c>
@@ -18550,7 +18550,7 @@
       </c>
       <c r="F598" s="7"/>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" s="7" t="s">
         <v>1898</v>
       </c>
@@ -18566,7 +18566,7 @@
       </c>
       <c r="F599" s="7"/>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" s="7" t="s">
         <v>1901</v>
       </c>
@@ -18582,7 +18582,7 @@
       </c>
       <c r="F600" s="7"/>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" s="7" t="s">
         <v>1904</v>
       </c>
@@ -18598,7 +18598,7 @@
       </c>
       <c r="F601" s="7"/>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" s="7" t="s">
         <v>1906</v>
       </c>
@@ -18614,7 +18614,7 @@
       </c>
       <c r="F602" s="7"/>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" s="7" t="s">
         <v>1909</v>
       </c>
@@ -18630,7 +18630,7 @@
       </c>
       <c r="F603" s="7"/>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" s="7" t="s">
         <v>1912</v>
       </c>
@@ -18646,7 +18646,7 @@
       </c>
       <c r="F604" s="7"/>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" s="7" t="s">
         <v>1915</v>
       </c>
@@ -18662,7 +18662,7 @@
       </c>
       <c r="F605" s="7"/>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" s="7" t="s">
         <v>1918</v>
       </c>
@@ -18678,7 +18678,7 @@
       </c>
       <c r="F606" s="7"/>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" s="7" t="s">
         <v>1921</v>
       </c>
@@ -18694,7 +18694,7 @@
       </c>
       <c r="F607" s="7"/>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" s="7" t="s">
         <v>1924</v>
       </c>
@@ -18710,7 +18710,7 @@
       </c>
       <c r="F608" s="7"/>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="7" t="s">
         <v>1927</v>
       </c>
@@ -18726,7 +18726,7 @@
       </c>
       <c r="F609" s="7"/>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="7" t="s">
         <v>1930</v>
       </c>
@@ -18760,15 +18760,15 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="59.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18776,7 +18776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -18784,7 +18784,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -18792,7 +18792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -18808,13 +18808,13 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -18822,13 +18822,13 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -18842,7 +18842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18854,7 +18854,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18866,7 +18866,7 @@
       </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18878,7 +18878,7 @@
       </c>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18890,7 +18890,7 @@
       </c>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18902,7 +18902,7 @@
       </c>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18914,7 +18914,7 @@
       </c>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18926,7 +18926,7 @@
       </c>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18938,7 +18938,7 @@
       </c>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18950,7 +18950,7 @@
       </c>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18962,7 +18962,7 @@
       </c>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18974,7 +18974,7 @@
       </c>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18986,7 +18986,7 @@
       </c>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>1935</v>
       </c>
@@ -18998,7 +18998,7 @@
       </c>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>1935</v>
       </c>
@@ -19010,7 +19010,7 @@
       </c>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>1935</v>
       </c>
@@ -19022,7 +19022,7 @@
       </c>
       <c r="D24" s="10"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>1935</v>
       </c>
@@ -19043,6 +19043,67 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="a24e46c8e369b0d0dbf292fc067594e6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b005a03a4b86eaa0f9218a8d7ff13ee" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19456,93 +19517,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f8b6baa267c0456bbf6a8d18c49a130b>
-    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
-    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p671c8df16a44846939d278d4958f62c>
-    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b2804ef99be44b9e8166e80a6c2eb9f1>
-    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mc4aa6e782e045f6bb87dab01c971b56>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m312bc62cb0243b6a873cbbf4dace6b2>
-    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b084a4cb34a444d7969136255594d2f3>
-    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g30fb2d8061a4d40b63138f91c1a832e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m9a76db3058146ae844db6599c9d7036>
-    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l0a6b4600f484920bbceae0813174244>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E42D721B-EA13-4047-B0F8-FA2BB2595BF7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98F885D4-EF3D-4686-B5F6-1FDD2BF41E71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A3BBB1E-C9DF-4117-9187-A8DD65EB643C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98F885D4-EF3D-4686-B5F6-1FDD2BF41E71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D01D0A2-27D5-4CA0-ACD4-971FD75E8FB0}"/>
 </file>